--- a/dataset/RIKEN_MONA/RIKEN_MONA_train.xlsx
+++ b/dataset/RIKEN_MONA/RIKEN_MONA_train.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2825">
   <si>
     <t>compound_name</t>
   </si>
@@ -8489,1344 +8490,6 @@
   </si>
   <si>
     <t>O=C1c2c(O)cc(O)cc2OC(c2ccc(O)cc2)C1O</t>
-  </si>
-  <si>
-    <t>(2R)-2-Hydroxy-2-phenethylglucosinolate</t>
-  </si>
-  <si>
-    <t>07170_(2R)-2-Hydroxy-2-phenethylglucosinolate</t>
-  </si>
-  <si>
-    <t>74.99015:5.700000 79.95791:1.100000 85.02828:0.700000 90.00209:0.900000 95.95175:13.500000 96.95988:53.000000 98.95734:2.600000 101.01923:0.500000 101.02393:0.800000 117.02267:0.500000 119.03206:0.800000 135.96992:12.800000 137.96565:1.000000 138.94995:1.200000 138.96544:0.900000 138.97232:2.500000 153.98163:2.800000 169.95274:0.600000 195.03302:3.500000 196.04443:6.900000 197.04883:0.600000 211.02895:0.900000 215.99829:0.800000 238.02914:0.700000 241.00334:1.100000 242.0127:2.000000 259.013:9.100000 260.02307:2.500000 261.02518:0.600000 274.99008:4.400000 301.00302:1.000000 332.00848:2.100000 358.11273:0.700000 438.05353:100.000000 438.11682:0.800000</t>
-  </si>
-  <si>
-    <t>GAPDDBFHNYHZIS-UHFFFAOYNA-N</t>
-  </si>
-  <si>
-    <t>O=S(=O)(O)ON=C(SC1OC(CO)C(O)C(O)C1O)CC(O)C=2C=CC=CC2</t>
-  </si>
-  <si>
-    <t>C15H21NO10S2</t>
-  </si>
-  <si>
-    <t>GAPDDBFHNYHZIS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C15H21NO10S2/c17-7-10-12(19)13(20)14(21)15(25-10)27-11(16-26-28(22,23)24)6-9(18)8-4-2-1-3-5-8/h1-5,9-10,12-15,17-21H,6-7H2,(H,22,23,24)</t>
-  </si>
-  <si>
-    <t>O=S(=O)(O)ON=C(CC(O)c1ccccc1)SC1OC(CO)C(O)C(O)C1O</t>
-  </si>
-  <si>
-    <t>Protopine</t>
-  </si>
-  <si>
-    <t>01813_Protopine</t>
-  </si>
-  <si>
-    <t>119.04852:0.800000 135.04596:1.000000 147.04271:0.500000 149.06047:7.700000 150.06509:0.600000 159.07315:1.200000 163.03905:0.700000 165.05499:2.600000 175.04019:1.100000 177.07471:0.700000 178.0849:0.600000 188.07117:18.300000 189.07855:19.800000 190.07646:1.600000 190.08456:3.100000 195.08026:1.200000 206.08269:3.700000 207.08646:1.400000 209.06023:0.700000 217.06677:1.200000 223.07639:0.900000 225.09163:0.500000 235.07777:1.100000 237.08958:1.000000 247.06387:0.500000 247.0771:3.100000 265.08228:1.100000 267.06747:0.700000 275.07117:3.800000 276.07886:0.800000 278.11926:0.900000 293.08917:0.700000 295.08914:0.600000 305.08209:0.600000 320.09036:1.200000 323.08832:0.700000 323.0979:0.500000 336.12683:1.900000 354.07947:0.600000 354.13382:100.000000 354.18814:2.400000</t>
-  </si>
-  <si>
-    <t>GPTFURBXHJWNHR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C1C2=CC=3OCOC3C=C2CCN(C)CC4=C5OCOC5=CC=C4C1</t>
-  </si>
-  <si>
-    <t>Protopine alkaloids</t>
-  </si>
-  <si>
-    <t>InChI=1S/C20H19NO5/c1-21-5-4-13-7-18-19(25-10-24-18)8-14(13)16(22)6-12-2-3-17-20(15(12)9-21)26-11-23-17/h2-3,7-8H,4-6,9-11H2,1H3</t>
-  </si>
-  <si>
-    <t>CN1CCc2cc3c(cc2C(=O)Cc2ccc4c(c2C1)OCO4)OCO3</t>
-  </si>
-  <si>
-    <t>Arctiin</t>
-  </si>
-  <si>
-    <t>08005_Arctiin</t>
-  </si>
-  <si>
-    <t>108.01868:12.300000 121.02565:12.300000 136.04974:14.600000 295.12598:14.600000 371.14581:100.000000 372.14279:13.100000 373.15851:15.400000 485.15884:13.800000 533.18671:17.700000</t>
-  </si>
-  <si>
-    <t>XOJVHLIYNSOZOO-UHFFFAOYNA-N</t>
-  </si>
-  <si>
-    <t>O=C1OCC(CC2=CC=C(OC)C(OC)=C2)C1CC3=CC=C(OC4OC(CO)C(O)C(O)C4O)C(OC)=C3</t>
-  </si>
-  <si>
-    <t>XOJVHLIYNSOZOO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C27H34O11/c1-33-18-6-4-14(10-20(18)34-2)8-16-13-36-26(32)17(16)9-15-5-7-19(21(11-15)35-3)37-27-25(31)24(30)23(29)22(12-28)38-27/h4-7,10-11,16-17,22-25,27-31H,8-9,12-13H2,1-3H3</t>
-  </si>
-  <si>
-    <t>COc1ccc(CC2COC(=O)C2Cc2ccc(OC3OC(CO)C(O)C(O)C3O)c(OC)c2)cc1OC</t>
-  </si>
-  <si>
-    <t>Oxyacanthine</t>
-  </si>
-  <si>
-    <t>01776_Oxyacanthine</t>
-  </si>
-  <si>
-    <t>105.06065:0.600000 162.09389:0.500000 163.07396:0.800000 175.06552:0.500000 176.11008:0.800000 196.08945:0.500000 206.12009:0.600000 210.07104:0.800000 219.09155:0.600000 220.10753:0.600000 222.11069:1.400000 223.12309:0.800000 237.09421:0.800000 252.10985:0.600000 264.11646:0.800000 268.11798:0.900000 283.12506:0.500000 305.14059:0.900000 305.65594:0.500000 306.66302:0.700000 320.14514:0.600000 329.16104:0.500000 336.15976:0.600000 355.13309:0.800000 364.19397:0.500000 381.16052:0.500000 381.17554:1.500000 381.20178:0.500000 382.06607:0.700000 382.18192:1.000000 395.18396:0.600000 396.20764:0.900000 402.19757:0.500000 403.15665:0.600000 408.14212:0.500000 413.17084:0.500000 441.23785:0.700000 474.17972:0.800000 478.23398:0.600000 503.19208:0.500000 519.22382:0.700000 520.18927:0.500000 536.21136:0.500000 536.23779:0.600000 544.72418:0.500000 546.22552:0.800000 548.20654:0.900000 563.23999:0.800000 566.22931:1.000000 566.26361:0.800000 567.25006:2.400000 578.19427:0.500000 578.23376:0.800000 578.26044:4.000000 579.27362:1.200000 608.27252:1.400000 609.24469:4.500000 609.29865:100.000000</t>
-  </si>
-  <si>
-    <t>HGNHIFJNOKGSKI-FICMROCWSA-N</t>
-  </si>
-  <si>
-    <t>OC1=CC=C2C=C1OC3=CC=C(C=C3)CC4C5=C(OC=6C=C7C(=CC6OC)CCN(C)C7C2)C(OC)=C(OC)C=C5CCN4C</t>
-  </si>
-  <si>
-    <t>InChI=1S/C37H40N2O6/c1-38-14-12-24-19-32(41-3)33-21-27(24)28(38)17-23-8-11-30(40)31(18-23)44-26-9-6-22(7-10-26)16-29-35-25(13-15-39(29)2)20-34(42-4)36(43-5)37(35)45-33/h6-11,18-21,28-29,40H,12-17H2,1-5H3/t28-,29?/m1/s1</t>
-  </si>
-  <si>
-    <t>COc1cc2c3cc1Oc1c(OC)c(OC)cc4c1C(Cc1ccc(cc1)Oc1cc(ccc1O)C[C@H]3N(C)CC2)N(C)CC4</t>
-  </si>
-  <si>
-    <t>12-Cytisineacetamide</t>
-  </si>
-  <si>
-    <t>01266_12-Cytisineacetamide</t>
-  </si>
-  <si>
-    <t>73.07937:0.700000 101.07241:8.500000 102.076:1.100000 146.06007:0.600000 160.07503:2.600000 203.11859:24.800000 204.12294:3.300000 248.1398:100.000000 248.18439:1.400000</t>
-  </si>
-  <si>
-    <t>MRVHCCZFXHOQOT-ZJUUUORDSA-N</t>
-  </si>
-  <si>
-    <t>O=C1C=CC=C2N1CC3CN(CC(=N)O)CC2C3</t>
-  </si>
-  <si>
-    <t>Cytisine and derivatives</t>
-  </si>
-  <si>
-    <t>C13H17N3O2</t>
-  </si>
-  <si>
-    <t>InChI=1S/C13H17N3O2/c14-12(17)8-15-5-9-4-10(7-15)11-2-1-3-13(18)16(11)6-9/h1-3,9-10H,4-8H2,(H2,14,17)/t9-,10+/m1/s1</t>
-  </si>
-  <si>
-    <t>N=C(O)CN1C[C@@H]2C[C@H](C1)Cn1c2cccc1=O</t>
-  </si>
-  <si>
-    <t>Gelsemine</t>
-  </si>
-  <si>
-    <t>00238_Gelsemine</t>
-  </si>
-  <si>
-    <t>70.06472:2.700000 131.08401:1.500000 132.03914:0.500000 146.05592:0.500000 146.0647:0.600000 159.077:0.900000 195.06667:2.400000 196.07523:1.100000 208.07793:0.700000 210.09213:1.200000 218.09605:1.700000 236.10736:5.200000 237.10776:0.600000 238.11899:1.700000 239.1252:0.700000 323.11981:0.800000 323.17514:100.000000 323.22803:2.500000</t>
-  </si>
-  <si>
-    <t>NFYYATWFXNPTRM-ICFOCEFXSA-N</t>
-  </si>
-  <si>
-    <t>OC1=NC=2C=CC=CC2C13C4OCC5C6N(C)CC(C=C)(C5C4)C63</t>
-  </si>
-  <si>
-    <t>InChI=1S/C20H22N2O2/c1-3-19-10-22(2)16-11-9-24-15(8-13(11)19)20(17(16)19)12-6-4-5-7-14(12)21-18(20)23/h3-7,11,13,15-17H,1,8-10H2,2H3,(H,21,23)/t11-,13?,15+,16+,17-,19-,20-/m0/s1</t>
-  </si>
-  <si>
-    <t>C=C[C@]12CN(C)[C@@H]3[C@H]4CO[C@H](CC41)[C@]1(C(O)=Nc4ccccc41)[C@@H]32</t>
-  </si>
-  <si>
-    <t>7-Methylsulfinylheptyl isothiocyanate</t>
-  </si>
-  <si>
-    <t>07216_7-Methylsulfinylheptyl isothiocyanate</t>
-  </si>
-  <si>
-    <t>142.07506:56.100000 156.08659:30.300000 168.08998:100.000000</t>
-  </si>
-  <si>
-    <t>OGYHCBGORZWBPH-UHFFFAOYNA-N</t>
-  </si>
-  <si>
-    <t>O=S(C)CCCCCCCN=C=S</t>
-  </si>
-  <si>
-    <t>C9H17NOS2</t>
-  </si>
-  <si>
-    <t>OGYHCBGORZWBPH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C9H17NOS2/c1-13(11)8-6-4-2-3-5-7-10-9-12/h2-8H2,1H3</t>
-  </si>
-  <si>
-    <t>CS(=O)CCCCCCCN=C=S</t>
-  </si>
-  <si>
-    <t>Vincamine</t>
-  </si>
-  <si>
-    <t>01541_Vincamine</t>
-  </si>
-  <si>
-    <t>144.08186:5.600000 152.10716:1.800000 194.11584:0.700000 205.09064:0.800000 206.09494:0.700000 208.11436:0.900000 212.13213:2.300000 220.11588:0.700000 221.12262:0.700000 222.12793:0.500000 234.12251:1.100000 234.13557:0.900000 235.12976:0.600000 248.14966:0.600000 249.14064:0.500000 250.15729:0.600000 264.10159:1.300000 265.10266:0.700000 265.11508:1.100000 266.11111:0.800000 266.12204:0.500000 267.12457:0.900000 268.12619:1.400000 268.13647:1.300000 268.1459:0.600000 277.1691:0.600000 278.11835:0.800000 279.11865:0.700000 279.12811:0.800000 280.134:9.300000 281.13715:2.200000 292.12866:0.600000 292.14145:0.500000 294.15103:10.400000 295.14606:0.900000 295.15918:1.200000 295.18185:1.700000 307.14606:1.200000 308.16168:6.800000 309.16742:1.200000 310.18658:0.900000 337.19095:31.500000 338.19336:7.200000 339.19614:0.700000 355.2034:100.000000 355.25626:2.600000</t>
-  </si>
-  <si>
-    <t>RXPRRQLKFXBCSJ-UHFFFAOYNA-N</t>
-  </si>
-  <si>
-    <t>O=C(OC)C1(O)N2C=3C=CC=CC3C4=C2C5N(CC4)CCCC5(CC)C1</t>
-  </si>
-  <si>
-    <t>RXPRRQLKFXBCSJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H26N2O3/c1-3-20-10-6-11-22-12-9-15-14-7-4-5-8-16(14)23(17(15)18(20)22)21(25,13-20)19(24)26-2/h4-5,7-8,18,25H,3,6,9-13H2,1-2H3</t>
-  </si>
-  <si>
-    <t>CCC12CCCN3CCc4c(n(c5ccccc45)C(O)(C(=O)OC)C1)C32</t>
-  </si>
-  <si>
-    <t>Rhynchophylline</t>
-  </si>
-  <si>
-    <t>00180_Rhynchophylline</t>
-  </si>
-  <si>
-    <t>70.06522:0.500000 108.08026:0.600000 110.09557:2.000000 129.05322:0.700000 132.04465:0.700000 132.08058:2.000000 142.0645:2.100000 144.07907:1.200000 153.09006:0.500000 158.06178:0.700000 160.07512:14.700000 161.07845:1.600000 171.10199:0.900000 194.11734:0.600000 213.10143:1.200000 215.11797:2.400000 226.14392:2.400000 241.13487:0.700000 265.13531:1.100000 267.14703:2.300000 269.1651:5.400000 270.17123:0.800000 353.18512:6.100000 354.18344:1.000000 354.19556:0.700000 385.21164:100.000000 385.26944:2.800000</t>
-  </si>
-  <si>
-    <t>DAXYUDFNWXHGBE-KAXDATADSA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C22H28N2O4/c1-4-14-12-24-10-9-22(17-7-5-6-8-18(17)23-21(22)26)19(24)11-15(14)16(13-27-2)20(25)28-3/h5-8,13-15,19H,4,9-12H2,1-3H3,(H,23,26)/b16-13+/t14-,15-,19-,22+/m0/s1</t>
-  </si>
-  <si>
-    <t>CC[C@H]1CN2CC[C@]3(C(O)=Nc4ccccc43)[C@@H]2C[C@@H]1/C(=C\OC)C(=O)OC</t>
-  </si>
-  <si>
-    <t>Indole-3-acetyl-L-tryptophan</t>
-  </si>
-  <si>
-    <t>04204_Indole-3-acetyl-L-tryptophan</t>
-  </si>
-  <si>
-    <t>103.05561:0.500000 118.06464:3.600000 130.03751:0.700000 130.06438:100.000000 131.06029:1.500000 131.06891:9.700000 132.07895:4.600000 144.07689:2.100000 146.06023:16.500000 157.07526:4.600000 158.0583:3.100000 159.09105:11.300000 160.09099:1.300000 170.06267:5.200000 175.08618:0.500000 185.05075:0.600000 185.07059:27.500000 186.05893:0.500000 186.07391:5.900000 187.07681:0.700000 187.0894:3.100000 188.07018:49.200000 189.07225:4.600000 189.08102:1.800000 190.08139:0.500000 205.09705:30.000000 206.09477:1.800000 206.10185:3.800000 207.09796:0.500000 217.10327:0.800000 245.09535:0.800000 256.09937:0.700000 268.07077:0.600000 271.12106:1.900000 271.1312:1.900000 272.12006:1.300000 277.27875:0.500000 289.12943:0.600000 316.11893:0.500000 316.14368:6.000000 316.16:1.300000 317.13257:0.500000 317.14841:0.700000 317.16135:0.700000 344.14072:10.700000 345.1239:1.100000 345.14618:2.300000 362.15039:70.500000</t>
-  </si>
-  <si>
-    <t>FOSPCYZZRVNHJS-UHFFFAOYNA-N</t>
-  </si>
-  <si>
-    <t>O=C(O)C(N=C(O)CC1=CNC=2C=CC=CC21)CC3=CNC=4C=CC=CC43</t>
-  </si>
-  <si>
-    <t>C21H19N3O3</t>
-  </si>
-  <si>
-    <t>FOSPCYZZRVNHJS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H19N3O3/c25-20(10-14-12-23-18-8-4-2-6-16(14)18)24-19(21(26)27)9-13-11-22-17-7-3-1-5-15(13)17/h1-8,11-12,19,22-23H,9-10H2,(H,24,25)(H,26,27)</t>
-  </si>
-  <si>
-    <t>O=C(O)C(Cc1c[nH]c2ccccc12)N=C(O)Cc1c[nH]c2ccccc12</t>
-  </si>
-  <si>
-    <t>Myricetin</t>
-  </si>
-  <si>
-    <t>02005_Myricetin</t>
-  </si>
-  <si>
-    <t>79.01733:0.500000 97.02055:0.500000 109.02958:0.700000 121.03333:0.600000 135.04437:0.700000 137.02534:1.600000 153.01488:9.400000 153.02905:0.700000 153.05681:0.600000 154.01549:0.500000 158.03366:0.600000 165.0127:0.900000 165.01891:1.400000 166.02158:1.400000 171.05565:0.600000 179.0316:3.500000 189.06001:0.900000 189.86897:0.500000 190.01881:0.600000 199.04294:0.500000 199.14705:0.600000 203.03209:2.000000 209.03993:0.900000 217.04842:2.000000 217.05841:2.700000 218.06255:1.100000 233.04149:0.900000 244.03661:0.600000 245.02975:1.100000 245.04259:5.200000 245.05879:0.800000 246.03004:0.900000 250.14403:0.800000 255.03291:0.500000 263.11987:0.600000 273.03613:3.200000 273.05045:1.300000 274.04254:0.800000 275.0502:0.500000 275.45731:0.800000 283.03165:0.900000 290.03168:1.100000 290.04727:1.900000 291.0495:0.800000 291.06299:0.500000 301.04004:1.700000 317.03522:1.000000 318.03915:0.700000 319.0061:1.200000 319.04651:100.000000</t>
-  </si>
-  <si>
-    <t>IKMDFBPHZNJCSN-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C1C(O)=C(OC=2C=C(O)C=C(O)C12)C=3C=C(O)C(O)=C(O)C3</t>
-  </si>
-  <si>
-    <t>C15H10O8</t>
-  </si>
-  <si>
-    <t>InChI=1S/C15H10O8/c16-6-3-7(17)11-10(4-6)23-15(14(22)13(11)21)5-1-8(18)12(20)9(19)2-5/h1-4,16-20,22H</t>
-  </si>
-  <si>
-    <t>O=c1c(O)c(-c2cc(O)c(O)c(O)c2)oc2cc(O)cc(O)c12</t>
-  </si>
-  <si>
-    <t>Soyasaponin Bb</t>
-  </si>
-  <si>
-    <t>04290_Soyasaponin Bb</t>
-  </si>
-  <si>
-    <t>109.10292:0.900000 129.05728:1.500000 141.01936:1.400000 147.06552:3.200000 159.0264:1.700000 163.05959:3.100000 163.14658:0.700000 177.16241:1.500000 189.1615:1.500000 193.16508:0.600000 195.17676:1.500000 201.16539:0.600000 203.18073:3.700000 205.1606:0.700000 207.17648:1.100000 215.17764:0.900000 215.19235:0.600000 217.1937:4.200000 219.1761:1.900000 221.18936:0.700000 231.18152:0.600000 233.19484:0.900000 245.19392:0.800000 247.20764:1.500000 248.20845:0.600000 261.23193:0.700000 269.05643:0.500000 287.07288:0.900000 287.08453:0.600000 287.242:0.600000 297.25375:0.600000 305.06546:0.600000 305.08325:1.100000 309.11655:2.400000 309.13077:0.500000 315.26733:1.400000 323.08295:0.600000 323.10065:2.800000 329.27798:0.500000 339.09506:1.300000 365.3132:0.700000 383.33246:1.100000 383.34467:0.600000 384.32748:0.500000 405.34677:1.500000 405.36496:1.700000 406.3345:0.600000 423.36258:33.000000 424.36588:11.000000 425.36002:1.200000 425.37405:2.400000 441.31827:0.800000 441.3721:42.300000 442.37564:12.500000 443.3732:1.400000 443.39581:0.600000 459.35629:0.500000 459.38162:2.600000 460.39548:0.700000 485.15363:0.600000 581.36127:1.000000 581.38721:1.300000 581.40674:1.400000 582.3894:1.700000 599.33844:0.700000 599.39673:20.700000 600.40173:6.200000 600.41833:1.900000 601.4118:1.400000 605.41223:0.800000 605.44098:3.100000 606.43909:1.100000 607.45966:0.500000 617.40515:7.400000 618.40363:3.700000 619.4184:0.600000 635.42017:7.700000 636.43048:1.500000 637.42651:1.300000 781.45178:1.700000 781.48413:1.500000 782.48242:1.200000 783.4986:0.500000 797.46552:14.500000 798.47125:7.700000 799.4834:0.900000 800.47021:0.600000 943.5249:100.000000</t>
-  </si>
-  <si>
-    <t>PTDAHAWQAGSZDD-IOVCITQVSA-N</t>
-  </si>
-  <si>
-    <t>O=C(O)C1OC(OC2CCC3(C)C(CCC4(C)C3CC=C5C6CC(C)(C)CC(O)C6(C)CCC54C)C2(C)CO)C(OC7OC(CO)C(O)C(O)C7OC8OC(C)C(O)C(O)C8O)C(O)C1O</t>
-  </si>
-  <si>
-    <t>C48H78O18</t>
-  </si>
-  <si>
-    <t>InChI=1S/C48H78O18/c1-21-29(52)31(54)35(58)40(61-21)65-37-32(55)30(53)24(19-49)62-41(37)66-38-34(57)33(56)36(39(59)60)64-42(38)63-28-12-13-45(5)25(46(28,6)20-50)11-14-48(8)26(45)10-9-22-23-17-43(2,3)18-27(51)44(23,4)15-16-47(22,48)7/h9,21,23-38,40-42,49-58H,10-20H2,1-8H3,(H,59,60)/t21-,23-,24+,25+,26+,27+,28-,29-,30-,31+,32-,33-,34-,35+,36-,37+,38+,40-,41-,42+,44+,45-,46+,47+,48+/m0/s1</t>
-  </si>
-  <si>
-    <t>C[C@@H]1O[C@@H](O[C@H]2[C@H](O[C@@H]3[C@@H](O)[C@H](O)[C@@H](C(=O)O)O[C@H]3O[C@H]3CC[C@@]4(C)[C@@H](CC[C@]5(C)[C@@H]4CC=C4[C@@H]6CC(C)(C)C[C@@H](O)[C@]6(C)CC[C@]45C)[C@@]3(C)CO)O[C@H](CO)[C@H](O)[C@@H]2O)[C@H](O)[C@H](O)[C@H]1O</t>
-  </si>
-  <si>
-    <t>Quercetin-3-O-glucosyl-6''-acetate</t>
-  </si>
-  <si>
-    <t>02072_Quercetin-3-O-glucosyl-6''-acetate</t>
-  </si>
-  <si>
-    <t>69.03194:0.700000 69.03714:0.800000 81.02975:1.500000 81.03554:1.000000 81.04051:0.600000 97.03012:0.500000 109.02093:0.500000 109.02834:3.100000 121.0127:0.500000 127.03151:0.900000 127.03842:4.100000 137.02025:0.600000 153.0248:0.500000 187.06009:6.700000 188.05922:0.700000 205.06535:0.900000 257.04187:0.600000 303.00775:3.100000 303.04904:100.000000 303.07605:0.500000 304.05365:22.100000 305.0455:2.400000 306.06436:0.700000 330.79816:0.500000 345.06339:0.800000 507.11667:14.500000</t>
-  </si>
-  <si>
-    <t>IGLUNMMNDNWZOA-LNNZMUSMSA-N</t>
-  </si>
-  <si>
-    <t>O=C(OCC1OC(OC=2C(=O)C=3C(O)=CC(O)=CC3OC2C=4C=CC(O)=C(O)C4)C(O)C(O)C1O)C</t>
-  </si>
-  <si>
-    <t>C23H22O13</t>
-  </si>
-  <si>
-    <t>InChI=1S/C23H22O13/c1-8(24)33-7-15-17(29)19(31)20(32)23(35-15)36-22-18(30)16-13(28)5-10(25)6-14(16)34-21(22)9-2-3-11(26)12(27)4-9/h2-6,15,17,19-20,23,25-29,31-32H,7H2,1H3/t15-,17-,19+,20-,23+/m1/s1</t>
-  </si>
-  <si>
-    <t>CC(=O)OC[C@H]1O[C@@H](Oc2c(-c3ccc(O)c(O)c3)oc3cc(O)cc(O)c3c2=O)[C@H](O)[C@@H](O)[C@@H]1O</t>
-  </si>
-  <si>
-    <t>Kaempferol-3-O-glucoside-2''-p-coumaroyl</t>
-  </si>
-  <si>
-    <t>06984_Kaempferol-3-O-glucoside-2''-p-coumaroyl</t>
-  </si>
-  <si>
-    <t>65.00314:0.500000 119.04533:0.600000 145.02676:2.600000 151.00056:3.300000 162.9985:0.600000 163.0363:1.300000 165.05147:0.700000 213.05403:1.300000 227.02742:1.000000 227.03802:0.700000 229.05084:0.800000 241.05386:0.900000 255.02731:0.600000 257.039:1.300000 257.05112:1.800000 283.01562:0.800000 284.02499:0.500000 284.03299:1.400000 284.04425:0.900000 285.03925:100.000000 286.03702:5.100000 286.04468:12.700000 287.0426:2.200000 307.0816:9.400000 308.08356:1.700000 447.09091:1.000000 593.13031:17.700000</t>
-  </si>
-  <si>
-    <t>IKONEAPXVKTZFF-UHFFFAOYNA-N</t>
-  </si>
-  <si>
-    <t>O=C(OC1C(OC=2C(=O)C=3C(O)=CC(O)=CC3OC2C=4C=CC(O)=CC4)OC(CO)C(O)C1O)C=CC5=CC=C(O)C=C5</t>
-  </si>
-  <si>
-    <t>IKONEAPXVKTZFF-XCVCLJGOSA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C30H26O13/c31-13-21-24(37)26(39)29(42-22(36)10-3-14-1-6-16(32)7-2-14)30(41-21)43-28-25(38)23-19(35)11-18(34)12-20(23)40-27(28)15-4-8-17(33)9-5-15/h1-12,21,24,26,29-35,37,39H,13H2/b10-3+</t>
-  </si>
-  <si>
-    <t>O=C(/C=C/c1ccc(O)cc1)OC1C(Oc2c(-c3ccc(O)cc3)oc3cc(O)cc(O)c3c2=O)OC(CO)C(O)C1O</t>
-  </si>
-  <si>
-    <t>Hydroxygardnutine</t>
-  </si>
-  <si>
-    <t>00119_Hydroxygardnutine</t>
-  </si>
-  <si>
-    <t>77.03728:0.500000 96.08115:0.700000 103.05362:1.700000 106.06539:3.700000 110.09586:0.600000 118.0643:0.600000 120.08076:9.000000 124.07313:0.600000 136.07561:5.600000 137.08276:0.500000 138.09119:3.800000 139.09421:0.900000 144.07782:0.500000 147.07301:0.600000 148.07127:0.500000 150.09219:0.500000 158.05905:3.700000 159.0639:0.600000 160.07533:1.600000 161.08176:0.600000 164.1118:0.900000 166.07974:0.500000 172.08391:0.500000 173.084:6.200000 174.08847:2.400000 186.09135:1.000000 187.09581:0.500000 188.11014:0.800000 202.08528:3.100000 203.09575:0.700000 209.08076:0.900000 210.0872:1.000000 212.09561:0.600000 213.10626:0.700000 224.10622:3.200000 235.09828:0.900000 236.10924:1.300000 238.11613:0.700000 248.0977:0.700000 252.09526:1.100000 252.11118:0.800000 254.12555:0.700000 261.11301:0.700000 262.10989:0.500000 263.11383:1.100000 264.14066:0.600000 268.12607:0.500000 276.1391:0.600000 277.13165:1.000000 278.1041:0.600000 278.1427:1.500000 279.11768:0.700000 280.12943:0.500000 293.13162:1.400000 294.12244:0.600000 294.13821:2.300000 295.13748:0.600000 309.13229:0.700000 309.15945:28.300000 310.15598:3.400000 310.1666:3.800000 311.16071:1.100000 321.15335:1.200000 321.1796:0.600000 322.13596:0.500000 322.1467:1.300000 339.12698:0.700000 339.16849:100.000000 339.22302:1.900000</t>
-  </si>
-  <si>
-    <t>OUONWRIEOZGMSQ-NUUNSNFRSA-N</t>
-  </si>
-  <si>
-    <t>OCC=C1CN2C3C=4NC=5C=C(OC)C=CC5C4C6OCC(C1C3)C26</t>
-  </si>
-  <si>
-    <t>C20H22N2O3</t>
-  </si>
-  <si>
-    <t>InChI=1S/C20H22N2O3/c1-24-11-2-3-12-15(6-11)21-18-16-7-13-10(4-5-23)8-22(16)19-14(13)9-25-20(19)17(12)18/h2-4,6,13-14,16,19-21,23H,5,7-9H2,1H3/b10-4-/t13-,14-,16-,19+,20+/m0/s1</t>
-  </si>
-  <si>
-    <t>COc1ccc2c3c([nH]c2c1)[C@@H]1C[C@H]2/C(=C\CO)CN1[C@@H]1[C@H]2CO[C@H]31</t>
-  </si>
-  <si>
-    <t>Indole-3-acetyl-L-glutamic acid</t>
-  </si>
-  <si>
-    <t>04131_Indole-3-acetyl-L-glutamic acid</t>
-  </si>
-  <si>
-    <t>84.04527:2.600000 102.05356:1.600000 130.06429:100.000000 131.05281:0.600000 131.06943:9.700000 148.0605:20.200000 158.0591:5.000000 196.07472:0.600000 213.1053:0.800000 214.0815:0.600000 241.09778:1.500000 259.10602:4.900000 260.11783:0.600000 287.10251:1.800000 287.11298:1.300000 288.10568:0.600000 305.11258:29.700000</t>
-  </si>
-  <si>
-    <t>YRKLGWOHYXIKSF-LBPRGKRZSA-N</t>
-  </si>
-  <si>
-    <t>O=C(O)CCC(N=C(O)CC1=CNC=2C=CC=CC21)C(=O)O</t>
-  </si>
-  <si>
-    <t>Glutamic acid and derivatives</t>
-  </si>
-  <si>
-    <t>C15H16N2O5</t>
-  </si>
-  <si>
-    <t>InChI=1S/C15H16N2O5/c18-13(17-12(15(21)22)5-6-14(19)20)7-9-8-16-11-4-2-1-3-10(9)11/h1-4,8,12,16H,5-7H2,(H,17,18)(H,19,20)(H,21,22)/t12-/m0/s1</t>
-  </si>
-  <si>
-    <t>O=C(O)CC[C@H](N=C(O)Cc1c[nH]c2ccccc12)C(=O)O</t>
-  </si>
-  <si>
-    <t>Norharman</t>
-  </si>
-  <si>
-    <t>01812_Norharman</t>
-  </si>
-  <si>
-    <t>115.05042:1.700000 115.05564:4.500000 116.05094:0.800000 142.06566:0.800000 168.06758:2.700000 169.07622:100.000000 169.11424:1.200000</t>
-  </si>
-  <si>
-    <t>AIFRHYZBTHREPW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>N=1C=CC2=C(C1)NC=3C=CC=CC32</t>
-  </si>
-  <si>
-    <t>C11H8N2</t>
-  </si>
-  <si>
-    <t>InChI=1S/C11H8N2/c1-2-4-10-8(3-1)9-5-6-12-7-11(9)13-10/h1-7,13H</t>
-  </si>
-  <si>
-    <t>c1ccc2c(c1)[nH]c1cnccc12</t>
-  </si>
-  <si>
-    <t>Vasicine</t>
-  </si>
-  <si>
-    <t>01184_Vasicine</t>
-  </si>
-  <si>
-    <t>116.04996:1.000000 117.05865:0.700000 118.0681:8.800000 119.07013:0.600000 129.06967:0.700000 143.06155:0.600000 143.07947:1.500000 144.07686:0.800000 144.08385:1.400000 154.06813:2.100000 155.07387:0.800000 169.06505:0.500000 169.0768:1.800000 171.09251:18.600000 172.09476:2.600000 172.10226:0.700000 189.04199:0.600000 189.07639:1.100000 189.10312:100.000000</t>
-  </si>
-  <si>
-    <t>YIICVSCAKJMMDJ-SNVBAGLBSA-N</t>
-  </si>
-  <si>
-    <t>OC1C2=NC=3C=CC=CC3CN2CC1</t>
-  </si>
-  <si>
-    <t>C11H12N2O</t>
-  </si>
-  <si>
-    <t>InChI=1S/C11H12N2O/c14-10-5-6-13-7-8-3-1-2-4-9(8)12-11(10)13/h1-4,10,14H,5-7H2/t10-/m1/s1</t>
-  </si>
-  <si>
-    <t>O[C@@H]1CCN2Cc3ccccc3N=C12</t>
-  </si>
-  <si>
-    <t>Kopsinoline</t>
-  </si>
-  <si>
-    <t>00061_Kopsinoline</t>
-  </si>
-  <si>
-    <t>109.08941:2.400000 124.1117:36.000000 125.11411:4.200000 136.10971:1.400000 209.11165:0.600000 223.12169:0.600000 251.1523:1.300000 252.17003:0.900000 279.18729:0.600000 305.16962:0.900000 310.16718:2.800000 311.16571:0.600000 337.19171:2.200000 338.1994:16.600000 339.20203:4.000000 340.21094:0.800000 355.15094:0.700000 355.20248:100.000000 355.25659:2.300000</t>
-  </si>
-  <si>
-    <t>KWXHCCIXBUPHTG-ICLMVOIRSA-N</t>
-  </si>
-  <si>
-    <t>O=C(OC)C1CC23CCCN4(=O)CCC5(C=6C=CC=CC6NC15CC2)C34</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H26N2O3/c1-26-17(24)15-13-19-7-4-11-23(25)12-10-20(18(19)23)14-5-2-3-6-16(14)22-21(15,20)9-8-19/h2-3,5-6,15,18,22H,4,7-13H2,1H3/t15-,18+,19-,20-,21-,23+/m0/s1</t>
-  </si>
-  <si>
-    <t>COC(=O)[C@@H]1C[C@]23CCC[N@@+]4([O-])CC[C@]5(c6ccccc6N[C@@]15CC2)[C@@H]34</t>
-  </si>
-  <si>
-    <t>isosakuranetin-7-O-rutinoside</t>
-  </si>
-  <si>
-    <t>02153_isosakuranetin-7-O-rutinoside</t>
-  </si>
-  <si>
-    <t>59.38695:0.800000 71.04109:0.800000 71.04952:2.000000 72.05403:2.100000 73.05391:1.500000 85.02641:6.000000 85.03207:2.500000 87.04608:0.900000 99.04733:1.100000 111.04977:1.700000 129.04457:1.100000 129.05473:8.300000 135.08235:0.900000 145.05061:2.400000 147.05969:0.700000 147.06561:2.300000 151.03598:0.900000 153.00705:1.100000 153.01784:6.900000 154.01355:0.700000 155.01624:1.000000 161.05295:1.500000 161.06073:1.800000 161.06825:0.900000 165.0215:1.200000 171.58043:1.300000 179.02246:0.900000 191.0316:1.300000 195.0083:1.000000 195.02882:20.900000 196.02452:1.500000 207.03024:1.100000 214.83929:1.000000 217.02744:1.200000 217.05856:1.200000 219.02028:1.600000 219.03004:2.100000 237.02966:0.700000 237.05396:1.400000 245.03514:1.300000 245.04424:1.700000 245.05104:0.700000 245.08009:1.200000 246.02898:1.000000 246.04033:1.100000 246.04968:1.400000 256.09018:0.700000 261.0271:1.100000 261.04559:1.300000 261.34778:0.700000 262.05435:1.100000 263.04837:2.900000 263.06076:6.300000 263.85648:0.700000 264.06854:2.800000 267.61166:0.700000 279.0386:0.900000 279.05856:0.900000 280.05283:1.000000 281.06085:3.900000 281.25446:0.900000 282.06494:0.700000 285.45621:0.700000 286.78122:0.700000 287.03513:0.700000 287.0925:100.000000 287.34018:0.700000 288.08926:9.500000 288.09958:6.700000 288.1109:1.900000 289.10162:1.900000 290.10336:1.100000 295.60724:0.800000 297.05927:0.900000 298.05566:0.700000 299.09177:1.700000 300.09726:0.700000 313.05685:0.900000 329.08887:2.600000 329.10406:5.000000 329.11545:2.200000 330.10059:1.700000 335.55914:0.900000 337.11716:1.400000 338.10446:0.900000 339.09045:1.000000 353.05975:1.200000 353.09091:1.900000 353.10437:1.100000 353.12637:1.200000 354.08954:0.900000 354.10071:1.300000 355.10727:0.900000 363.08942:0.700000 377.10382:0.900000 379.10114:0.900000 380.09811:1.600000 380.11011:0.700000 395.11694:0.700000 396.10431:1.000000 396.11694:1.100000 396.13492:1.000000 397.10721:0.800000 397.1283:10.400000 398.1192:1.900000 398.13412:1.100000 399.13803:0.800000 407.11685:1.400000 413.10159:0.900000 413.14676:0.700000 415.11127:1.600000 415.12799:5.900000 415.14743:2.100000 415.26819:1.100000 419.14127:0.700000 431.11096:1.400000 431.12778:4.400000 431.15121:1.300000 432.13782:2.100000 433.09036:2.000000 433.14737:33.200000 434.12012:0.900000 434.1528:5.400000 435.16608:1.700000 440.13577:0.800000 443.11481:1.200000 447.10864:0.700000 449.10092:1.300000 449.12793:8.300000 449.1521:8.600000 450.1427:7.300000 457.14532:2.700000 463.12732:0.900000 473.12698:2.100000 479.12595:1.400000 512.12451:1.600000 541.18323:1.000000 559.16956:1.300000 559.19348:1.500000 560.17438:1.300000 577.22662:1.000000 594.83124:1.100000 595.05066:1.000000 595.14844:1.300000 595.19574:24.400000 595.2254:3.900000</t>
-  </si>
-  <si>
-    <t>RMCRQBAILCLJGU-HIBKWJPLSA-N</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(O)C=C(OC3OC(COC4OC(C)C(O)C(O)C4O)C(O)C(O)C3O)C=C2OC(C5=CC=C(OC)C=C5)C1</t>
-  </si>
-  <si>
-    <t>InChI=1S/C28H34O14/c1-11-21(31)23(33)25(35)27(39-11)38-10-19-22(32)24(34)26(36)28(42-19)40-14-7-15(29)20-16(30)9-17(41-18(20)8-14)12-3-5-13(37-2)6-4-12/h3-8,11,17,19,21-29,31-36H,9-10H2,1-2H3/t11-,17-,19+,21-,22+,23+,24-,25+,26+,27+,28+/m0/s1</t>
-  </si>
-  <si>
-    <t>COc1ccc([C@@H]2CC(=O)c3c(O)cc(O[C@@H]4O[C@H](CO[C@@H]5O[C@@H](C)[C@H](O)[C@@H](O)[C@H]5O)[C@@H](O)[C@H](O)[C@H]4O)cc3O2)cc1</t>
-  </si>
-  <si>
-    <t>Vasicinone</t>
-  </si>
-  <si>
-    <t>01351_Vasicinone</t>
-  </si>
-  <si>
-    <t>77.03915:0.800000 82.02962:4.700000 115.05135:0.500000 116.05327:0.600000 130.02695:0.600000 130.06067:0.700000 130.06819:2.500000 131.05138:0.600000 140.04648:1.500000 140.05266:0.500000 155.05586:0.600000 155.06241:0.600000 157.07133:1.100000 157.07942:2.300000 158.06064:1.100000 158.07004:0.800000 158.07967:0.800000 167.0592:3.800000 168.06387:0.800000 184.0634:3.100000 185.07205:93.800000 186.07466:9.700000 186.0826:2.600000 187.077:0.900000 203.08328:100.000000 203.12485:1.400000</t>
-  </si>
-  <si>
-    <t>SDIVYZXRQHWCKF-UHFFFAOYNA-N</t>
-  </si>
-  <si>
-    <t>O=C1C=2C=CC=CC2N=C3N1CCC3O</t>
-  </si>
-  <si>
-    <t>C11H10N2O2</t>
-  </si>
-  <si>
-    <t>SDIVYZXRQHWCKF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C11H10N2O2/c14-9-5-6-13-10(9)12-8-4-2-1-3-7(8)11(13)15/h1-4,9,14H,5-6H2</t>
-  </si>
-  <si>
-    <t>O=c1c2ccccc2nc2n1CCC2O</t>
-  </si>
-  <si>
-    <t>Palmatine</t>
-  </si>
-  <si>
-    <t>00600_Palmatine</t>
-  </si>
-  <si>
-    <t>264.10358:0.900000 275.099:0.800000 276.10623:0.600000 278.08463:2.400000 279.08621:1.000000 291.12354:1.200000 292.09921:6.300000 293.10489:3.400000 294.11368:8.600000 295.1188:1.200000 304.09763:1.500000 305.10211:0.800000 307.11774:0.500000 308.12936:15.000000 309.1322:4.000000 318.07394:0.600000 320.09219:5.000000 320.12714:4.500000 321.10065:3.200000 321.13306:0.600000 322.10992:6.600000 323.11258:1.700000 334.10883:1.000000 336.12521:23.900000 337.13144:19.600000 338.12109:0.700000 338.13632:3.400000 339.1434:0.500000 352.0954:0.800000 352.1546:100.000000 352.2085:3.000000</t>
-  </si>
-  <si>
-    <t>QUCQEUCGKKTEBI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O(C=1C=CC2=CC=3C4=CC(OC)=C(OC)C=C4CC[N+]3C=C2C1OC)C</t>
-  </si>
-  <si>
-    <t>[C21H22NO4]+</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H22NO4/c1-23-18-6-5-13-9-17-15-11-20(25-3)19(24-2)10-14(15)7-8-22(17)12-16(13)21(18)26-4/h5-6,9-12H,7-8H2,1-4H3/q+1</t>
-  </si>
-  <si>
-    <t>COc1cc2c(cc1OC)-c1cc3ccc(OC)c(OC)c3c[n+]1CC2</t>
-  </si>
-  <si>
-    <t>Retrorsine</t>
-  </si>
-  <si>
-    <t>00828_Retrorsine</t>
-  </si>
-  <si>
-    <t>91.0531:0.700000 94.06563:1.700000 108.0819:0.600000 110.09605:0.700000 120.08138:4.800000 121.08329:0.600000 122.09682:0.900000 123.08118:0.800000 138.09021:5.400000 151.07037:0.700000 276.16074:0.800000 277.16367:0.700000 322.16992:0.900000 324.17972:4.100000 352.12677:0.800000 352.17706:100.000000 352.23096:2.000000</t>
-  </si>
-  <si>
-    <t>BCJMNZRQJAVDLD-CQRYIUNCSA-N</t>
-  </si>
-  <si>
-    <t>O=C1OC2CCN3CC=C(COC(=O)C(O)(CO)C(C)CC1=CC)C32</t>
-  </si>
-  <si>
-    <t>C18H25NO6</t>
-  </si>
-  <si>
-    <t>InChI=1S/C18H25NO6/c1-3-12-8-11(2)18(23,10-20)17(22)24-9-13-4-6-19-7-5-14(15(13)19)25-16(12)21/h3-4,11,14-15,20,23H,5-10H2,1-2H3/b12-3-/t11-,14-,15-,18-/m1/s1</t>
-  </si>
-  <si>
-    <t>C/C=C1/C[C@@H](C)[C@](O)(CO)C(=O)OCC2=CCN3CC[C@@H](OC1=O)[C@@H]23</t>
-  </si>
-  <si>
-    <t>Madecassoside</t>
-  </si>
-  <si>
-    <t>01883_Madecassoside</t>
-  </si>
-  <si>
-    <t>129.04959:8.300000 141.08293:7.600000 145.10905:5.900000 147.05553:6.200000 147.06311:6.900000 161.09291:6.200000 165.06824:6.200000 172.06894:8.600000 177.12413:9.300000 187.14766:11.400000 189.13351:9.700000 191.14397:6.900000 192.17877:7.200000 201.16298:7.600000 210.8094:7.200000 215.14777:7.200000 217.16043:6.200000 218.1572:6.900000 225.09998:7.200000 235.16017:9.300000 235.16969:10.300000 237.16003:6.600000 248.17281:5.900000 249.18552:15.500000 255.08676:21.000000 256.09116:7.200000 261.18439:6.200000 274.10065:6.200000 291.1076:9.700000 309.10315:6.200000 309.12079:21.700000 312.27631:6.900000 325.11707:7.900000 393.27396:5.900000 393.33087:7.600000 394.30142:6.900000 396.30756:9.300000 405.31711:10.700000 407.33813:6.200000 421.30548:16.600000 422.3067:6.600000 423.33344:7.900000 424.34128:7.900000 425.34409:6.900000 433.30292:22.100000 434.32614:6.200000 435.16052:6.200000 439.30905:15.200000 439.32007:6.600000 440.32468:5.900000 441.33142:8.300000 442.32629:7.200000 449.29977:6.200000 451.29889:21.700000 451.31409:66.900000 452.32831:7.200000 452.34476:8.300000 453.32132:7.900000 469.293:8.300000 469.33499:26.200000 470.32962:16.200000 471.15421:26.900000 487.33832:100.000000 487.35767:30.700000 488.28598:5.900000 488.33704:19.000000 488.36316:6.900000 489.34155:9.300000 522.32428:7.200000 533.53522:8.300000 560.3598:6.200000 561.35712:5.900000 579.35999:13.400000 596.35736:6.900000 597.38525:11.700000 614.36072:6.600000 633.41541:34.500000 634.40302:6.900000 649.36505:8.300000 650.4082:6.900000 651.41321:11.000000 652.39154:6.200000 652.4115:8.300000 795.45465:25.500000 811.46051:6.200000 811.49884:6.200000 812.4447:12.800000 813.44519:14.100000 814.50085:14.500000 829.48987:6.200000 881.21094:6.200000 939.51208:5.900000 940.53113:6.900000 957.50385:6.600000 958.51062:9.000000 959.56628:8.300000 973.6806:6.600000 974.48535:6.600000 975.51355:79.700000 975.54523:26.900000</t>
-  </si>
-  <si>
-    <t>BNMGUJRJUUDLHW-CIZDPPTDSA-N</t>
-  </si>
-  <si>
-    <t>O=C(OC1OC(COC2OC(CO)C(OC3OC(C)C(O)C(O)C3O)C(O)C2O)C(O)C(O)C1O)C45CCC(C)C(C)C5C6=CCC7C8(C)CC(O)C(O)C(C)(CO)C8C(O)CC7(C)C6(C)CC4</t>
-  </si>
-  <si>
-    <t>C48H78O20</t>
-  </si>
-  <si>
-    <t>InChI=1S/C48H78O20/c1-19-10-11-48(13-12-46(6)22(28(48)20(19)2)8-9-27-44(4)14-24(52)39(61)45(5,18-50)38(44)23(51)15-47(27,46)7)43(62)68-42-35(59)32(56)30(54)26(66-42)17-63-40-36(60)33(57)37(25(16-49)65-40)67-41-34(58)31(55)29(53)21(3)64-41/h8,19-21,23-42,49-61H,9-18H2,1-7H3/t19-,20+,21+,23-,24-,25-,26-,27-,28+,29+,30-,31-,32+,33-,34-,35-,36-,37-,38-,39+,40-,41+,42+,44-,45+,46+,47-,48+/m1/s1</t>
-  </si>
-  <si>
-    <t>C[C@@H]1[C@H]2C3=CC[C@@H]4[C@@]5(C)C[C@@H](O)[C@H](O)[C@@](C)(CO)[C@@H]5[C@H](O)C[C@@]4(C)[C@@]3(C)CC[C@@]2(C(=O)O[C@@H]2O[C@H](CO[C@@H]3O[C@H](CO)[C@@H](O[C@@H]4O[C@@H](C)[C@H](O)[C@@H](O)[C@H]4O)[C@H](O)[C@H]3O)[C@@H](O)[C@H](O)[C@H]2O)CC[C@H]1C</t>
-  </si>
-  <si>
-    <t>Homatropine</t>
-  </si>
-  <si>
-    <t>01740_Homatropine</t>
-  </si>
-  <si>
-    <t>93.07005:5.400000 98.09872:0.500000 107.04633:0.500000 124.11187:20.400000 125.11049:0.900000 125.11749:1.000000 142.12206:12.300000 143.11967:0.500000 143.12733:0.900000 276.11581:0.700000 276.15942:100.000000 276.20682:3.100000</t>
-  </si>
-  <si>
-    <t>ZTVIKZXZYLEVOL-UHFFFAOYNA-N</t>
-  </si>
-  <si>
-    <t>O=C(OC1CC2N(C)C(CC2)C1)C(O)C=3C=CC=CC3</t>
-  </si>
-  <si>
-    <t>C16H21NO3</t>
-  </si>
-  <si>
-    <t>ZTVIKZXZYLEVOL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C16H21NO3/c1-17-12-7-8-13(17)10-14(9-12)20-16(19)15(18)11-5-3-2-4-6-11/h2-6,12-15,18H,7-10H2,1H3</t>
-  </si>
-  <si>
-    <t>CN1C2CCC1CC(OC(=O)C(O)c1ccccc1)C2</t>
-  </si>
-  <si>
-    <t>Gentiopicroside</t>
-  </si>
-  <si>
-    <t>03516_Gentiopicroside</t>
-  </si>
-  <si>
-    <t>77.03848:1.600000 81.07193:1.700000 85.02502:2.000000 91.05548:3.200000 93.04655:3.300000 93.0696:10.900000 103.03849:2.200000 103.05131:7.600000 105.0643:3.000000 105.06989:5.400000 107.05141:3.300000 109.02734:2.200000 121.04768:2.300000 121.06167:10.700000 121.0665:24.100000 122.07055:1.900000 127.03613:6.000000 127.04589:2.600000 131.02365:1.700000 131.04474:4.600000 131.05106:2.600000 147.04822:1.800000 147.98892:1.800000 149.04021:1.800000 149.05679:45.900000 149.06424:30.700000 150.06093:3.000000 150.06857:3.400000 151.06035:1.600000 151.07916:1.800000 159.04019:1.800000 160.04453:3.000000 175.03981:1.600000 177.04016:2.700000 177.05655:54.200000 178.04977:4.000000 178.05856:7.700000 192.80034:1.600000 195.06456:100.000000 196.06564:11.100000 197.06282:1.700000 197.07167:1.800000 321.0899:1.600000</t>
-  </si>
-  <si>
-    <t>DUAGQYUORDTXOR-GPQRQXLASA-N</t>
-  </si>
-  <si>
-    <t>O=C1OCC=C2C1=COC(OC3OC(CO)C(O)C(O)C3O)C2C=C</t>
-  </si>
-  <si>
-    <t>C16H20O9</t>
-  </si>
-  <si>
-    <t>InChI=1S/C16H20O9/c1-2-7-8-3-4-22-14(21)9(8)6-23-15(7)25-16-13(20)12(19)11(18)10(5-17)24-16/h2-3,6-7,10-13,15-20H,1,4-5H2/t7-,10-,11-,12+,13-,15+,16+/m1/s1</t>
-  </si>
-  <si>
-    <t>C=C[C@@H]1C2=CCOC(=O)C2=CO[C@H]1O[C@@H]1O[C@H](CO)[C@@H](O)[C@H](O)[C@H]1O</t>
-  </si>
-  <si>
-    <t>8-Methylsulfinyloctyl isothiocyanate</t>
-  </si>
-  <si>
-    <t>07232_8-Methylsulfinyloctyl isothiocyanate</t>
-  </si>
-  <si>
-    <t>79.95717:21.300000 80.96854:2.600000 229.09544:1.300000 231.06845:100.000000</t>
-  </si>
-  <si>
-    <t>BCRXKWOQVFKZAG-UHFFFAOYNA-N</t>
-  </si>
-  <si>
-    <t>O=S(C)CCCCCCCCN=C=S</t>
-  </si>
-  <si>
-    <t>C10H19NOS2</t>
-  </si>
-  <si>
-    <t>BCRXKWOQVFKZAG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H19NOS2/c1-14(12)9-7-5-3-2-4-6-8-11-10-13/h2-9H2,1H3</t>
-  </si>
-  <si>
-    <t>CS(=O)CCCCCCCCN=C=S</t>
-  </si>
-  <si>
-    <t>Indole-3-acetyl-L-valine</t>
-  </si>
-  <si>
-    <t>04061_Indole-3-acetyl-L-valine</t>
-  </si>
-  <si>
-    <t>72.08142:8.300000 103.05317:0.600000 118.08562:17.600000 119.0872:1.100000 119.09213:0.500000 130.06462:100.000000 131.06886:11.100000 158.06088:0.600000 229.13321:37.700000 230.13817:7.300000 231.14099:0.700000 257.12964:5.200000 258.13394:0.500000 274.13193:0.600000 275.14154:34.700000</t>
-  </si>
-  <si>
-    <t>AZEGJHGXTSUPPG-AWEZNQCLSA-N</t>
-  </si>
-  <si>
-    <t>O=C(O)C(N=C(O)CC1=CNC=2C=CC=CC21)C(C)C</t>
-  </si>
-  <si>
-    <t>Valine and derivatives</t>
-  </si>
-  <si>
-    <t>C15H18N2O3</t>
-  </si>
-  <si>
-    <t>InChI=1S/C15H18N2O3/c1-9(2)14(15(19)20)17-13(18)7-10-8-16-12-6-4-3-5-11(10)12/h3-6,8-9,14,16H,7H2,1-2H3,(H,17,18)(H,19,20)/t14-/m0/s1</t>
-  </si>
-  <si>
-    <t>CC(C)[C@H](N=C(O)Cc1c[nH]c2ccccc12)C(=O)O</t>
-  </si>
-  <si>
-    <t>Harman</t>
-  </si>
-  <si>
-    <t>01539_Harman</t>
-  </si>
-  <si>
-    <t>115.05424:8.000000 116.05827:0.800000 142.06476:1.700000 167.0589:0.800000 168.06755:2.100000 182.08539:1.700000 183.092:100.000000 183.13084:2.300000</t>
-  </si>
-  <si>
-    <t>PSFDQSOCUJVVGF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>N=1C=CC=2C=3C=CC=CC3NC2C1C</t>
-  </si>
-  <si>
-    <t>C12H10N2</t>
-  </si>
-  <si>
-    <t>InChI=1S/C12H10N2/c1-8-12-10(6-7-13-8)9-4-2-3-5-11(9)14-12/h2-7,14H,1H3</t>
-  </si>
-  <si>
-    <t>Cc1nccc2c1[nH]c1ccccc12</t>
-  </si>
-  <si>
-    <t>Peonidin-3-O-beta-galactoside</t>
-  </si>
-  <si>
-    <t>03202_Peonidin-3-O-beta-galactoside</t>
-  </si>
-  <si>
-    <t>258.05203:1.800000 268.02292:0.600000 268.0376:1.100000 286.04364:9.000000 286.05832:3.300000 287.04654:1.000000 287.05945:1.000000 301.02731:1.500000 301.07092:100.000000 302.00287:0.600000 302.06311:6.500000 302.07684:14.100000 303.07291:2.300000 463.11252:15.000000 463.1358:18.900000</t>
-  </si>
-  <si>
-    <t>ZZWPMFROUHHAKY-VRRLNDPFSA-N</t>
-  </si>
-  <si>
-    <t>[O-]C1=CC(O)=CC=2[O+]=C(C(OC3OC(CO)C(O)C(O)C3O)=CC12)C=4C=CC(O)=C(OC)C4</t>
-  </si>
-  <si>
-    <t>C22H22O11</t>
-  </si>
-  <si>
-    <t>InChI=1S/C22H22O11/c1-30-15-4-9(2-3-12(15)25)21-16(7-11-13(26)5-10(24)6-14(11)31-21)32-22-20(29)19(28)18(27)17(8-23)33-22/h2-7,17-20,22-23,27-29H,8H2,1H3,(H2-,24,25,26)/t17-,18+,19+,20-,22-/m1/s1</t>
-  </si>
-  <si>
-    <t>COc1cc(-c2[o+]c3cc(O)cc([O-])c3cc2O[C@@H]2O[C@H](CO)[C@H](O)[C@H](O)[C@H]2O)ccc1O</t>
-  </si>
-  <si>
-    <t>Liquiritin</t>
-  </si>
-  <si>
-    <t>03637_Liquiritin</t>
-  </si>
-  <si>
-    <t>85.02741:3.000000 115.03636:2.300000 125.87349:2.800000 128.04272:1.600000 137.02208:15.000000 137.03235:2.600000 138.02643:1.200000 142.90858:2.000000 145.04752:1.400000 147.01894:1.200000 147.04353:4.900000 147.04947:3.200000 148.04881:1.400000 183.08484:1.200000 194.08125:1.700000 211.07214:1.200000 211.08267:3.300000 256.47925:1.200000 257.08197:100.000000 257.37054:1.600000 258.07971:14.100000 258.09116:9.100000 259.08542:1.200000 280.53333:2.000000 419.11771:1.500000 419.16257:1.200000</t>
-  </si>
-  <si>
-    <t>DEMKZLAVQYISIA-ZRWXNEIDSA-N</t>
-  </si>
-  <si>
-    <t>O=C1C2=CC=C(O)C=C2OC(C3=CC=C(OC4OC(CO)C(O)C(O)C4O)C=C3)C1</t>
-  </si>
-  <si>
-    <t>C21H22O9</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H22O9/c22-9-17-18(25)19(26)20(27)21(30-17)28-12-4-1-10(2-5-12)15-8-14(24)13-6-3-11(23)7-16(13)29-15/h1-7,15,17-23,25-27H,8-9H2/t15-,17+,18+,19-,20+,21+/m0/s1</t>
-  </si>
-  <si>
-    <t>O=C1C[C@@H](c2ccc(O[C@@H]3O[C@H](CO)[C@@H](O)[C@H](O)[C@H]3O)cc2)Oc2cc(O)ccc21</t>
-  </si>
-  <si>
-    <t>Cyanidin-3-O-galactoside</t>
-  </si>
-  <si>
-    <t>02211_Cyanidin-3-O-galactoside</t>
-  </si>
-  <si>
-    <t>149.01938:0.700000 165.84492:0.600000 181.8672:0.600000 213.04576:0.800000 287.00858:0.600000 287.02124:1.000000 287.05551:100.000000 288.03226:1.000000 288.06012:17.200000 289.04828:0.800000 289.06003:1.500000 449.06024:1.400000 449.10944:30.400000</t>
-  </si>
-  <si>
-    <t>RKWHWFONKJEUEF-WVXKDWSHSA-O</t>
-  </si>
-  <si>
-    <t>OC=1C=C(O)C=2C=C(OC3OC(CO)C(O)C(O)C3O)C(=[O+]C2C1)C=4C=CC(O)=C(O)C4</t>
-  </si>
-  <si>
-    <t>[C21H21O11]+</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H20O11/c22-7-16-17(27)18(28)19(29)21(32-16)31-15-6-10-12(25)4-9(23)5-14(10)30-20(15)8-1-2-11(24)13(26)3-8/h1-6,16-19,21-22,27-29H,7H2,(H3-,23,24,25,26)/p+1/t16-,17+,18+,19-,21-/m1/s1</t>
-  </si>
-  <si>
-    <t>OC[C@H]1O[C@@H](Oc2cc3c(O)cc(O)cc3[o+]c2-c2ccc(O)c(O)c2)[C@H](O)[C@@H](O)[C@H]1O</t>
-  </si>
-  <si>
-    <t>Anabasamine</t>
-  </si>
-  <si>
-    <t>01350_Anabasamine</t>
-  </si>
-  <si>
-    <t>84.0859:0.500000 96.08075:1.000000 130.06979:1.100000 142.05956:0.500000 142.06668:0.900000 143.06923:0.700000 144.08136:1.400000 156.07135:0.700000 156.07948:0.900000 157.07524:8.000000 158.08211:0.800000 168.06873:0.700000 168.07689:0.700000 169.07726:7.500000 170.08167:5.000000 170.08794:2.300000 170.10112:0.700000 171.09175:16.300000 172.09323:2.000000 172.10115:2.100000 183.08598:1.700000 183.09181:4.800000 184.10001:0.800000 194.07666:1.200000 194.08682:1.500000 195.09172:5.300000 196.11346:1.000000 197.0937:0.600000 197.10899:5.200000 198.1142:1.600000 207.07997:0.900000 207.09192:3.600000 208.09299:0.900000 208.10164:0.900000 208.11171:0.500000 209.10867:1.600000 211.11391:1.000000 211.1266:1.400000 223.12451:8.900000 224.13091:1.100000 254.1221:0.500000 254.16673:100.000000</t>
-  </si>
-  <si>
-    <t>TZRDBHMKTWECOV-UHFFFAOYNA-N</t>
-  </si>
-  <si>
-    <t>N1=CC=CC(=C1)C=2N=CC(=CC2)C3N(C)CCCC3</t>
-  </si>
-  <si>
-    <t>Bipyridines and oligopyridines</t>
-  </si>
-  <si>
-    <t>C16H19N3</t>
-  </si>
-  <si>
-    <t>TZRDBHMKTWECOV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C16H19N3/c1-19-10-3-2-6-16(19)14-7-8-15(18-12-14)13-5-4-9-17-11-13/h4-5,7-9,11-12,16H,2-3,6,10H2,1H3</t>
-  </si>
-  <si>
-    <t>CN1CCCCC1c1ccc(-c2cccnc2)nc1</t>
-  </si>
-  <si>
-    <t>(+)-Corydaline</t>
-  </si>
-  <si>
-    <t>01090_(+)-Corydaline</t>
-  </si>
-  <si>
-    <t>133.06596:0.800000 135.0836:0.500000 136.05145:1.500000 150.06825:3.300000 151.07529:2.200000 165.09109:11.200000 166.09537:0.700000 176.06889:1.000000 176.07765:0.500000 177.07457:1.100000 177.08618:1.000000 179.10558:1.800000 190.08215:1.100000 190.0932:0.500000 192.10287:21.000000 193.10562:3.300000 204.09595:0.500000 204.10593:0.700000 205.11003:2.600000 206.11427:0.800000 218.11676:0.800000 322.14252:0.700000 354.1705:1.700000 355.17303:1.100000 355.18634:0.700000 370.20169:100.000000 370.25708:3.100000</t>
-  </si>
-  <si>
-    <t>VRSRXLJTYQVOHC-YEJXKQKISA-N</t>
-  </si>
-  <si>
-    <t>O(C1=CC=C2C(=C1OC)CN3CCC4=CC(OC)=C(OC)C=C4C3C2C)C</t>
-  </si>
-  <si>
-    <t>C22H27NO4</t>
-  </si>
-  <si>
-    <t>InChI=1S/C22H27NO4/c1-13-15-6-7-18(24-2)22(27-5)17(15)12-23-9-8-14-10-19(25-3)20(26-4)11-16(14)21(13)23/h6-7,10-11,13,21H,8-9,12H2,1-5H3/t13-,21+/m0/s1</t>
-  </si>
-  <si>
-    <t>COc1cc2c(cc1OC)[C@H]1[C@@H](C)c3ccc(OC)c(OC)c3CN1CC2</t>
-  </si>
-  <si>
-    <t>isorhamnetin-3-O-glucoside</t>
-  </si>
-  <si>
-    <t>02932_isorhamnetin-3-O-glucoside</t>
-  </si>
-  <si>
-    <t>85.02857:0.700000 97.02786:1.000000 127.04153:1.500000 140.04054:0.800000 145.04794:1.200000 165.02527:1.300000 229.0545:1.100000 273.04922:0.900000 274.03772:2.700000 274.0531:1.000000 285.04776:1.300000 302.03809:5.400000 303.00888:0.800000 304.0484:1.400000 304.0675:1.000000 313.42365:0.800000 317.02591:2.100000 317.04266:4.000000 317.06647:100.000000 318.06165:6.600000 318.07193:16.000000 319.05807:2.300000 319.08237:4.900000 321.61172:0.700000 329.0701:1.600000 479.10931:2.400000 479.13531:1.800000</t>
-  </si>
-  <si>
-    <t>CQLRUIIRRZYHHS-LFXZADKFSA-N</t>
-  </si>
-  <si>
-    <t>O=C1C(OC2OC(CO)C(O)C(O)C2O)=C(OC=3C=C(O)C=C(O)C13)C=4C=CC(O)=C(OC)C4</t>
-  </si>
-  <si>
-    <t>C22H22O12</t>
-  </si>
-  <si>
-    <t>InChI=1S/C22H22O12/c1-31-12-4-8(2-3-10(12)25)20-21(17(28)15-11(26)5-9(24)6-13(15)32-20)34-22-19(30)18(29)16(27)14(7-23)33-22/h2-6,14,16,18-19,22-27,29-30H,7H2,1H3/t14-,16-,18+,19-,22+/m1/s1</t>
-  </si>
-  <si>
-    <t>COc1cc(-c2oc3cc(O)cc(O)c3c(=O)c2O[C@@H]2O[C@H](CO)[C@@H](O)[C@H](O)[C@H]2O)ccc1O</t>
-  </si>
-  <si>
-    <t>Aconitine</t>
-  </si>
-  <si>
-    <t>00717_Aconitine</t>
-  </si>
-  <si>
-    <t>105.03416:0.700000 368.18326:1.200000 526.28271:2.400000 536.26483:1.000000 554.26788:1.300000 554.29175:0.800000 555.28137:0.600000 586.29999:12.000000 587.30493:5.600000 588.3147:1.200000 646.22498:1.200000 646.25708:1.200000 646.32263:100.000000 646.39758:1.300000</t>
-  </si>
-  <si>
-    <t>XFSBVAOIAHNAPC-XTHSEXKGSA-N</t>
-  </si>
-  <si>
-    <t>O=C(OC1C2C3CC1(O)C(OC)C(O)C2(OC(=O)C)C4C(OC)C5C6(COC)CN(CC)C4C35C(OC)CC6O)C=7C=CC=CC7</t>
-  </si>
-  <si>
-    <t>C34H47NO11</t>
-  </si>
-  <si>
-    <t>XFSBVAOIAHNAPC-XZHDXZNSSA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C34H47NO11/c1-7-35-15-31(16-41-3)20(37)13-21(42-4)33-19-14-32(40)28(45-30(39)18-11-9-8-10-12-18)22(19)34(46-17(2)36,27(38)29(32)44-6)23(26(33)35)24(43-5)25(31)33/h8-12,19-29,37-38,40H,7,13-16H2,1-6H3/t19-,20-,21+,22-,23+,24+,25-,26+,27+,28-,29+,31+,32-,33+,34-/m1/s1</t>
-  </si>
-  <si>
-    <t>CCN1C[C@@]2(COC)[C@H]3[C@@H](OC)[C@H]4[C@H]1[C@]3([C@@H](OC)C[C@H]2O)[C@@H]1C[C@]2(O)[C@@H](OC)[C@H](O)[C@@]4(OC(C)=O)[C@H]1[C@H]2OC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>Carbazochrome sulfonate</t>
-  </si>
-  <si>
-    <t>00487_Carbazochrome sulfonate</t>
-  </si>
-  <si>
-    <t>121.63269:4.600000 130.06511:2.200000 132.04613:2.800000 132.06989:7.600000 133.0511:1.900000 146.05229:2.100000 146.06453:10.700000 147.05069:2.400000 147.0685:100.000000 148.04813:4.000000 148.06732:2.400000 148.07703:13.300000 177.08475:5.000000 203.073:8.000000 228.0265:1.800000 256.03674:5.400000 256.05426:7.000000 257.05219:3.400000 284.03604:67.000000 284.0462:14.500000 285.04092:19.700000 286.03256:2.900000 300.0144:2.500000 301.06027:7.100000 301.07516:1.800000</t>
-  </si>
-  <si>
-    <t>OZCACMPSTYQSMM-SDQBBNPINA-N</t>
-  </si>
-  <si>
-    <t>O=C1C=C2C(=CC1=NNC(=N)O)CC(N2C)S(=O)(=O)O</t>
-  </si>
-  <si>
-    <t>C10H12N4O5S</t>
-  </si>
-  <si>
-    <t>OZCACMPSTYQSMM-SDQBBNPISA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H12N4O5S/c1-14-7-4-8(15)6(12-13-10(11)16)2-5(7)3-9(14)20(17,18)19/h2,4,9H,3H2,1H3,(H3,11,13,16)(H,17,18,19)/b12-6-</t>
-  </si>
-  <si>
-    <t>CN1C2=CC(=O)/C(=N\NC(=N)O)C=C2CC1S(=O)(=O)O</t>
-  </si>
-  <si>
-    <t>Huperzine A</t>
-  </si>
-  <si>
-    <t>01088_Huperzine A</t>
-  </si>
-  <si>
-    <t>84.08308:0.900000 106.06434:0.600000 108.03735:0.700000 108.04703:0.900000 108.08061:0.600000 110.06152:0.900000 119.05348:0.600000 119.07191:0.600000 119.07738:0.700000 128.06548:0.800000 130.0681:0.600000 134.04944:0.700000 134.06551:1.400000 134.09454:1.300000 135.09578:0.700000 142.0811:0.900000 147.07065:0.600000 151.0576:1.200000 152.05772:0.600000 154.06268:0.600000 154.07318:1.300000 155.08304:0.700000 156.08598:0.600000 165.07047:1.400000 165.40117:0.900000 166.06491:0.700000 166.07384:1.900000 167.07903:0.600000 167.08975:0.600000 168.08261:1.400000 169.07401:0.800000 170.10477:0.800000 173.09731:0.800000 175.08975:0.700000 176.11562:0.700000 177.0596:1.000000 178.0657:3.900000 179.07758:0.600000 179.08946:1.200000 180.06482:0.600000 180.08206:0.800000 180.08961:0.800000 181.0876:0.600000 181.10364:1.100000 182.09204:0.700000 182.1059:0.600000 183.06061:0.600000 183.07047:1.300000 183.10291:3.500000 183.11256:0.600000 184.07643:6.100000 185.07054:0.600000 185.11948:1.100000 185.67416:0.600000 186.08858:0.800000 187.08118:1.300000 187.09064:1.300000 188.02121:0.600000 190.06903:2.700000 191.05962:1.300000 192.07518:0.700000 192.0856:1.600000 193.08287:1.100000 193.10251:0.600000 194.09476:0.700000 195.08411:1.100000 195.96527:0.900000 196.07703:6.600000 197.06108:0.600000 197.07811:2.900000 197.08871:5.900000 198.08131:1.700000 198.09152:2.200000 198.13165:2.300000 199.06235:1.000000 199.08543:0.600000 199.09898:1.100000 205.08076:1.100000 208.1216:0.700000 209.08578:0.600000 209.10133:0.700000 209.11397:2.600000 210.07298:0.800000 210.09085:8.300000 210.11514:0.600000 211.07236:0.600000 211.09735:4.300000 211.10449:2.500000 212.09758:1.800000 224.10181:1.200000 226.12279:32.600000 227.10873:1.200000 227.1209:3.800000 227.13361:2.000000 228.10408:0.600000 228.12167:0.600000 228.89909:0.600000 239.01732:0.600000 239.62198:0.600000 243.07809:0.700000 243.12105:1.400000 243.14381:41.100000 243.15215:100.000000</t>
-  </si>
-  <si>
-    <t>ZRJBHWIHUMBLCN-HNWKQCISSA-N</t>
-  </si>
-  <si>
-    <t>OC=1N=C2C(=CC1)C3(N)C(=CC)C(C=C(C)C3)C2</t>
-  </si>
-  <si>
-    <t>Quinolones and derivatives</t>
-  </si>
-  <si>
-    <t>C15H18N2O</t>
-  </si>
-  <si>
-    <t>InChI=1S/C15H18N2O/c1-3-11-10-6-9(2)8-15(11,16)12-4-5-14(18)17-13(12)7-10/h3-6,10H,7-8,16H2,1-2H3,(H,17,18)/b11-3-/t10-,15-/m1/s1</t>
-  </si>
-  <si>
-    <t>C/C=C1/[C@@H]2C=C(C)C[C@]1(N)c1ccc(O)nc1C2</t>
-  </si>
-  <si>
-    <t>6,7-Dihydroxycoumarin-6-glucoside</t>
-  </si>
-  <si>
-    <t>06830_6,7-Dihydroxycoumarin-6-glucoside</t>
-  </si>
-  <si>
-    <t>89.04084:0.500000 105.03414:1.600000 133.02805:6.400000 134.03316:0.800000 148.01682:0.800000 176.01051:1.600000 177.0179:100.000000 178.02087:10.500000 179.02524:2.000000 339.07086:16.900000</t>
-  </si>
-  <si>
-    <t>XHCADAYNFIFUHF-UHFFFAOYNA-N</t>
-  </si>
-  <si>
-    <t>O=C1OC=2C=C(O)C(OC3OC(CO)C(O)C(O)C3O)=CC2C=C1</t>
-  </si>
-  <si>
-    <t>Coumarin glycosides</t>
-  </si>
-  <si>
-    <t>C15H16O9</t>
-  </si>
-  <si>
-    <t>XHCADAYNFIFUHF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C15H16O9/c16-5-10-12(19)13(20)14(21)15(24-10)23-9-3-6-1-2-11(18)22-8(6)4-7(9)17/h1-4,10,12-17,19-21H,5H2</t>
-  </si>
-  <si>
-    <t>O=c1ccc2cc(OC3OC(CO)C(O)C(O)C3O)c(O)cc2o1</t>
-  </si>
-  <si>
-    <t>Luteolin-6-C-glucoside</t>
-  </si>
-  <si>
-    <t>01967_Luteolin-6-C-glucoside</t>
-  </si>
-  <si>
-    <t>103.03757:0.900000 109.02501:0.500000 133.02771:0.800000 137.02725:1.300000 137.03212:0.700000 162.02888:0.500000 163.04413:0.500000 165.01904:3.400000 166.01939:0.900000 175.03568:0.600000 177.02275:1.200000 187.04057:1.300000 188.04651:0.600000 192.05984:0.500000 203.02873:0.700000 212.04346:0.900000 214.55327:0.800000 215.0361:1.600000 229.0139:0.900000 229.03554:0.600000 243.03008:1.800000 243.89632:0.500000 244.03615:0.800000 245.0372:1.100000 245.05261:0.700000 245.08479:0.500000 247.02039:0.700000 250.04643:0.500000 255.07283:0.700000 262.33551:0.500000 265.06512:1.200000 266.259:0.500000 267.06812:0.500000 269.04385:2.200000 270.06015:1.100000 270.08755:0.800000 271.06384:0.700000 273.0296:0.800000 281.04663:1.100000 282.78168:0.600000 283.03958:0.600000 283.05795:6.600000 285.05276:0.500000 285.07077:0.700000 286.01157:0.600000 286.04398:2.000000 286.05328:1.400000 287.00201:0.600000 287.03696:0.500000 287.05399:2.900000 287.06812:0.900000 288.05939:2.100000 295.08322:1.200000 297.06845:1.800000 297.07956:3.600000 298.07791:1.100000 298.99796:0.900000 299.05338:95.800000 300.06216:16.400000 301.05472:1.300000 301.06506:1.000000 301.08084:0.700000 302.0466:0.500000 302.07318:0.500000 302.34555:0.600000 303.07086:1.400000 309.07681:0.600000 311.04877:5.600000 311.07104:2.400000 311.09439:1.600000 312.04803:0.900000 313.05255:1.400000 313.0654:0.800000 314.08319:0.700000 321.05957:1.000000 321.08438:2.400000 323.07532:0.700000 324.0513:1.500000 324.06717:1.600000 325.03229:1.100000 325.0433:1.500000 325.07281:21.200000 326.05276:1.200000 326.07806:2.500000 327.05768:1.200000 327.07797:0.900000 329.01801:0.900000 329.06552:59.600000 330.0582:7.300000 330.07462:5.700000 331.06689:1.100000 331.08813:0.500000 337.07474:1.300000 339.04858:0.900000 339.07492:6.000000 339.08798:9.900000 339.10336:2.200000 340.03464:0.600000 340.06601:0.500000 340.08685:2.900000 340.10837:1.000000 341.06281:0.500000 341.07941:0.700000 341.09769:0.800000 347.00497:0.500000 347.04559:0.500000 349.06921:2.300000 350.01962:0.800000 350.07413:2.300000 350.08786:0.900000 352.96432:0.700000 353.06766:39.200000 354.06943:6.500000 355.08435:0.500000 360.16187:0.600000 365.0307:1.200000 365.06177:8.900000 365.07846:2.800000 366.07663:5.300000 367.06339:1.700000 367.07938:1.200000 369.08371:0.700000 369.09979:0.800000 377.05096:4.300000 377.06693:3.700000 377.08353:0.900000 378.00815:0.600000 378.04031:0.600000 378.05887:1.600000 378.07263:2.900000 383.07916:20.700000 384.06003:0.900000 384.07883:3.200000 385.08539:0.600000 394.00766:0.500000 394.08905:0.500000 395.06772:9.500000 395.08243:10.100000 396.04514:0.500000 396.08517:1.900000 396.16324:0.600000 396.94812:1.000000 397.08206:2.100000 411.08493:0.600000 413.05399:1.500000 413.08521:16.700000 414.0907:2.300000 415.09482:1.400000 420.33234:0.500000 430.08917:0.800000 430.47522:0.500000 431.05893:0.900000 431.1011:28.500000 432.07513:1.900000 432.09515:5.300000 447.11133:0.500000 448.09601:0.600000 449.05463:0.600000 449.10727:100.000000</t>
-  </si>
-  <si>
-    <t>Secoisolariciresinol diglucoside</t>
-  </si>
-  <si>
-    <t>07902_Secoisolariciresinol diglucoside</t>
-  </si>
-  <si>
-    <t>85.03788:1.800000 89.02215:2.400000 104.33015:1.300000 119.03004:1.500000 131.0361:1.100000 143.03415:1.100000 211.38849:1.200000 270.0943:1.100000 310.12256:1.400000 325.13263:1.400000 327.1506:2.600000 343.14142:1.300000 346.76703:1.500000 361.16696:15.200000 362.17294:3.500000 411.69165:1.300000 505.1803:1.300000 506.21307:1.100000 523.20752:14.100000 523.22516:9.300000 524.19397:1.100000 524.2218:6.300000 524.23987:1.900000 525.24774:1.100000 526.20923:1.300000 534.12952:1.100000 674.01367:1.300000 684.23987:1.300000 685.26862:100.000000</t>
-  </si>
-  <si>
-    <t>Cinchonidine</t>
-  </si>
-  <si>
-    <t>01810_Cinchonidine</t>
-  </si>
-  <si>
-    <t>81.07053:1.000000 81.07536:1.100000 95.07693:0.700000 110.09669:1.700000 122.10004:0.700000 124.11003:0.800000 129.06229:0.800000 130.06572:3.900000 130.07188:1.100000 132.07869:0.700000 134.0981:0.700000 135.11235:0.600000 142.06419:2.000000 142.06963:0.800000 143.07295:2.100000 144.07875:0.600000 154.0704:1.400000 156.08112:2.400000 166.06044:0.700000 166.13609:0.600000 167.07123:0.600000 168.07817:2.000000 168.08916:0.800000 169.0864:1.400000 172.07814:0.600000 184.0778:1.000000 194.09433:0.500000 196.07494:0.500000 207.10515:0.600000 219.94591:0.600000 222.11517:0.500000 224.13864:0.600000 233.10362:0.700000 234.13148:1.300000 238.15175:0.500000 246.12636:0.600000 261.14273:0.900000 277.15173:0.800000 277.17453:5.100000 278.17905:1.000000 278.18695:0.600000 295.15231:0.600000 295.18152:100.000000</t>
-  </si>
-  <si>
-    <t>KMPWYEUPVWOPIM-UHFFFAOYNA-N</t>
-  </si>
-  <si>
-    <t>KMPWYEUPVWOPIM-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C19H22N2O/c1-2-13-12-21-10-8-14(13)11-18(21)19(22)16-7-9-20-17-6-4-3-5-15(16)17/h2-7,9,13-14,18-19,22H,1,8,10-12H2</t>
-  </si>
-  <si>
-    <t>C=CC1CN2CCC1CC2C(O)c1ccnc2ccccc12</t>
-  </si>
-  <si>
-    <t>Quercetin-3-O-rhamnoside</t>
-  </si>
-  <si>
-    <t>02071_Quercetin-3-O-rhamnoside</t>
-  </si>
-  <si>
-    <t>85.01132:3.300000 85.02949:10.200000 112.15451:2.800000 129.05487:5.800000 229.04373:2.400000 287.05557:5.500000 287.06277:2.600000 303.01819:3.400000 303.05096:100.000000 304.04279:7.200000 304.06137:9.000000 305.04678:3.900000 314.1973:3.800000 316.05243:5.100000 369.05716:2.500000 449.04883:3.300000 449.1095:3.300000</t>
-  </si>
-  <si>
-    <t>OXGUCUVFOIWWQJ-HQBVPOQASA-N</t>
-  </si>
-  <si>
-    <t>O=C1C(OC2OC(C)C(O)C(O)C2O)=C(OC=3C=C(O)C=C(O)C13)C=4C=CC(O)=C(O)C4</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H20O11/c1-7-15(26)17(28)18(29)21(30-7)32-20-16(27)14-12(25)5-9(22)6-13(14)31-19(20)8-2-3-10(23)11(24)4-8/h2-7,15,17-18,21-26,28-29H,1H3/t7-,15-,17+,18+,21-/m0/s1</t>
-  </si>
-  <si>
-    <t>C[C@@H]1O[C@@H](Oc2c(-c3ccc(O)c(O)c3)oc3cc(O)cc(O)c3c2=O)[C@H](O)[C@H](O)[C@H]1O</t>
-  </si>
-  <si>
-    <t>Amygdalin</t>
-  </si>
-  <si>
-    <t>00654_Amygdalin</t>
-  </si>
-  <si>
-    <t>85.02645:46.100000 87.03574:6.200000 96.041:6.900000 97.03177:11.100000 98.03763:14.100000 109.02489:13.700000 127.03374:10.800000 127.05328:6.500000 134.05016:5.600000 134.05737:6.500000 142.04564:7.800000 144.06728:9.800000 145.04739:11.800000 145.05585:18.300000 146.061:7.500000 158.10307:8.500000 160.05959:8.800000 160.07175:5.900000 161.04199:6.500000 163.06163:50.300000 232.10405:6.500000 250.1019:14.100000 271.07953:6.500000 279.11703:8.500000 296.08777:6.900000 296.11368:100.000000 297.11871:13.700000 325.11386:11.800000 325.13071:5.900000 384.17001:7.800000 458.16101:53.600000 458.19153:18.300000</t>
-  </si>
-  <si>
-    <t>XUCIJNAGGSZNQT-JHSLDZJXSA-N</t>
-  </si>
-  <si>
-    <t>N#CC(OC1OC(COC2OC(CO)C(O)C(O)C2O)C(O)C(O)C1O)C=3C=CC=CC3</t>
-  </si>
-  <si>
-    <t>Cyanogenic glycosides</t>
-  </si>
-  <si>
-    <t>C20H27NO11</t>
-  </si>
-  <si>
-    <t>InChI=1S/C20H27NO11/c21-6-10(9-4-2-1-3-5-9)30-20-18(28)16(26)14(24)12(32-20)8-29-19-17(27)15(25)13(23)11(7-22)31-19/h1-5,10-20,22-28H,7-8H2/t10-,11+,12+,13+,14+,15-,16-,17+,18+,19+,20+/m0/s1</t>
-  </si>
-  <si>
-    <t>N#C[C@H](O[C@@H]1O[C@H](CO[C@@H]2O[C@H](CO)[C@@H](O)[C@H](O)[C@H]2O)[C@@H](O)[C@H](O)[C@H]1O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>Quinine</t>
-  </si>
-  <si>
-    <t>01668_Quinine</t>
-  </si>
-  <si>
-    <t>81.06921:2.100000 83.07217:0.600000 84.0488:0.700000 94.06683:0.600000 95.07545:1.300000 103.06164:0.600000 105.06918:1.100000 107.07281:0.500000 110.09718:0.900000 122.08944:1.000000 125.08508:0.600000 130.06209:0.500000 134.09827:2.400000 138.12791:1.300000 143.07202:1.800000 144.07802:0.600000 144.08424:1.100000 145.05043:0.500000 155.08015:0.600000 159.06798:0.700000 160.07878:8.900000 161.05942:0.700000 161.08061:1.900000 162.05859:1.200000 162.08801:0.700000 166.12492:3.600000 171.15544:0.500000 172.07242:1.700000 172.08359:1.400000 173.07495:1.300000 173.08408:2.300000 173.09384:0.500000 174.09422:4.100000 182.06137:0.700000 183.05939:0.500000 183.07538:0.600000 183.10588:0.700000 184.06573:0.700000 184.078:1.700000 186.09146:2.800000 186.78119:0.600000 187.09441:0.900000 188.07132:1.200000 196.07651:0.700000 198.08717:1.700000 199.08867:0.600000 205.48308:0.600000 216.0735:0.700000 218.10025:0.600000 221.13142:0.600000 224.10091:1.200000 227.125:0.600000 234.09682:0.500000 234.1291:0.600000 239.12656:0.600000 240.13553:0.600000 251.12817:0.500000 252.12077:0.800000 252.1433:0.500000 253.12849:1.700000 254.12798:0.600000 254.14828:0.700000 255.15103:1.000000 263.12436:0.700000 264.14005:0.800000 265.14804:0.500000 268.18219:0.500000 279.13931:0.500000 282.15915:0.600000 291.15918:0.500000 307.17792:1.400000 307.19174:2.700000 308.20917:0.800000 325.15121:1.900000 325.19226:100.000000 325.24725:1.000000 325.33606:0.700000</t>
-  </si>
-  <si>
-    <t>LOUPRKONTZGTKE-VPCNSNALSA-N</t>
-  </si>
-  <si>
-    <t>OC(C=1C=CN=C2C=CC(OC)=CC21)C3N4CCC(C3)C(C=C)C4</t>
-  </si>
-  <si>
-    <t>InChI=1S/C20H24N2O2/c1-3-13-12-22-9-7-14(13)10-19(22)20(23)16-6-8-21-18-5-4-15(24-2)11-17(16)18/h3-6,8,11,13-14,19-20,23H,1,7,9-10,12H2,2H3/t13-,14-,19+,20-/m1/s1</t>
-  </si>
-  <si>
-    <t>C=C[C@@H]1CN2CC[C@@H]1C[C@H]2[C@H](O)c1ccnc2ccc(OC)cc12</t>
-  </si>
-  <si>
-    <t>Luteolin-7-O-glucoside</t>
-  </si>
-  <si>
-    <t>02003_Luteolin-7-O-glucoside</t>
-  </si>
-  <si>
-    <t>153.01738:1.000000 286.03632:0.500000 286.99823:0.700000 287.05524:100.000000 288.03506:0.900000 288.05795:15.700000 289.05984:3.000000 449.10553:15.200000 449.1434:0.500000</t>
-  </si>
-  <si>
-    <t>PEFNSGRTCBGNAN-QNDFHXLGSA-N</t>
-  </si>
-  <si>
-    <t>O=C1C=C(OC2=CC(OC3OC(CO)C(O)C(O)C3O)=CC(O)=C12)C=4C=CC(O)=C(O)C4</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H20O11/c22-7-16-18(27)19(28)20(29)21(32-16)30-9-4-12(25)17-13(26)6-14(31-15(17)5-9)8-1-2-10(23)11(24)3-8/h1-6,16,18-25,27-29H,7H2/t16-,18-,19+,20-,21-/m1/s1</t>
-  </si>
-  <si>
-    <t>O=c1cc(-c2ccc(O)c(O)c2)oc2cc(O[C@@H]3O[C@H](CO)[C@@H](O)[C@H](O)[C@H]3O)cc(O)c12</t>
-  </si>
-  <si>
-    <t>Kaempferol-3-O-rhamnoside</t>
-  </si>
-  <si>
-    <t>02406_Kaempferol-3-O-rhamnoside</t>
-  </si>
-  <si>
-    <t>147.04784:0.600000 153.01634:0.500000 153.02391:0.700000 165.01326:0.700000 165.01978:1.600000 166.02179:0.700000 287.02246:1.600000 287.05447:100.000000 288.05652:19.400000 289.05774:2.600000 289.07129:0.500000 433.1124:22.600000</t>
-  </si>
-  <si>
-    <t>SOSLMHZOJATCCP-AEIZVZFYSA-N</t>
-  </si>
-  <si>
-    <t>O=C1C(OC2OC(C)C(O)C(O)C2O)=C(OC=3C=C(O)C=C(O)C13)C=4C=CC(O)=CC4</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H20O10/c1-8-15(25)17(27)18(28)21(29-8)31-20-16(26)14-12(24)6-11(23)7-13(14)30-19(20)9-2-4-10(22)5-3-9/h2-8,15,17-18,21-25,27-28H,1H3/t8-,15-,17+,18+,21-/m0/s1</t>
-  </si>
-  <si>
-    <t>C[C@@H]1O[C@@H](Oc2c(-c3ccc(O)cc3)oc3cc(O)cc(O)c3c2=O)[C@H](O)[C@H](O)[C@H]1O</t>
-  </si>
-  <si>
-    <t>11,12-Methylenedioxykopsinaline</t>
-  </si>
-  <si>
-    <t>00060_11,12-Methylenedioxykopsinaline</t>
-  </si>
-  <si>
-    <t>174.05328:0.700000 222.09364:1.200000 241.09787:3.400000 269.12918:4.600000 270.12863:0.700000 339.17075:2.400000 340.17267:1.000000 399.13855:1.400000 399.19116:100.000000 399.2493:1.900000</t>
-  </si>
-  <si>
-    <t>JVIKUDVTJCANPX-NBYDKTAJSA-N</t>
-  </si>
-  <si>
-    <t>O=C(OC)C1(O)CC23CCCN4CCC5(C6=CC=C7OCOC7=C6NC15CC2)C43</t>
-  </si>
-  <si>
-    <t>C22H26N2O5</t>
-  </si>
-  <si>
-    <t>InChI=1S/C22H26N2O5/c1-27-18(25)21(26)11-19-5-2-9-24-10-8-20(17(19)24)13-3-4-14-16(29-12-28-14)15(13)23-22(20,21)7-6-19/h3-4,17,23,26H,2,5-12H2,1H3/t17-,19+,20+,21+,22-/m0/s1</t>
-  </si>
-  <si>
-    <t>COC(=O)[C@]1(O)C[C@@]23CCCN4CC[C@@]5(c6ccc7c(c6N[C@]15CC2)OCO7)[C@@H]43</t>
-  </si>
-  <si>
-    <t>Phloretin-2'-O-glucoside</t>
-  </si>
-  <si>
-    <t>06433_Phloretin-2'-O-glucoside</t>
-  </si>
-  <si>
-    <t>81.03207:0.800000 93.02972:1.300000 119.04777:3.600000 123.04327:7.700000 124.05344:0.900000 125.02169:5.000000 149.01755:1.500000 149.02507:0.600000 151.00175:0.500000 167.03305:45.200000 168.03752:5.600000 179.0338:4.900000 189.0553:1.400000 191.03355:0.900000 255.05626:0.700000 255.06813:0.600000 273.07446:100.000000 274.07849:16.200000 275.07425:0.700000 275.08304:1.300000 435.1239:6.200000</t>
-  </si>
-  <si>
-    <t>IOUVKUPGCMBWBT-UHFFFAOYNA-N</t>
-  </si>
-  <si>
-    <t>O=C(C=1C(O)=CC(O)=CC1OC2OC(CO)C(O)C(O)C2O)CCC3=CC=C(O)C=C3</t>
-  </si>
-  <si>
-    <t>C21H24O10</t>
-  </si>
-  <si>
-    <t>IOUVKUPGCMBWBT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H24O10/c22-9-16-18(27)19(28)20(29)21(31-16)30-15-8-12(24)7-14(26)17(15)13(25)6-3-10-1-4-11(23)5-2-10/h1-2,4-5,7-8,16,18-24,26-29H,3,6,9H2</t>
-  </si>
-  <si>
-    <t>O=C(CCc1ccc(O)cc1)c1c(O)cc(O)cc1OC1OC(CO)C(O)C(O)C1O</t>
-  </si>
-  <si>
-    <t>Chrysanthellin A</t>
-  </si>
-  <si>
-    <t>05266_Chrysanthellin A</t>
-  </si>
-  <si>
-    <t>163.05299:4.100000 295.10992:7.100000 381.1416:4.400000 436.9433:4.100000 441.16873:9.900000 466.14224:4.800000 483.17114:15.900000 483.19098:5.700000 484.17099:4.600000 555.19489:4.800000 556.19287:6.000000 633.38702:15.900000 633.43121:5.700000 634.43903:4.600000 698.01501:4.100000 1099.54163:5.100000 1099.59082:4.100000 1111.96277:5.100000 1171.56409:4.400000 1189.60242:100.000000</t>
-  </si>
-  <si>
-    <t>IBEZGTWSSFFKNB-UHFFFAOYNA-N</t>
-  </si>
-  <si>
-    <t>O=C(OC1OCC(O)C(O)C1OC2OC(C)C(OC3OCC(O)C(OC4OC(C)C(O)C(O)C4O)C3O)C(O)C2O)C56CCC(C)(C)CC6C7=CCC8C9(C)CCC(OC%10OC(CO)C(O)C(O)C%10O)C(C)(C)C9CCC8(C)C7(C)CC5O</t>
-  </si>
-  <si>
-    <t>C58H94O25</t>
-  </si>
-  <si>
-    <t>IBEZGTWSSFFKNB-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C58H94O25/c1-23-34(63)37(66)40(69)48(76-23)81-45-28(61)22-74-47(43(45)72)80-44-24(2)77-49(42(71)39(44)68)82-46-35(64)27(60)21-75-51(46)83-52(73)58-17-16-53(3,4)18-26(58)25-10-11-31-55(7)14-13-33(79-50-41(70)38(67)36(65)29(20-59)78-50)54(5,6)30(55)12-15-56(31,8)57(25,9)19-32(58)62/h10,23-24,26-51,59-72H,11-22H2,1-9H3</t>
-  </si>
-  <si>
-    <t>CC1OC(OC2C(O)COC(OC3C(C)OC(OC4C(OC(=O)C56CCC(C)(C)CC5C5=CCC7C8(C)CCC(OC9OC(CO)C(O)C(O)C9O)C(C)(C)C8CCC7(C)C5(C)CC6O)OCC(O)C4O)C(O)C3O)C2O)C(O)C(O)C1O</t>
-  </si>
-  <si>
-    <t>Maslinic acid</t>
-  </si>
-  <si>
-    <t>03805_Maslinic acid</t>
-  </si>
-  <si>
-    <t>71.06963:7.700000 107.08249:6.400000 121.10465:8.700000 123.10526:7.700000 133.10515:15.100000 135.1165:6.400000 137.13234:5.500000 147.11588:7.400000 147.12146:5.800000 149.12863:5.800000 161.13533:19.600000 163.14793:14.100000 164.15503:7.700000 173.12798:6.100000 175.13443:7.400000 175.14763:6.400000 177.16472:14.500000 178.15854:8.700000 185.13341:6.400000 187.14854:12.900000 189.1628:10.300000 189.1687:21.200000 191.18356:11.900000 192.19316:6.400000 193.16087:11.600000 201.16898:5.800000 203.16878:9.000000 203.179:26.400000 203.19046:10.300000 204.18051:7.700000 204.1913:7.100000 205.1539:6.100000 205.16736:11.900000 205.19719:11.600000 206.15448:6.400000 207.17291:19.600000 207.18587:11.900000 208.18057:13.200000 216.17879:6.800000 222.19405:7.400000 231.17532:9.000000 233.19249:6.800000 247.16046:5.500000 267.17273:6.400000 324.28058:7.700000 349.28433:8.000000 375.46722:7.100000 381.34262:7.100000 391.33182:6.800000 392.33908:18.300000 409.33063:19.000000 409.34772:100.000000 409.35947:28.300000 410.34534:17.000000 410.36133:29.900000 410.37891:5.500000 411.32861:6.100000 411.36859:15.800000 412.34894:9.300000 427.36331:12.200000 437.32886:37.600000 437.35199:14.100000 438.34506:5.800000 439.32047:5.800000 439.35138:6.400000 439.36945:7.100000 455.33713:11.600000 455.36435:14.500000 473.34592:32.200000 473.36807:61.700000</t>
-  </si>
-  <si>
-    <t>MDZKJHQSJHYOHJ-LLICELPBSA-N</t>
-  </si>
-  <si>
-    <t>O=C(O)C12CCC(C)(C)CC2C3=CCC4C5(C)CC(O)C(O)C(C)(C)C5CCC4(C)C3(C)CC1</t>
-  </si>
-  <si>
-    <t>C30H48O4</t>
-  </si>
-  <si>
-    <t>InChI=1S/C30H48O4/c1-25(2)12-14-30(24(33)34)15-13-28(6)18(19(30)16-25)8-9-22-27(5)17-20(31)23(32)26(3,4)21(27)10-11-29(22,28)7/h8,19-23,31-32H,9-17H2,1-7H3,(H,33,34)/t19-,20+,21-,22+,23-,27-,28+,29+,30-/m0/s1</t>
-  </si>
-  <si>
-    <t>CC1(C)CC[C@]2(C(=O)O)CC[C@]3(C)C(=CC[C@@H]4[C@@]5(C)C[C@@H](O)[C@H](O)C(C)(C)[C@@H]5CC[C@]43C)[C@@H]2C1</t>
-  </si>
-  <si>
-    <t>Ginsenoside F1</t>
-  </si>
-  <si>
-    <t>04348_Ginsenoside F1</t>
-  </si>
-  <si>
-    <t>95.08746:23.300000 147.11739:25.600000 148.12204:22.100000 149.12749:18.600000 151.11823:19.800000 203.18663:26.700000 205.15715:24.400000 217.20914:19.800000 236.20615:19.800000 241.19237:18.600000 248.20726:27.900000 255.202:18.600000 269.20737:19.800000 323.27478:18.600000 379.30405:18.600000 423.36935:50.000000 424.34534:62.800000 424.37625:18.600000 425.3678:19.800000 441.35486:18.600000 441.37469:66.300000 442.37845:19.800000 443.38937:20.900000 459.37897:100.000000 459.40283:54.700000 461.38663:18.600000 603.41882:45.300000 639.39783:19.800000 639.44958:18.600000</t>
-  </si>
-  <si>
-    <t>XNGXWSFSJIQMNC-FIYORUNESA-N</t>
-  </si>
-  <si>
-    <t>OCC1OC(OC(C)(CCC=C(C)C)C2CCC3(C)C2C(O)CC4C5(C)CCC(O)C(C)(C)C5C(O)CC43C)C(O)C(O)C1O</t>
-  </si>
-  <si>
-    <t>InChI=1S/C36H62O9/c1-19(2)10-9-13-36(8,45-31-29(43)28(42)27(41)23(18-37)44-31)20-11-15-34(6)26(20)21(38)16-24-33(5)14-12-25(40)32(3,4)30(33)22(39)17-35(24,34)7/h10,20-31,37-43H,9,11-18H2,1-8H3/t20-,21+,22-,23+,24+,25-,26-,27+,28-,29+,30-,31-,33+,34+,35+,36-/m0/s1</t>
-  </si>
-  <si>
-    <t>CC(C)=CCC[C@](C)(O[C@@H]1O[C@H](CO)[C@@H](O)[C@H](O)[C@H]1O)[C@H]1CC[C@]2(C)[C@@H]1[C@H](O)C[C@@H]1[C@@]3(C)CC[C@H](O)C(C)(C)[C@@H]3[C@@H](O)C[C@]12C</t>
-  </si>
-  <si>
-    <t>Pseudojervine</t>
-  </si>
-  <si>
-    <t>00923_Pseudojervine</t>
-  </si>
-  <si>
-    <t>114.09193:1.100000 126.12689:0.500000 149.09547:0.900000 295.20544:0.600000 588.28632:0.500000 588.35358:100.000000 588.42548:1.800000</t>
-  </si>
-  <si>
-    <t>HYDDDNUKNMMWBD-WJWSUNTISA-N</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(C)C3(OC4CC(C)CNC4C3C)CCC2C5CC=C6CC(OC7OC(CO)C(O)C(O)C7O)CCC6(C)C15</t>
-  </si>
-  <si>
-    <t>C33H49NO8</t>
-  </si>
-  <si>
-    <t>InChI=1S/C33H49NO8/c1-15-11-22-26(34-13-15)17(3)33(42-22)10-8-20-21-6-5-18-12-19(40-31-30(39)29(38)27(36)23(14-35)41-31)7-9-32(18,4)25(21)28(37)24(20)16(33)2/h5,15,17,19-23,25-27,29-31,34-36,38-39H,6-14H2,1-4H3/t15?,17?,19-,20?,21?,22+,23?,25?,26-,27+,29?,30?,31+,32?,33-/m0/s1</t>
-  </si>
-  <si>
-    <t>CC1=C2C(=O)C3C(CC=C4C[C@@H](O[C@@H]5OC(CO)[C@@H](O)C(O)C5O)CCC43C)C2CC[C@]12O[C@@H]1CC(C)CN[C@H]1C2C</t>
-  </si>
-  <si>
-    <t>p-Hydroxybenzyl glucosinolate</t>
-  </si>
-  <si>
-    <t>07231_p-Hydroxybenzyl glucosinolate</t>
-  </si>
-  <si>
-    <t>71.01402:1.100000 74.99106:9.500000 79.95725:3.900000 85.02888:2.700000 89.02143:0.600000 95.95141:16.300000 96.95978:57.000000 97.86503:0.600000 97.95021:2.300000 98.95717:4.200000 98.96326:1.100000 99.01881:0.500000 101.02971:1.100000 101.62:0.500000 117.02118:0.600000 118.03089:0.600000 119.03282:1.800000 121.9532:0.700000 127.92222:1.300000 135.82574:1.100000 138.96877:1.600000 138.97472:0.600000 148.03816:1.900000 149.00685:1.200000 149.02025:0.500000 182.03383:4.500000 183.03224:0.900000 195.03534:3.900000 200.98378:0.500000 227.02238:1.200000 227.99133:1.200000 230.97485:0.500000 230.98538:2.100000 232.97464:0.500000 242.0034:1.000000 259.01248:5.700000 259.02188:2.700000 259.03308:0.500000 261.00836:0.500000 274.01944:0.500000 274.98434:2.800000 275.99478:1.000000 276.81104:0.800000 340.67459:0.700000 341.82791:0.700000 344.09174:0.800000 346.4884:0.700000 423.02057:0.700000 424.03809:100.000000 424.06827:1.700000</t>
-  </si>
-  <si>
-    <t>WWBNBPSEKLOHJU-UHFFFAOYNA-N</t>
-  </si>
-  <si>
-    <t>O=S(=O)(O)ON=C(SC1OC(CO)C(O)C(O)C1O)CC2=CC=C(O)C=C2</t>
-  </si>
-  <si>
-    <t>C14H19NO10S2</t>
-  </si>
-  <si>
-    <t>WWBNBPSEKLOHJU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>InChI=1S/C14H19NO10S2/c16-6-9-11(18)12(19)13(20)14(24-9)26-10(15-25-27(21,22)23)5-7-1-3-8(17)4-2-7/h1-4,9,11-14,16-20H,5-6H2,(H,21,22,23)</t>
-  </si>
-  <si>
-    <t>O=S(=O)(O)ON=C(Cc1ccc(O)cc1)SC1OC(CO)C(O)C(O)C1O</t>
-  </si>
-  <si>
-    <t>Ellipticine</t>
-  </si>
-  <si>
-    <t>01232_Ellipticine</t>
-  </si>
-  <si>
-    <t>204.0838:3.000000 230.08786:0.500000 231.09091:11.800000 232.09935:24.200000 233.10384:3.500000 245.09752:0.500000 245.10799:1.200000 246.11545:1.800000 247.1228:100.000000</t>
-  </si>
-  <si>
-    <t>CTSPAMFJBXKSOY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>N=1C=CC=2C(C1)=C(C=3C=4C=CC=CC4NC3C2C)C</t>
-  </si>
-  <si>
-    <t>Carbazoles</t>
-  </si>
-  <si>
-    <t>C17H14N2</t>
-  </si>
-  <si>
-    <t>InChI=1S/C17H14N2/c1-10-14-9-18-8-7-12(14)11(2)17-16(10)13-5-3-4-6-15(13)19-17/h3-9,19H,1-2H3</t>
-  </si>
-  <si>
-    <t>Cc1c2ccncc2c(C)c2c1[nH]c1ccccc12</t>
-  </si>
-  <si>
-    <t>Pelargonidin-3-O-glucoside</t>
-  </si>
-  <si>
-    <t>02620_Pelargonidin-3-O-glucoside</t>
-  </si>
-  <si>
-    <t>145.06371:0.700000 271.01883:2.200000 271.06116:100.000000 272.06479:19.000000 273.06314:1.100000 273.07391:0.700000 433.07065:1.500000 433.11304:26.800000</t>
-  </si>
-  <si>
-    <t>ABVCUBUIXWJYSE-GQUPQBGVSA-O</t>
-  </si>
-  <si>
-    <t>OC=1C=CC(=CC1)C2=[O+]C=3C=C(O)C=C(O)C3C=C2OC4OC(CO)C(O)C(O)C4O</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H20O10/c22-8-16-17(26)18(27)19(28)21(31-16)30-15-7-12-13(25)5-11(24)6-14(12)29-20(15)9-1-3-10(23)4-2-9/h1-7,16-19,21-22,26-28H,8H2,(H2-,23,24,25)/p+1/t16-,17-,18+,19-,21-/m1/s1</t>
-  </si>
-  <si>
-    <t>OC[C@H]1O[C@@H](Oc2cc3c(O)cc(O)cc3[o+]c2-c2ccc(O)cc2)[C@H](O)[C@@H](O)[C@@H]1O</t>
   </si>
 </sst>
 </file>
@@ -10175,7 +8838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z391"/>
+  <dimension ref="A1:Z335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36980,4486 +35643,6 @@
         <v>288.296999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:26">
-      <c r="A336" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B336" t="s">
-        <v>2825</v>
-      </c>
-      <c r="C336" t="s">
-        <v>2826</v>
-      </c>
-      <c r="D336" t="s">
-        <v>27</v>
-      </c>
-      <c r="E336" t="s">
-        <v>28</v>
-      </c>
-      <c r="F336" t="s">
-        <v>29</v>
-      </c>
-      <c r="G336" t="n">
-        <v>2.70645</v>
-      </c>
-      <c r="H336" t="s">
-        <v>30</v>
-      </c>
-      <c r="I336" t="s">
-        <v>31</v>
-      </c>
-      <c r="J336" t="s">
-        <v>32</v>
-      </c>
-      <c r="K336" t="n">
-        <v>2.105049416</v>
-      </c>
-      <c r="L336" t="n">
-        <v>0.6073888710000001</v>
-      </c>
-      <c r="M336" t="n">
-        <v>438.0534117</v>
-      </c>
-      <c r="N336" t="s">
-        <v>33</v>
-      </c>
-      <c r="O336" t="n">
-        <v>0.000283459</v>
-      </c>
-      <c r="P336" t="n">
-        <v>-1.24e-07</v>
-      </c>
-      <c r="Q336" t="s">
-        <v>2827</v>
-      </c>
-      <c r="R336" t="s">
-        <v>2828</v>
-      </c>
-      <c r="S336" t="s">
-        <v>2829</v>
-      </c>
-      <c r="T336" t="s">
-        <v>220</v>
-      </c>
-      <c r="U336" t="s">
-        <v>2830</v>
-      </c>
-      <c r="V336" t="s">
-        <v>2831</v>
-      </c>
-      <c r="W336" t="n">
-        <v>439.0606879</v>
-      </c>
-      <c r="X336" t="s">
-        <v>2832</v>
-      </c>
-      <c r="Y336" t="s">
-        <v>2833</v>
-      </c>
-      <c r="Z336" t="n">
-        <v>162.387</v>
-      </c>
-    </row>
-    <row r="337" spans="1:26">
-      <c r="A337" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B337" t="s">
-        <v>2834</v>
-      </c>
-      <c r="C337" t="s">
-        <v>2835</v>
-      </c>
-      <c r="D337" t="s">
-        <v>27</v>
-      </c>
-      <c r="E337" t="s">
-        <v>28</v>
-      </c>
-      <c r="F337" t="s">
-        <v>29</v>
-      </c>
-      <c r="G337" t="n">
-        <v>4.362817</v>
-      </c>
-      <c r="H337" t="s">
-        <v>30</v>
-      </c>
-      <c r="I337" t="s">
-        <v>31</v>
-      </c>
-      <c r="J337" t="s">
-        <v>44</v>
-      </c>
-      <c r="K337" t="n">
-        <v>2.061713237</v>
-      </c>
-      <c r="L337" t="n">
-        <v>0.566780592</v>
-      </c>
-      <c r="M337" t="n">
-        <v>354.1335992</v>
-      </c>
-      <c r="N337" t="s">
-        <v>45</v>
-      </c>
-      <c r="O337" t="n">
-        <v>0.001389306</v>
-      </c>
-      <c r="P337" t="n">
-        <v>4.92e-07</v>
-      </c>
-      <c r="Q337" t="s">
-        <v>2836</v>
-      </c>
-      <c r="R337" t="s">
-        <v>2837</v>
-      </c>
-      <c r="S337" t="s">
-        <v>2838</v>
-      </c>
-      <c r="T337" t="s">
-        <v>2839</v>
-      </c>
-      <c r="U337" t="s">
-        <v>527</v>
-      </c>
-      <c r="V337" t="s">
-        <v>2837</v>
-      </c>
-      <c r="W337" t="n">
-        <v>353.1263227</v>
-      </c>
-      <c r="X337" t="s">
-        <v>2840</v>
-      </c>
-      <c r="Y337" t="s">
-        <v>2841</v>
-      </c>
-      <c r="Z337" t="n">
-        <v>261.769019999999</v>
-      </c>
-    </row>
-    <row r="338" spans="1:26">
-      <c r="A338" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B338" t="s">
-        <v>2842</v>
-      </c>
-      <c r="C338" t="s">
-        <v>2843</v>
-      </c>
-      <c r="D338" t="s">
-        <v>27</v>
-      </c>
-      <c r="E338" t="s">
-        <v>28</v>
-      </c>
-      <c r="F338" t="s">
-        <v>29</v>
-      </c>
-      <c r="G338" t="n">
-        <v>5.17965</v>
-      </c>
-      <c r="H338" t="s">
-        <v>30</v>
-      </c>
-      <c r="I338" t="s">
-        <v>31</v>
-      </c>
-      <c r="J338" t="s">
-        <v>32</v>
-      </c>
-      <c r="K338" t="n">
-        <v>1.79426462</v>
-      </c>
-      <c r="L338" t="n">
-        <v>0.81660502</v>
-      </c>
-      <c r="M338" t="n">
-        <v>533.2028354</v>
-      </c>
-      <c r="N338" t="s">
-        <v>33</v>
-      </c>
-      <c r="O338" t="n">
-        <v>0.00086303</v>
-      </c>
-      <c r="P338" t="n">
-        <v>-4.6e-07</v>
-      </c>
-      <c r="Q338" t="s">
-        <v>2844</v>
-      </c>
-      <c r="R338" t="s">
-        <v>2845</v>
-      </c>
-      <c r="S338" t="s">
-        <v>2846</v>
-      </c>
-      <c r="T338" t="s">
-        <v>1406</v>
-      </c>
-      <c r="U338" t="s">
-        <v>1559</v>
-      </c>
-      <c r="V338" t="s">
-        <v>2847</v>
-      </c>
-      <c r="W338" t="n">
-        <v>534.2101119</v>
-      </c>
-      <c r="X338" t="s">
-        <v>2848</v>
-      </c>
-      <c r="Y338" t="s">
-        <v>2849</v>
-      </c>
-      <c r="Z338" t="n">
-        <v>310.779</v>
-      </c>
-    </row>
-    <row r="339" spans="1:26">
-      <c r="A339" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B339" t="s">
-        <v>2850</v>
-      </c>
-      <c r="C339" t="s">
-        <v>2851</v>
-      </c>
-      <c r="D339" t="s">
-        <v>27</v>
-      </c>
-      <c r="E339" t="s">
-        <v>28</v>
-      </c>
-      <c r="F339" t="s">
-        <v>29</v>
-      </c>
-      <c r="G339" t="n">
-        <v>3.764483</v>
-      </c>
-      <c r="H339" t="s">
-        <v>30</v>
-      </c>
-      <c r="I339" t="s">
-        <v>31</v>
-      </c>
-      <c r="J339" t="s">
-        <v>44</v>
-      </c>
-      <c r="K339" t="n">
-        <v>1.860472177</v>
-      </c>
-      <c r="L339" t="n">
-        <v>0.468598334</v>
-      </c>
-      <c r="M339" t="n">
-        <v>609.2959135</v>
-      </c>
-      <c r="N339" t="s">
-        <v>45</v>
-      </c>
-      <c r="O339" t="n">
-        <v>0.000820619</v>
-      </c>
-      <c r="P339" t="n">
-        <v>5e-07</v>
-      </c>
-      <c r="Q339" t="s">
-        <v>2852</v>
-      </c>
-      <c r="R339" t="s">
-        <v>2853</v>
-      </c>
-      <c r="S339" t="s">
-        <v>2854</v>
-      </c>
-      <c r="T339" t="s">
-        <v>1254</v>
-      </c>
-      <c r="U339" t="s">
-        <v>1000</v>
-      </c>
-      <c r="V339" t="s">
-        <v>2853</v>
-      </c>
-      <c r="W339" t="n">
-        <v>608.288637</v>
-      </c>
-      <c r="X339" t="s">
-        <v>2855</v>
-      </c>
-      <c r="Y339" t="s">
-        <v>2856</v>
-      </c>
-      <c r="Z339" t="n">
-        <v>225.86898</v>
-      </c>
-    </row>
-    <row r="340" spans="1:26">
-      <c r="A340" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B340" t="s">
-        <v>2857</v>
-      </c>
-      <c r="C340" t="s">
-        <v>2858</v>
-      </c>
-      <c r="D340" t="s">
-        <v>27</v>
-      </c>
-      <c r="E340" t="s">
-        <v>28</v>
-      </c>
-      <c r="F340" t="s">
-        <v>29</v>
-      </c>
-      <c r="G340" t="n">
-        <v>2.17865</v>
-      </c>
-      <c r="H340" t="s">
-        <v>30</v>
-      </c>
-      <c r="I340" t="s">
-        <v>31</v>
-      </c>
-      <c r="J340" t="s">
-        <v>44</v>
-      </c>
-      <c r="K340" t="n">
-        <v>0.961680688</v>
-      </c>
-      <c r="L340" t="n">
-        <v>0.462470653</v>
-      </c>
-      <c r="M340" t="n">
-        <v>248.1393533</v>
-      </c>
-      <c r="N340" t="s">
-        <v>45</v>
-      </c>
-      <c r="O340" t="n">
-        <v>0.002079477</v>
-      </c>
-      <c r="P340" t="n">
-        <v>5.16e-07</v>
-      </c>
-      <c r="Q340" t="s">
-        <v>2859</v>
-      </c>
-      <c r="R340" t="s">
-        <v>2860</v>
-      </c>
-      <c r="S340" t="s">
-        <v>2861</v>
-      </c>
-      <c r="T340" t="s">
-        <v>2862</v>
-      </c>
-      <c r="U340" t="s">
-        <v>2863</v>
-      </c>
-      <c r="V340" t="s">
-        <v>2860</v>
-      </c>
-      <c r="W340" t="n">
-        <v>247.1320768</v>
-      </c>
-      <c r="X340" t="s">
-        <v>2864</v>
-      </c>
-      <c r="Y340" t="s">
-        <v>2865</v>
-      </c>
-      <c r="Z340" t="n">
-        <v>130.719</v>
-      </c>
-    </row>
-    <row r="341" spans="1:26">
-      <c r="A341" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B341" t="s">
-        <v>2866</v>
-      </c>
-      <c r="C341" t="s">
-        <v>2867</v>
-      </c>
-      <c r="D341" t="s">
-        <v>27</v>
-      </c>
-      <c r="E341" t="s">
-        <v>28</v>
-      </c>
-      <c r="F341" t="s">
-        <v>29</v>
-      </c>
-      <c r="G341" t="n">
-        <v>3.21075</v>
-      </c>
-      <c r="H341" t="s">
-        <v>30</v>
-      </c>
-      <c r="I341" t="s">
-        <v>31</v>
-      </c>
-      <c r="J341" t="s">
-        <v>44</v>
-      </c>
-      <c r="K341" t="n">
-        <v>1.019228629</v>
-      </c>
-      <c r="L341" t="n">
-        <v>0.359742986</v>
-      </c>
-      <c r="M341" t="n">
-        <v>323.1754044</v>
-      </c>
-      <c r="N341" t="s">
-        <v>45</v>
-      </c>
-      <c r="O341" t="n">
-        <v>0.001410998</v>
-      </c>
-      <c r="P341" t="n">
-        <v>4.56e-07</v>
-      </c>
-      <c r="Q341" t="s">
-        <v>2868</v>
-      </c>
-      <c r="R341" t="s">
-        <v>2869</v>
-      </c>
-      <c r="S341" t="s">
-        <v>2870</v>
-      </c>
-      <c r="T341" t="s">
-        <v>705</v>
-      </c>
-      <c r="U341" t="s">
-        <v>259</v>
-      </c>
-      <c r="V341" t="s">
-        <v>2869</v>
-      </c>
-      <c r="W341" t="n">
-        <v>322.1681279</v>
-      </c>
-      <c r="X341" t="s">
-        <v>2871</v>
-      </c>
-      <c r="Y341" t="s">
-        <v>2872</v>
-      </c>
-      <c r="Z341" t="n">
-        <v>192.645</v>
-      </c>
-    </row>
-    <row r="342" spans="1:26">
-      <c r="A342" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B342" t="s">
-        <v>2873</v>
-      </c>
-      <c r="C342" t="s">
-        <v>2874</v>
-      </c>
-      <c r="D342" t="s">
-        <v>27</v>
-      </c>
-      <c r="E342" t="s">
-        <v>28</v>
-      </c>
-      <c r="F342" t="s">
-        <v>29</v>
-      </c>
-      <c r="G342" t="n">
-        <v>5.4069</v>
-      </c>
-      <c r="H342" t="s">
-        <v>30</v>
-      </c>
-      <c r="I342" t="s">
-        <v>31</v>
-      </c>
-      <c r="J342" t="s">
-        <v>32</v>
-      </c>
-      <c r="K342" t="n">
-        <v>0.990785925</v>
-      </c>
-      <c r="L342" t="n">
-        <v>0.901852214</v>
-      </c>
-      <c r="M342" t="n">
-        <v>218.06788</v>
-      </c>
-      <c r="N342" t="s">
-        <v>33</v>
-      </c>
-      <c r="O342" t="n">
-        <v>0.000532724</v>
-      </c>
-      <c r="P342" t="n">
-        <v>-1.16e-07</v>
-      </c>
-      <c r="Q342" t="s">
-        <v>2875</v>
-      </c>
-      <c r="R342" t="s">
-        <v>2876</v>
-      </c>
-      <c r="S342" t="s">
-        <v>2877</v>
-      </c>
-      <c r="T342" t="s">
-        <v>2137</v>
-      </c>
-      <c r="U342" t="s">
-        <v>2878</v>
-      </c>
-      <c r="V342" t="s">
-        <v>2879</v>
-      </c>
-      <c r="W342" t="n">
-        <v>219.0751562</v>
-      </c>
-      <c r="X342" t="s">
-        <v>2880</v>
-      </c>
-      <c r="Y342" t="s">
-        <v>2881</v>
-      </c>
-      <c r="Z342" t="n">
-        <v>324.414</v>
-      </c>
-    </row>
-    <row r="343" spans="1:26">
-      <c r="A343" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B343" t="s">
-        <v>2882</v>
-      </c>
-      <c r="C343" t="s">
-        <v>2883</v>
-      </c>
-      <c r="D343" t="s">
-        <v>27</v>
-      </c>
-      <c r="E343" t="s">
-        <v>28</v>
-      </c>
-      <c r="F343" t="s">
-        <v>29</v>
-      </c>
-      <c r="G343" t="n">
-        <v>4.50125</v>
-      </c>
-      <c r="H343" t="s">
-        <v>30</v>
-      </c>
-      <c r="I343" t="s">
-        <v>31</v>
-      </c>
-      <c r="J343" t="s">
-        <v>44</v>
-      </c>
-      <c r="K343" t="n">
-        <v>2.154871151</v>
-      </c>
-      <c r="L343" t="n">
-        <v>0.596765477</v>
-      </c>
-      <c r="M343" t="n">
-        <v>355.2016192</v>
-      </c>
-      <c r="N343" t="s">
-        <v>45</v>
-      </c>
-      <c r="O343" t="n">
-        <v>0.001430174</v>
-      </c>
-      <c r="P343" t="n">
-        <v>5.08e-07</v>
-      </c>
-      <c r="Q343" t="s">
-        <v>2884</v>
-      </c>
-      <c r="R343" t="s">
-        <v>2885</v>
-      </c>
-      <c r="S343" t="s">
-        <v>2886</v>
-      </c>
-      <c r="T343" t="s">
-        <v>500</v>
-      </c>
-      <c r="U343" t="s">
-        <v>706</v>
-      </c>
-      <c r="V343" t="s">
-        <v>2887</v>
-      </c>
-      <c r="W343" t="n">
-        <v>354.1943427</v>
-      </c>
-      <c r="X343" t="s">
-        <v>2888</v>
-      </c>
-      <c r="Y343" t="s">
-        <v>2889</v>
-      </c>
-      <c r="Z343" t="n">
-        <v>270.075</v>
-      </c>
-    </row>
-    <row r="344" spans="1:26">
-      <c r="A344" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B344" t="s">
-        <v>2890</v>
-      </c>
-      <c r="C344" t="s">
-        <v>2891</v>
-      </c>
-      <c r="D344" t="s">
-        <v>27</v>
-      </c>
-      <c r="E344" t="s">
-        <v>28</v>
-      </c>
-      <c r="F344" t="s">
-        <v>29</v>
-      </c>
-      <c r="G344" t="n">
-        <v>4.901633</v>
-      </c>
-      <c r="H344" t="s">
-        <v>30</v>
-      </c>
-      <c r="I344" t="s">
-        <v>31</v>
-      </c>
-      <c r="J344" t="s">
-        <v>44</v>
-      </c>
-      <c r="K344" t="n">
-        <v>1.614016483</v>
-      </c>
-      <c r="L344" t="n">
-        <v>0.501422413</v>
-      </c>
-      <c r="M344" t="n">
-        <v>385.2121838</v>
-      </c>
-      <c r="N344" t="s">
-        <v>45</v>
-      </c>
-      <c r="O344" t="n">
-        <v>0.001100692</v>
-      </c>
-      <c r="P344" t="n">
-        <v>4.24e-07</v>
-      </c>
-      <c r="Q344" t="s">
-        <v>2892</v>
-      </c>
-      <c r="R344" t="s">
-        <v>2893</v>
-      </c>
-      <c r="S344" t="s">
-        <v>1351</v>
-      </c>
-      <c r="T344" t="s">
-        <v>131</v>
-      </c>
-      <c r="U344" t="s">
-        <v>544</v>
-      </c>
-      <c r="V344" t="s">
-        <v>2893</v>
-      </c>
-      <c r="W344" t="n">
-        <v>384.2049074</v>
-      </c>
-      <c r="X344" t="s">
-        <v>2894</v>
-      </c>
-      <c r="Y344" t="s">
-        <v>2895</v>
-      </c>
-      <c r="Z344" t="n">
-        <v>294.09798</v>
-      </c>
-    </row>
-    <row r="345" spans="1:26">
-      <c r="A345" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B345" t="s">
-        <v>2896</v>
-      </c>
-      <c r="C345" t="s">
-        <v>2897</v>
-      </c>
-      <c r="D345" t="s">
-        <v>27</v>
-      </c>
-      <c r="E345" t="s">
-        <v>28</v>
-      </c>
-      <c r="F345" t="s">
-        <v>29</v>
-      </c>
-      <c r="G345" t="n">
-        <v>6.191566</v>
-      </c>
-      <c r="H345" t="s">
-        <v>30</v>
-      </c>
-      <c r="I345" t="s">
-        <v>31</v>
-      </c>
-      <c r="J345" t="s">
-        <v>44</v>
-      </c>
-      <c r="K345" t="n">
-        <v>2.549061434</v>
-      </c>
-      <c r="L345" t="n">
-        <v>0.716965369</v>
-      </c>
-      <c r="M345" t="n">
-        <v>362.1499179</v>
-      </c>
-      <c r="N345" t="s">
-        <v>45</v>
-      </c>
-      <c r="O345" t="n">
-        <v>0.001192876</v>
-      </c>
-      <c r="P345" t="n">
-        <v>4.32e-07</v>
-      </c>
-      <c r="Q345" t="s">
-        <v>2898</v>
-      </c>
-      <c r="R345" t="s">
-        <v>2899</v>
-      </c>
-      <c r="S345" t="s">
-        <v>2900</v>
-      </c>
-      <c r="T345" t="s">
-        <v>425</v>
-      </c>
-      <c r="U345" t="s">
-        <v>2901</v>
-      </c>
-      <c r="V345" t="s">
-        <v>2902</v>
-      </c>
-      <c r="W345" t="n">
-        <v>361.1426415</v>
-      </c>
-      <c r="X345" t="s">
-        <v>2903</v>
-      </c>
-      <c r="Y345" t="s">
-        <v>2904</v>
-      </c>
-      <c r="Z345" t="n">
-        <v>371.49396</v>
-      </c>
-    </row>
-    <row r="346" spans="1:26">
-      <c r="A346" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B346" t="s">
-        <v>2905</v>
-      </c>
-      <c r="C346" t="s">
-        <v>2906</v>
-      </c>
-      <c r="D346" t="s">
-        <v>27</v>
-      </c>
-      <c r="E346" t="s">
-        <v>28</v>
-      </c>
-      <c r="F346" t="s">
-        <v>29</v>
-      </c>
-      <c r="G346" t="n">
-        <v>4.672667</v>
-      </c>
-      <c r="H346" t="s">
-        <v>30</v>
-      </c>
-      <c r="I346" t="s">
-        <v>31</v>
-      </c>
-      <c r="J346" t="s">
-        <v>44</v>
-      </c>
-      <c r="K346" t="n">
-        <v>1.87646093</v>
-      </c>
-      <c r="L346" t="n">
-        <v>0.508680469</v>
-      </c>
-      <c r="M346" t="n">
-        <v>319.0448437</v>
-      </c>
-      <c r="N346" t="s">
-        <v>45</v>
-      </c>
-      <c r="O346" t="n">
-        <v>0.00131643</v>
-      </c>
-      <c r="P346" t="n">
-        <v>4.2e-07</v>
-      </c>
-      <c r="Q346" t="s">
-        <v>2907</v>
-      </c>
-      <c r="R346" t="s">
-        <v>2908</v>
-      </c>
-      <c r="S346" t="s">
-        <v>2909</v>
-      </c>
-      <c r="T346" t="s">
-        <v>2087</v>
-      </c>
-      <c r="U346" t="s">
-        <v>2910</v>
-      </c>
-      <c r="V346" t="s">
-        <v>2908</v>
-      </c>
-      <c r="W346" t="n">
-        <v>318.0375673</v>
-      </c>
-      <c r="X346" t="s">
-        <v>2911</v>
-      </c>
-      <c r="Y346" t="s">
-        <v>2912</v>
-      </c>
-      <c r="Z346" t="n">
-        <v>280.360019999999</v>
-      </c>
-    </row>
-    <row r="347" spans="1:26">
-      <c r="A347" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B347" t="s">
-        <v>2913</v>
-      </c>
-      <c r="C347" t="s">
-        <v>2914</v>
-      </c>
-      <c r="D347" t="s">
-        <v>27</v>
-      </c>
-      <c r="E347" t="s">
-        <v>28</v>
-      </c>
-      <c r="F347" t="s">
-        <v>29</v>
-      </c>
-      <c r="G347" t="n">
-        <v>7.092883</v>
-      </c>
-      <c r="H347" t="s">
-        <v>30</v>
-      </c>
-      <c r="I347" t="s">
-        <v>31</v>
-      </c>
-      <c r="J347" t="s">
-        <v>44</v>
-      </c>
-      <c r="K347" t="n">
-        <v>3.059083616</v>
-      </c>
-      <c r="L347" t="n">
-        <v>0.712996745</v>
-      </c>
-      <c r="M347" t="n">
-        <v>943.5260921</v>
-      </c>
-      <c r="N347" t="s">
-        <v>45</v>
-      </c>
-      <c r="O347" t="n">
-        <v>0.000470575</v>
-      </c>
-      <c r="P347" t="n">
-        <v>4.44e-07</v>
-      </c>
-      <c r="Q347" t="s">
-        <v>2915</v>
-      </c>
-      <c r="R347" t="s">
-        <v>2916</v>
-      </c>
-      <c r="S347" t="s">
-        <v>2917</v>
-      </c>
-      <c r="T347" t="s">
-        <v>166</v>
-      </c>
-      <c r="U347" t="s">
-        <v>2918</v>
-      </c>
-      <c r="V347" t="s">
-        <v>2916</v>
-      </c>
-      <c r="W347" t="n">
-        <v>942.5188157</v>
-      </c>
-      <c r="X347" t="s">
-        <v>2919</v>
-      </c>
-      <c r="Y347" t="s">
-        <v>2920</v>
-      </c>
-      <c r="Z347" t="n">
-        <v>425.57298</v>
-      </c>
-    </row>
-    <row r="348" spans="1:26">
-      <c r="A348" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B348" t="s">
-        <v>2921</v>
-      </c>
-      <c r="C348" t="s">
-        <v>2922</v>
-      </c>
-      <c r="D348" t="s">
-        <v>27</v>
-      </c>
-      <c r="E348" t="s">
-        <v>28</v>
-      </c>
-      <c r="F348" t="s">
-        <v>29</v>
-      </c>
-      <c r="G348" t="n">
-        <v>4.419233</v>
-      </c>
-      <c r="H348" t="s">
-        <v>30</v>
-      </c>
-      <c r="I348" t="s">
-        <v>31</v>
-      </c>
-      <c r="J348" t="s">
-        <v>44</v>
-      </c>
-      <c r="K348" t="n">
-        <v>1.474718968</v>
-      </c>
-      <c r="L348" t="n">
-        <v>0.500848881</v>
-      </c>
-      <c r="M348" t="n">
-        <v>507.1133172</v>
-      </c>
-      <c r="N348" t="s">
-        <v>45</v>
-      </c>
-      <c r="O348" t="n">
-        <v>0.000859768</v>
-      </c>
-      <c r="P348" t="n">
-        <v>4.36e-07</v>
-      </c>
-      <c r="Q348" t="s">
-        <v>2923</v>
-      </c>
-      <c r="R348" t="s">
-        <v>2924</v>
-      </c>
-      <c r="S348" t="s">
-        <v>2925</v>
-      </c>
-      <c r="T348" t="s">
-        <v>37</v>
-      </c>
-      <c r="U348" t="s">
-        <v>2926</v>
-      </c>
-      <c r="V348" t="s">
-        <v>2924</v>
-      </c>
-      <c r="W348" t="n">
-        <v>506.1060408</v>
-      </c>
-      <c r="X348" t="s">
-        <v>2927</v>
-      </c>
-      <c r="Y348" t="s">
-        <v>2928</v>
-      </c>
-      <c r="Z348" t="n">
-        <v>265.15398</v>
-      </c>
-    </row>
-    <row r="349" spans="1:26">
-      <c r="A349" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B349" t="s">
-        <v>2929</v>
-      </c>
-      <c r="C349" t="s">
-        <v>2930</v>
-      </c>
-      <c r="D349" t="s">
-        <v>27</v>
-      </c>
-      <c r="E349" t="s">
-        <v>28</v>
-      </c>
-      <c r="F349" t="s">
-        <v>29</v>
-      </c>
-      <c r="G349" t="n">
-        <v>5.31575</v>
-      </c>
-      <c r="H349" t="s">
-        <v>30</v>
-      </c>
-      <c r="I349" t="s">
-        <v>31</v>
-      </c>
-      <c r="J349" t="s">
-        <v>32</v>
-      </c>
-      <c r="K349" t="n">
-        <v>1.643741439</v>
-      </c>
-      <c r="L349" t="n">
-        <v>0.5399012399999999</v>
-      </c>
-      <c r="M349" t="n">
-        <v>593.1300644</v>
-      </c>
-      <c r="N349" t="s">
-        <v>33</v>
-      </c>
-      <c r="O349" t="n">
-        <v>0.000748858</v>
-      </c>
-      <c r="P349" t="n">
-        <v>-4.44e-07</v>
-      </c>
-      <c r="Q349" t="s">
-        <v>2931</v>
-      </c>
-      <c r="R349" t="s">
-        <v>2932</v>
-      </c>
-      <c r="S349" t="s">
-        <v>2933</v>
-      </c>
-      <c r="T349" t="s">
-        <v>37</v>
-      </c>
-      <c r="U349" t="s">
-        <v>1502</v>
-      </c>
-      <c r="V349" t="s">
-        <v>2934</v>
-      </c>
-      <c r="W349" t="n">
-        <v>594.1373409</v>
-      </c>
-      <c r="X349" t="s">
-        <v>2935</v>
-      </c>
-      <c r="Y349" t="s">
-        <v>2936</v>
-      </c>
-      <c r="Z349" t="n">
-        <v>318.945</v>
-      </c>
-    </row>
-    <row r="350" spans="1:26">
-      <c r="A350" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B350" t="s">
-        <v>2937</v>
-      </c>
-      <c r="C350" t="s">
-        <v>2938</v>
-      </c>
-      <c r="D350" t="s">
-        <v>27</v>
-      </c>
-      <c r="E350" t="s">
-        <v>28</v>
-      </c>
-      <c r="F350" t="s">
-        <v>29</v>
-      </c>
-      <c r="G350" t="n">
-        <v>3.602583</v>
-      </c>
-      <c r="H350" t="s">
-        <v>30</v>
-      </c>
-      <c r="I350" t="s">
-        <v>31</v>
-      </c>
-      <c r="J350" t="s">
-        <v>44</v>
-      </c>
-      <c r="K350" t="n">
-        <v>2.515963756</v>
-      </c>
-      <c r="L350" t="n">
-        <v>0.6120265030000001</v>
-      </c>
-      <c r="M350" t="n">
-        <v>339.170319</v>
-      </c>
-      <c r="N350" t="s">
-        <v>45</v>
-      </c>
-      <c r="O350" t="n">
-        <v>0.00128549</v>
-      </c>
-      <c r="P350" t="n">
-        <v>4.36e-07</v>
-      </c>
-      <c r="Q350" t="s">
-        <v>2939</v>
-      </c>
-      <c r="R350" t="s">
-        <v>2940</v>
-      </c>
-      <c r="S350" t="s">
-        <v>2941</v>
-      </c>
-      <c r="T350" t="s">
-        <v>258</v>
-      </c>
-      <c r="U350" t="s">
-        <v>2942</v>
-      </c>
-      <c r="V350" t="s">
-        <v>2940</v>
-      </c>
-      <c r="W350" t="n">
-        <v>338.1630426</v>
-      </c>
-      <c r="X350" t="s">
-        <v>2943</v>
-      </c>
-      <c r="Y350" t="s">
-        <v>2944</v>
-      </c>
-      <c r="Z350" t="n">
-        <v>216.15498</v>
-      </c>
-    </row>
-    <row r="351" spans="1:26">
-      <c r="A351" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B351" t="s">
-        <v>2945</v>
-      </c>
-      <c r="C351" t="s">
-        <v>2946</v>
-      </c>
-      <c r="D351" t="s">
-        <v>27</v>
-      </c>
-      <c r="E351" t="s">
-        <v>28</v>
-      </c>
-      <c r="F351" t="s">
-        <v>29</v>
-      </c>
-      <c r="G351" t="n">
-        <v>4.116467</v>
-      </c>
-      <c r="H351" t="s">
-        <v>30</v>
-      </c>
-      <c r="I351" t="s">
-        <v>31</v>
-      </c>
-      <c r="J351" t="s">
-        <v>44</v>
-      </c>
-      <c r="K351" t="n">
-        <v>1.537604959</v>
-      </c>
-      <c r="L351" t="n">
-        <v>0.567790419</v>
-      </c>
-      <c r="M351" t="n">
-        <v>305.1131981</v>
-      </c>
-      <c r="N351" t="s">
-        <v>45</v>
-      </c>
-      <c r="O351" t="n">
-        <v>0.001599406</v>
-      </c>
-      <c r="P351" t="n">
-        <v>4.88e-07</v>
-      </c>
-      <c r="Q351" t="s">
-        <v>2947</v>
-      </c>
-      <c r="R351" t="s">
-        <v>2948</v>
-      </c>
-      <c r="S351" t="s">
-        <v>2949</v>
-      </c>
-      <c r="T351" t="s">
-        <v>2950</v>
-      </c>
-      <c r="U351" t="s">
-        <v>2951</v>
-      </c>
-      <c r="V351" t="s">
-        <v>2948</v>
-      </c>
-      <c r="W351" t="n">
-        <v>304.1059216</v>
-      </c>
-      <c r="X351" t="s">
-        <v>2952</v>
-      </c>
-      <c r="Y351" t="s">
-        <v>2953</v>
-      </c>
-      <c r="Z351" t="n">
-        <v>246.98802</v>
-      </c>
-    </row>
-    <row r="352" spans="1:26">
-      <c r="A352" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B352" t="s">
-        <v>2954</v>
-      </c>
-      <c r="C352" t="s">
-        <v>2955</v>
-      </c>
-      <c r="D352" t="s">
-        <v>27</v>
-      </c>
-      <c r="E352" t="s">
-        <v>28</v>
-      </c>
-      <c r="F352" t="s">
-        <v>29</v>
-      </c>
-      <c r="G352" t="n">
-        <v>3.483517</v>
-      </c>
-      <c r="H352" t="s">
-        <v>30</v>
-      </c>
-      <c r="I352" t="s">
-        <v>31</v>
-      </c>
-      <c r="J352" t="s">
-        <v>44</v>
-      </c>
-      <c r="K352" t="n">
-        <v>0.410647951</v>
-      </c>
-      <c r="L352" t="n">
-        <v>0.255149918</v>
-      </c>
-      <c r="M352" t="n">
-        <v>169.0760247</v>
-      </c>
-      <c r="N352" t="s">
-        <v>45</v>
-      </c>
-      <c r="O352" t="n">
-        <v>0.002626038</v>
-      </c>
-      <c r="P352" t="n">
-        <v>4.44e-07</v>
-      </c>
-      <c r="Q352" t="s">
-        <v>2956</v>
-      </c>
-      <c r="R352" t="s">
-        <v>2957</v>
-      </c>
-      <c r="S352" t="s">
-        <v>2958</v>
-      </c>
-      <c r="T352" t="s">
-        <v>1975</v>
-      </c>
-      <c r="U352" t="s">
-        <v>2959</v>
-      </c>
-      <c r="V352" t="s">
-        <v>2957</v>
-      </c>
-      <c r="W352" t="n">
-        <v>168.0687483</v>
-      </c>
-      <c r="X352" t="s">
-        <v>2960</v>
-      </c>
-      <c r="Y352" t="s">
-        <v>2961</v>
-      </c>
-      <c r="Z352" t="n">
-        <v>209.01102</v>
-      </c>
-    </row>
-    <row r="353" spans="1:26">
-      <c r="A353" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B353" t="s">
-        <v>2962</v>
-      </c>
-      <c r="C353" t="s">
-        <v>2963</v>
-      </c>
-      <c r="D353" t="s">
-        <v>27</v>
-      </c>
-      <c r="E353" t="s">
-        <v>28</v>
-      </c>
-      <c r="F353" t="s">
-        <v>29</v>
-      </c>
-      <c r="G353" t="n">
-        <v>2.547517</v>
-      </c>
-      <c r="H353" t="s">
-        <v>30</v>
-      </c>
-      <c r="I353" t="s">
-        <v>31</v>
-      </c>
-      <c r="J353" t="s">
-        <v>44</v>
-      </c>
-      <c r="K353" t="n">
-        <v>1.182994284</v>
-      </c>
-      <c r="L353" t="n">
-        <v>0.448263958</v>
-      </c>
-      <c r="M353" t="n">
-        <v>189.1022395</v>
-      </c>
-      <c r="N353" t="s">
-        <v>45</v>
-      </c>
-      <c r="O353" t="n">
-        <v>0.00262292</v>
-      </c>
-      <c r="P353" t="n">
-        <v>4.96e-07</v>
-      </c>
-      <c r="Q353" t="s">
-        <v>2964</v>
-      </c>
-      <c r="R353" t="s">
-        <v>2965</v>
-      </c>
-      <c r="S353" t="s">
-        <v>2966</v>
-      </c>
-      <c r="T353" t="s">
-        <v>1110</v>
-      </c>
-      <c r="U353" t="s">
-        <v>2967</v>
-      </c>
-      <c r="V353" t="s">
-        <v>2965</v>
-      </c>
-      <c r="W353" t="n">
-        <v>188.094963</v>
-      </c>
-      <c r="X353" t="s">
-        <v>2968</v>
-      </c>
-      <c r="Y353" t="s">
-        <v>2969</v>
-      </c>
-      <c r="Z353" t="n">
-        <v>152.85102</v>
-      </c>
-    </row>
-    <row r="354" spans="1:26">
-      <c r="A354" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B354" t="s">
-        <v>2970</v>
-      </c>
-      <c r="C354" t="s">
-        <v>2971</v>
-      </c>
-      <c r="D354" t="s">
-        <v>27</v>
-      </c>
-      <c r="E354" t="s">
-        <v>28</v>
-      </c>
-      <c r="F354" t="s">
-        <v>29</v>
-      </c>
-      <c r="G354" t="n">
-        <v>4.177267</v>
-      </c>
-      <c r="H354" t="s">
-        <v>30</v>
-      </c>
-      <c r="I354" t="s">
-        <v>31</v>
-      </c>
-      <c r="J354" t="s">
-        <v>44</v>
-      </c>
-      <c r="K354" t="n">
-        <v>1.523691211</v>
-      </c>
-      <c r="L354" t="n">
-        <v>0.517480994</v>
-      </c>
-      <c r="M354" t="n">
-        <v>355.2016192</v>
-      </c>
-      <c r="N354" t="s">
-        <v>45</v>
-      </c>
-      <c r="O354" t="n">
-        <v>0.001430174</v>
-      </c>
-      <c r="P354" t="n">
-        <v>5.08e-07</v>
-      </c>
-      <c r="Q354" t="s">
-        <v>2972</v>
-      </c>
-      <c r="R354" t="s">
-        <v>2973</v>
-      </c>
-      <c r="S354" t="s">
-        <v>2974</v>
-      </c>
-      <c r="T354" t="s">
-        <v>1658</v>
-      </c>
-      <c r="U354" t="s">
-        <v>706</v>
-      </c>
-      <c r="V354" t="s">
-        <v>2973</v>
-      </c>
-      <c r="W354" t="n">
-        <v>354.1943427</v>
-      </c>
-      <c r="X354" t="s">
-        <v>2975</v>
-      </c>
-      <c r="Y354" t="s">
-        <v>2976</v>
-      </c>
-      <c r="Z354" t="n">
-        <v>250.636019999999</v>
-      </c>
-    </row>
-    <row r="355" spans="1:26">
-      <c r="A355" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B355" t="s">
-        <v>2977</v>
-      </c>
-      <c r="C355" t="s">
-        <v>2978</v>
-      </c>
-      <c r="D355" t="s">
-        <v>27</v>
-      </c>
-      <c r="E355" t="s">
-        <v>28</v>
-      </c>
-      <c r="F355" t="s">
-        <v>29</v>
-      </c>
-      <c r="G355" t="n">
-        <v>5.327617</v>
-      </c>
-      <c r="H355" t="s">
-        <v>30</v>
-      </c>
-      <c r="I355" t="s">
-        <v>31</v>
-      </c>
-      <c r="J355" t="s">
-        <v>44</v>
-      </c>
-      <c r="K355" t="n">
-        <v>3.569591044</v>
-      </c>
-      <c r="L355" t="n">
-        <v>0.768581095</v>
-      </c>
-      <c r="M355" t="n">
-        <v>595.2021322000001</v>
-      </c>
-      <c r="N355" t="s">
-        <v>45</v>
-      </c>
-      <c r="O355" t="n">
-        <v>0.000725804</v>
-      </c>
-      <c r="P355" t="n">
-        <v>4.32e-07</v>
-      </c>
-      <c r="Q355" t="s">
-        <v>2979</v>
-      </c>
-      <c r="R355" t="s">
-        <v>2980</v>
-      </c>
-      <c r="S355" t="s">
-        <v>2981</v>
-      </c>
-      <c r="T355" t="s">
-        <v>95</v>
-      </c>
-      <c r="U355" t="s">
-        <v>794</v>
-      </c>
-      <c r="V355" t="s">
-        <v>2980</v>
-      </c>
-      <c r="W355" t="n">
-        <v>594.1948558</v>
-      </c>
-      <c r="X355" t="s">
-        <v>2982</v>
-      </c>
-      <c r="Y355" t="s">
-        <v>2983</v>
-      </c>
-      <c r="Z355" t="n">
-        <v>319.65702</v>
-      </c>
-    </row>
-    <row r="356" spans="1:26">
-      <c r="A356" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B356" t="s">
-        <v>2984</v>
-      </c>
-      <c r="C356" t="s">
-        <v>2985</v>
-      </c>
-      <c r="D356" t="s">
-        <v>27</v>
-      </c>
-      <c r="E356" t="s">
-        <v>28</v>
-      </c>
-      <c r="F356" t="s">
-        <v>29</v>
-      </c>
-      <c r="G356" t="n">
-        <v>3.423867</v>
-      </c>
-      <c r="H356" t="s">
-        <v>30</v>
-      </c>
-      <c r="I356" t="s">
-        <v>31</v>
-      </c>
-      <c r="J356" t="s">
-        <v>44</v>
-      </c>
-      <c r="K356" t="n">
-        <v>1.433518</v>
-      </c>
-      <c r="L356" t="n">
-        <v>0.505968957</v>
-      </c>
-      <c r="M356" t="n">
-        <v>203.081504</v>
-      </c>
-      <c r="N356" t="s">
-        <v>45</v>
-      </c>
-      <c r="O356" t="n">
-        <v>0.002166618</v>
-      </c>
-      <c r="P356" t="n">
-        <v>4.4e-07</v>
-      </c>
-      <c r="Q356" t="s">
-        <v>2986</v>
-      </c>
-      <c r="R356" t="s">
-        <v>2987</v>
-      </c>
-      <c r="S356" t="s">
-        <v>2988</v>
-      </c>
-      <c r="T356" t="s">
-        <v>1110</v>
-      </c>
-      <c r="U356" t="s">
-        <v>2989</v>
-      </c>
-      <c r="V356" t="s">
-        <v>2990</v>
-      </c>
-      <c r="W356" t="n">
-        <v>202.0742276</v>
-      </c>
-      <c r="X356" t="s">
-        <v>2991</v>
-      </c>
-      <c r="Y356" t="s">
-        <v>2992</v>
-      </c>
-      <c r="Z356" t="n">
-        <v>205.43202</v>
-      </c>
-    </row>
-    <row r="357" spans="1:26">
-      <c r="A357" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B357" t="s">
-        <v>2993</v>
-      </c>
-      <c r="C357" t="s">
-        <v>2994</v>
-      </c>
-      <c r="D357" t="s">
-        <v>27</v>
-      </c>
-      <c r="E357" t="s">
-        <v>28</v>
-      </c>
-      <c r="F357" t="s">
-        <v>29</v>
-      </c>
-      <c r="G357" t="n">
-        <v>4.955133</v>
-      </c>
-      <c r="H357" t="s">
-        <v>30</v>
-      </c>
-      <c r="I357" t="s">
-        <v>31</v>
-      </c>
-      <c r="J357" t="s">
-        <v>44</v>
-      </c>
-      <c r="K357" t="n">
-        <v>2.160738494</v>
-      </c>
-      <c r="L357" t="n">
-        <v>0.6484411410000001</v>
-      </c>
-      <c r="M357" t="n">
-        <v>352.153786</v>
-      </c>
-      <c r="N357" t="s">
-        <v>342</v>
-      </c>
-      <c r="O357" t="n">
-        <v>6.87e-05</v>
-      </c>
-      <c r="P357" t="n">
-        <v>-2.42e-08</v>
-      </c>
-      <c r="Q357" t="s">
-        <v>2995</v>
-      </c>
-      <c r="R357" t="s">
-        <v>2996</v>
-      </c>
-      <c r="S357" t="s">
-        <v>2997</v>
-      </c>
-      <c r="T357" t="s">
-        <v>1388</v>
-      </c>
-      <c r="U357" t="s">
-        <v>2998</v>
-      </c>
-      <c r="V357" t="s">
-        <v>2996</v>
-      </c>
-      <c r="W357" t="n">
-        <v>352.1543346</v>
-      </c>
-      <c r="X357" t="s">
-        <v>2999</v>
-      </c>
-      <c r="Y357" t="s">
-        <v>3000</v>
-      </c>
-      <c r="Z357" t="n">
-        <v>297.30798</v>
-      </c>
-    </row>
-    <row r="358" spans="1:26">
-      <c r="A358" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B358" t="s">
-        <v>3001</v>
-      </c>
-      <c r="C358" t="s">
-        <v>3002</v>
-      </c>
-      <c r="D358" t="s">
-        <v>27</v>
-      </c>
-      <c r="E358" t="s">
-        <v>28</v>
-      </c>
-      <c r="F358" t="s">
-        <v>29</v>
-      </c>
-      <c r="G358" t="n">
-        <v>3.2257</v>
-      </c>
-      <c r="H358" t="s">
-        <v>30</v>
-      </c>
-      <c r="I358" t="s">
-        <v>31</v>
-      </c>
-      <c r="J358" t="s">
-        <v>44</v>
-      </c>
-      <c r="K358" t="n">
-        <v>1.011485507</v>
-      </c>
-      <c r="L358" t="n">
-        <v>0.357010004</v>
-      </c>
-      <c r="M358" t="n">
-        <v>352.175464</v>
-      </c>
-      <c r="N358" t="s">
-        <v>45</v>
-      </c>
-      <c r="O358" t="n">
-        <v>0.001362957</v>
-      </c>
-      <c r="P358" t="n">
-        <v>4.8e-07</v>
-      </c>
-      <c r="Q358" t="s">
-        <v>3003</v>
-      </c>
-      <c r="R358" t="s">
-        <v>3004</v>
-      </c>
-      <c r="S358" t="s">
-        <v>3005</v>
-      </c>
-      <c r="T358" t="s">
-        <v>1235</v>
-      </c>
-      <c r="U358" t="s">
-        <v>3006</v>
-      </c>
-      <c r="V358" t="s">
-        <v>3004</v>
-      </c>
-      <c r="W358" t="n">
-        <v>351.1681875</v>
-      </c>
-      <c r="X358" t="s">
-        <v>3007</v>
-      </c>
-      <c r="Y358" t="s">
-        <v>3008</v>
-      </c>
-      <c r="Z358" t="n">
-        <v>193.541999999999</v>
-      </c>
-    </row>
-    <row r="359" spans="1:26">
-      <c r="A359" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B359" t="s">
-        <v>3009</v>
-      </c>
-      <c r="C359" t="s">
-        <v>3010</v>
-      </c>
-      <c r="D359" t="s">
-        <v>27</v>
-      </c>
-      <c r="E359" t="s">
-        <v>28</v>
-      </c>
-      <c r="F359" t="s">
-        <v>29</v>
-      </c>
-      <c r="G359" t="n">
-        <v>4.880217</v>
-      </c>
-      <c r="H359" t="s">
-        <v>30</v>
-      </c>
-      <c r="I359" t="s">
-        <v>31</v>
-      </c>
-      <c r="J359" t="s">
-        <v>44</v>
-      </c>
-      <c r="K359" t="n">
-        <v>4.01517311</v>
-      </c>
-      <c r="L359" t="n">
-        <v>0.896777097</v>
-      </c>
-      <c r="M359" t="n">
-        <v>975.5159214</v>
-      </c>
-      <c r="N359" t="s">
-        <v>45</v>
-      </c>
-      <c r="O359" t="n">
-        <v>0.00051665</v>
-      </c>
-      <c r="P359" t="n">
-        <v>5.04e-07</v>
-      </c>
-      <c r="Q359" t="s">
-        <v>3011</v>
-      </c>
-      <c r="R359" t="s">
-        <v>3012</v>
-      </c>
-      <c r="S359" t="s">
-        <v>3013</v>
-      </c>
-      <c r="T359" t="s">
-        <v>166</v>
-      </c>
-      <c r="U359" t="s">
-        <v>3014</v>
-      </c>
-      <c r="V359" t="s">
-        <v>3012</v>
-      </c>
-      <c r="W359" t="n">
-        <v>974.5086449</v>
-      </c>
-      <c r="X359" t="s">
-        <v>3015</v>
-      </c>
-      <c r="Y359" t="s">
-        <v>3016</v>
-      </c>
-      <c r="Z359" t="n">
-        <v>292.81302</v>
-      </c>
-    </row>
-    <row r="360" spans="1:26">
-      <c r="A360" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B360" t="s">
-        <v>3017</v>
-      </c>
-      <c r="C360" t="s">
-        <v>3018</v>
-      </c>
-      <c r="D360" t="s">
-        <v>27</v>
-      </c>
-      <c r="E360" t="s">
-        <v>28</v>
-      </c>
-      <c r="F360" t="s">
-        <v>29</v>
-      </c>
-      <c r="G360" t="n">
-        <v>3.1538</v>
-      </c>
-      <c r="H360" t="s">
-        <v>30</v>
-      </c>
-      <c r="I360" t="s">
-        <v>31</v>
-      </c>
-      <c r="J360" t="s">
-        <v>44</v>
-      </c>
-      <c r="K360" t="n">
-        <v>0.987869245</v>
-      </c>
-      <c r="L360" t="n">
-        <v>0.475064687</v>
-      </c>
-      <c r="M360" t="n">
-        <v>276.15942</v>
-      </c>
-      <c r="N360" t="s">
-        <v>45</v>
-      </c>
-      <c r="O360" t="n">
-        <v>0.001694674</v>
-      </c>
-      <c r="P360" t="n">
-        <v>4.68e-07</v>
-      </c>
-      <c r="Q360" t="s">
-        <v>3019</v>
-      </c>
-      <c r="R360" t="s">
-        <v>3020</v>
-      </c>
-      <c r="S360" t="s">
-        <v>3021</v>
-      </c>
-      <c r="T360" t="s">
-        <v>1019</v>
-      </c>
-      <c r="U360" t="s">
-        <v>3022</v>
-      </c>
-      <c r="V360" t="s">
-        <v>3023</v>
-      </c>
-      <c r="W360" t="n">
-        <v>275.1521435</v>
-      </c>
-      <c r="X360" t="s">
-        <v>3024</v>
-      </c>
-      <c r="Y360" t="s">
-        <v>3025</v>
-      </c>
-      <c r="Z360" t="n">
-        <v>189.228</v>
-      </c>
-    </row>
-    <row r="361" spans="1:26">
-      <c r="A361" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B361" t="s">
-        <v>3026</v>
-      </c>
-      <c r="C361" t="s">
-        <v>3027</v>
-      </c>
-      <c r="D361" t="s">
-        <v>27</v>
-      </c>
-      <c r="E361" t="s">
-        <v>28</v>
-      </c>
-      <c r="F361" t="s">
-        <v>29</v>
-      </c>
-      <c r="G361" t="n">
-        <v>3.44245</v>
-      </c>
-      <c r="H361" t="s">
-        <v>30</v>
-      </c>
-      <c r="I361" t="s">
-        <v>31</v>
-      </c>
-      <c r="J361" t="s">
-        <v>44</v>
-      </c>
-      <c r="K361" t="n">
-        <v>2.396663023</v>
-      </c>
-      <c r="L361" t="n">
-        <v>0.719242476</v>
-      </c>
-      <c r="M361" t="n">
-        <v>357.1180087</v>
-      </c>
-      <c r="N361" t="s">
-        <v>45</v>
-      </c>
-      <c r="O361" t="n">
-        <v>0.001344094</v>
-      </c>
-      <c r="P361" t="n">
-        <v>4.8e-07</v>
-      </c>
-      <c r="Q361" t="s">
-        <v>3028</v>
-      </c>
-      <c r="R361" t="s">
-        <v>3029</v>
-      </c>
-      <c r="S361" t="s">
-        <v>3030</v>
-      </c>
-      <c r="T361" t="s">
-        <v>1633</v>
-      </c>
-      <c r="U361" t="s">
-        <v>3031</v>
-      </c>
-      <c r="V361" t="s">
-        <v>3029</v>
-      </c>
-      <c r="W361" t="n">
-        <v>356.1107322</v>
-      </c>
-      <c r="X361" t="s">
-        <v>3032</v>
-      </c>
-      <c r="Y361" t="s">
-        <v>3033</v>
-      </c>
-      <c r="Z361" t="n">
-        <v>206.547</v>
-      </c>
-    </row>
-    <row r="362" spans="1:26">
-      <c r="A362" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B362" t="s">
-        <v>3034</v>
-      </c>
-      <c r="C362" t="s">
-        <v>3035</v>
-      </c>
-      <c r="D362" t="s">
-        <v>27</v>
-      </c>
-      <c r="E362" t="s">
-        <v>28</v>
-      </c>
-      <c r="F362" t="s">
-        <v>29</v>
-      </c>
-      <c r="G362" t="n">
-        <v>3.56425</v>
-      </c>
-      <c r="H362" t="s">
-        <v>30</v>
-      </c>
-      <c r="I362" t="s">
-        <v>31</v>
-      </c>
-      <c r="J362" t="s">
-        <v>32</v>
-      </c>
-      <c r="K362" t="n">
-        <v>0.608723301</v>
-      </c>
-      <c r="L362" t="n">
-        <v>0.439101044</v>
-      </c>
-      <c r="M362" t="n">
-        <v>231.0757051</v>
-      </c>
-      <c r="N362" t="s">
-        <v>402</v>
-      </c>
-      <c r="O362" t="n">
-        <v>499998.8118</v>
-      </c>
-      <c r="P362" t="n">
-        <v>115.537578</v>
-      </c>
-      <c r="Q362" t="s">
-        <v>3036</v>
-      </c>
-      <c r="R362" t="s">
-        <v>3037</v>
-      </c>
-      <c r="S362" t="s">
-        <v>3038</v>
-      </c>
-      <c r="T362" t="s">
-        <v>2137</v>
-      </c>
-      <c r="U362" t="s">
-        <v>3039</v>
-      </c>
-      <c r="V362" t="s">
-        <v>3040</v>
-      </c>
-      <c r="W362" t="n">
-        <v>233.0908062</v>
-      </c>
-      <c r="X362" t="s">
-        <v>3041</v>
-      </c>
-      <c r="Y362" t="s">
-        <v>3042</v>
-      </c>
-      <c r="Z362" t="n">
-        <v>213.855</v>
-      </c>
-    </row>
-    <row r="363" spans="1:26">
-      <c r="A363" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B363" t="s">
-        <v>3043</v>
-      </c>
-      <c r="C363" t="s">
-        <v>3044</v>
-      </c>
-      <c r="D363" t="s">
-        <v>27</v>
-      </c>
-      <c r="E363" t="s">
-        <v>28</v>
-      </c>
-      <c r="F363" t="s">
-        <v>29</v>
-      </c>
-      <c r="G363" t="n">
-        <v>5.6079</v>
-      </c>
-      <c r="H363" t="s">
-        <v>30</v>
-      </c>
-      <c r="I363" t="s">
-        <v>31</v>
-      </c>
-      <c r="J363" t="s">
-        <v>44</v>
-      </c>
-      <c r="K363" t="n">
-        <v>1.725151635</v>
-      </c>
-      <c r="L363" t="n">
-        <v>0.653699946</v>
-      </c>
-      <c r="M363" t="n">
-        <v>275.1390189</v>
-      </c>
-      <c r="N363" t="s">
-        <v>45</v>
-      </c>
-      <c r="O363" t="n">
-        <v>0.00168642</v>
-      </c>
-      <c r="P363" t="n">
-        <v>4.64e-07</v>
-      </c>
-      <c r="Q363" t="s">
-        <v>3045</v>
-      </c>
-      <c r="R363" t="s">
-        <v>3046</v>
-      </c>
-      <c r="S363" t="s">
-        <v>3047</v>
-      </c>
-      <c r="T363" t="s">
-        <v>3048</v>
-      </c>
-      <c r="U363" t="s">
-        <v>3049</v>
-      </c>
-      <c r="V363" t="s">
-        <v>3046</v>
-      </c>
-      <c r="W363" t="n">
-        <v>274.1317424</v>
-      </c>
-      <c r="X363" t="s">
-        <v>3050</v>
-      </c>
-      <c r="Y363" t="s">
-        <v>3051</v>
-      </c>
-      <c r="Z363" t="n">
-        <v>336.474</v>
-      </c>
-    </row>
-    <row r="364" spans="1:26">
-      <c r="A364" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B364" t="s">
-        <v>3052</v>
-      </c>
-      <c r="C364" t="s">
-        <v>3053</v>
-      </c>
-      <c r="D364" t="s">
-        <v>27</v>
-      </c>
-      <c r="E364" t="s">
-        <v>28</v>
-      </c>
-      <c r="F364" t="s">
-        <v>29</v>
-      </c>
-      <c r="G364" t="n">
-        <v>3.694117</v>
-      </c>
-      <c r="H364" t="s">
-        <v>30</v>
-      </c>
-      <c r="I364" t="s">
-        <v>31</v>
-      </c>
-      <c r="J364" t="s">
-        <v>44</v>
-      </c>
-      <c r="K364" t="n">
-        <v>0.565622115</v>
-      </c>
-      <c r="L364" t="n">
-        <v>0.290672267</v>
-      </c>
-      <c r="M364" t="n">
-        <v>183.0916748</v>
-      </c>
-      <c r="N364" t="s">
-        <v>45</v>
-      </c>
-      <c r="O364" t="n">
-        <v>0.002621638</v>
-      </c>
-      <c r="P364" t="n">
-        <v>4.8e-07</v>
-      </c>
-      <c r="Q364" t="s">
-        <v>3054</v>
-      </c>
-      <c r="R364" t="s">
-        <v>3055</v>
-      </c>
-      <c r="S364" t="s">
-        <v>3056</v>
-      </c>
-      <c r="T364" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U364" t="s">
-        <v>3057</v>
-      </c>
-      <c r="V364" t="s">
-        <v>3055</v>
-      </c>
-      <c r="W364" t="n">
-        <v>182.0843983</v>
-      </c>
-      <c r="X364" t="s">
-        <v>3058</v>
-      </c>
-      <c r="Y364" t="s">
-        <v>3059</v>
-      </c>
-      <c r="Z364" t="n">
-        <v>221.64702</v>
-      </c>
-    </row>
-    <row r="365" spans="1:26">
-      <c r="A365" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B365" t="s">
-        <v>3060</v>
-      </c>
-      <c r="C365" t="s">
-        <v>3061</v>
-      </c>
-      <c r="D365" t="s">
-        <v>27</v>
-      </c>
-      <c r="E365" t="s">
-        <v>28</v>
-      </c>
-      <c r="F365" t="s">
-        <v>29</v>
-      </c>
-      <c r="G365" t="n">
-        <v>3.121167</v>
-      </c>
-      <c r="H365" t="s">
-        <v>30</v>
-      </c>
-      <c r="I365" t="s">
-        <v>31</v>
-      </c>
-      <c r="J365" t="s">
-        <v>44</v>
-      </c>
-      <c r="K365" t="n">
-        <v>1.2891994</v>
-      </c>
-      <c r="L365" t="n">
-        <v>0.586739932</v>
-      </c>
-      <c r="M365" t="n">
-        <v>463.123488</v>
-      </c>
-      <c r="N365" t="s">
-        <v>45</v>
-      </c>
-      <c r="O365" t="n">
-        <v>0.001027804</v>
-      </c>
-      <c r="P365" t="n">
-        <v>4.76e-07</v>
-      </c>
-      <c r="Q365" t="s">
-        <v>3062</v>
-      </c>
-      <c r="R365" t="s">
-        <v>3063</v>
-      </c>
-      <c r="S365" t="s">
-        <v>3064</v>
-      </c>
-      <c r="T365" t="s">
-        <v>406</v>
-      </c>
-      <c r="U365" t="s">
-        <v>3065</v>
-      </c>
-      <c r="V365" t="s">
-        <v>3063</v>
-      </c>
-      <c r="W365" t="n">
-        <v>462.1162115</v>
-      </c>
-      <c r="X365" t="s">
-        <v>3066</v>
-      </c>
-      <c r="Y365" t="s">
-        <v>3067</v>
-      </c>
-      <c r="Z365" t="n">
-        <v>187.27002</v>
-      </c>
-    </row>
-    <row r="366" spans="1:26">
-      <c r="A366" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B366" t="s">
-        <v>3068</v>
-      </c>
-      <c r="C366" t="s">
-        <v>3069</v>
-      </c>
-      <c r="D366" t="s">
-        <v>27</v>
-      </c>
-      <c r="E366" t="s">
-        <v>28</v>
-      </c>
-      <c r="F366" t="s">
-        <v>29</v>
-      </c>
-      <c r="G366" t="n">
-        <v>4.083034</v>
-      </c>
-      <c r="H366" t="s">
-        <v>30</v>
-      </c>
-      <c r="I366" t="s">
-        <v>31</v>
-      </c>
-      <c r="J366" t="s">
-        <v>44</v>
-      </c>
-      <c r="K366" t="n">
-        <v>1.744325527</v>
-      </c>
-      <c r="L366" t="n">
-        <v>0.582270166</v>
-      </c>
-      <c r="M366" t="n">
-        <v>419.1336587</v>
-      </c>
-      <c r="N366" t="s">
-        <v>45</v>
-      </c>
-      <c r="O366" t="n">
-        <v>0.0009925240000000001</v>
-      </c>
-      <c r="P366" t="n">
-        <v>4.16e-07</v>
-      </c>
-      <c r="Q366" t="s">
-        <v>3070</v>
-      </c>
-      <c r="R366" t="s">
-        <v>3071</v>
-      </c>
-      <c r="S366" t="s">
-        <v>3072</v>
-      </c>
-      <c r="T366" t="s">
-        <v>793</v>
-      </c>
-      <c r="U366" t="s">
-        <v>3073</v>
-      </c>
-      <c r="V366" t="s">
-        <v>3071</v>
-      </c>
-      <c r="W366" t="n">
-        <v>418.1263823</v>
-      </c>
-      <c r="X366" t="s">
-        <v>3074</v>
-      </c>
-      <c r="Y366" t="s">
-        <v>3075</v>
-      </c>
-      <c r="Z366" t="n">
-        <v>244.982039999999</v>
-      </c>
-    </row>
-    <row r="367" spans="1:26">
-      <c r="A367" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B367" t="s">
-        <v>3076</v>
-      </c>
-      <c r="C367" t="s">
-        <v>3077</v>
-      </c>
-      <c r="D367" t="s">
-        <v>27</v>
-      </c>
-      <c r="E367" t="s">
-        <v>28</v>
-      </c>
-      <c r="F367" t="s">
-        <v>29</v>
-      </c>
-      <c r="G367" t="n">
-        <v>2.852133</v>
-      </c>
-      <c r="H367" t="s">
-        <v>30</v>
-      </c>
-      <c r="I367" t="s">
-        <v>31</v>
-      </c>
-      <c r="J367" t="s">
-        <v>44</v>
-      </c>
-      <c r="K367" t="n">
-        <v>1.010339502</v>
-      </c>
-      <c r="L367" t="n">
-        <v>0.485870596</v>
-      </c>
-      <c r="M367" t="n">
-        <v>449.1072893</v>
-      </c>
-      <c r="N367" t="s">
-        <v>342</v>
-      </c>
-      <c r="O367" t="n">
-        <v>7.169999999999999e-05</v>
-      </c>
-      <c r="P367" t="n">
-        <v>-3.22e-08</v>
-      </c>
-      <c r="Q367" t="s">
-        <v>3078</v>
-      </c>
-      <c r="R367" t="s">
-        <v>3079</v>
-      </c>
-      <c r="S367" t="s">
-        <v>3080</v>
-      </c>
-      <c r="T367" t="s">
-        <v>406</v>
-      </c>
-      <c r="U367" t="s">
-        <v>3081</v>
-      </c>
-      <c r="V367" t="s">
-        <v>3079</v>
-      </c>
-      <c r="W367" t="n">
-        <v>449.1078379</v>
-      </c>
-      <c r="X367" t="s">
-        <v>3082</v>
-      </c>
-      <c r="Y367" t="s">
-        <v>3083</v>
-      </c>
-      <c r="Z367" t="n">
-        <v>171.127979999999</v>
-      </c>
-    </row>
-    <row r="368" spans="1:26">
-      <c r="A368" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B368" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C368" t="s">
-        <v>3085</v>
-      </c>
-      <c r="D368" t="s">
-        <v>27</v>
-      </c>
-      <c r="E368" t="s">
-        <v>28</v>
-      </c>
-      <c r="F368" t="s">
-        <v>29</v>
-      </c>
-      <c r="G368" t="n">
-        <v>2.37115</v>
-      </c>
-      <c r="H368" t="s">
-        <v>30</v>
-      </c>
-      <c r="I368" t="s">
-        <v>31</v>
-      </c>
-      <c r="J368" t="s">
-        <v>44</v>
-      </c>
-      <c r="K368" t="n">
-        <v>2.123112821</v>
-      </c>
-      <c r="L368" t="n">
-        <v>0.637149615</v>
-      </c>
-      <c r="M368" t="n">
-        <v>254.1651741</v>
-      </c>
-      <c r="N368" t="s">
-        <v>45</v>
-      </c>
-      <c r="O368" t="n">
-        <v>0.001935749</v>
-      </c>
-      <c r="P368" t="n">
-        <v>4.92e-07</v>
-      </c>
-      <c r="Q368" t="s">
-        <v>3086</v>
-      </c>
-      <c r="R368" t="s">
-        <v>3087</v>
-      </c>
-      <c r="S368" t="s">
-        <v>3088</v>
-      </c>
-      <c r="T368" t="s">
-        <v>3089</v>
-      </c>
-      <c r="U368" t="s">
-        <v>3090</v>
-      </c>
-      <c r="V368" t="s">
-        <v>3091</v>
-      </c>
-      <c r="W368" t="n">
-        <v>253.1578976</v>
-      </c>
-      <c r="X368" t="s">
-        <v>3092</v>
-      </c>
-      <c r="Y368" t="s">
-        <v>3093</v>
-      </c>
-      <c r="Z368" t="n">
-        <v>142.269</v>
-      </c>
-    </row>
-    <row r="369" spans="1:26">
-      <c r="A369" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B369" t="s">
-        <v>3094</v>
-      </c>
-      <c r="C369" t="s">
-        <v>3095</v>
-      </c>
-      <c r="D369" t="s">
-        <v>27</v>
-      </c>
-      <c r="E369" t="s">
-        <v>28</v>
-      </c>
-      <c r="F369" t="s">
-        <v>29</v>
-      </c>
-      <c r="G369" t="n">
-        <v>4.8644</v>
-      </c>
-      <c r="H369" t="s">
-        <v>30</v>
-      </c>
-      <c r="I369" t="s">
-        <v>31</v>
-      </c>
-      <c r="J369" t="s">
-        <v>44</v>
-      </c>
-      <c r="K369" t="n">
-        <v>1.614493922</v>
-      </c>
-      <c r="L369" t="n">
-        <v>0.5223137329999999</v>
-      </c>
-      <c r="M369" t="n">
-        <v>370.2012848</v>
-      </c>
-      <c r="N369" t="s">
-        <v>45</v>
-      </c>
-      <c r="O369" t="n">
-        <v>0.001231762</v>
-      </c>
-      <c r="P369" t="n">
-        <v>4.56e-07</v>
-      </c>
-      <c r="Q369" t="s">
-        <v>3096</v>
-      </c>
-      <c r="R369" t="s">
-        <v>3097</v>
-      </c>
-      <c r="S369" t="s">
-        <v>3098</v>
-      </c>
-      <c r="T369" t="s">
-        <v>1388</v>
-      </c>
-      <c r="U369" t="s">
-        <v>3099</v>
-      </c>
-      <c r="V369" t="s">
-        <v>3097</v>
-      </c>
-      <c r="W369" t="n">
-        <v>369.1940083</v>
-      </c>
-      <c r="X369" t="s">
-        <v>3100</v>
-      </c>
-      <c r="Y369" t="s">
-        <v>3101</v>
-      </c>
-      <c r="Z369" t="n">
-        <v>291.864</v>
-      </c>
-    </row>
-    <row r="370" spans="1:26">
-      <c r="A370" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B370" t="s">
-        <v>3102</v>
-      </c>
-      <c r="C370" t="s">
-        <v>3103</v>
-      </c>
-      <c r="D370" t="s">
-        <v>27</v>
-      </c>
-      <c r="E370" t="s">
-        <v>28</v>
-      </c>
-      <c r="F370" t="s">
-        <v>29</v>
-      </c>
-      <c r="G370" t="n">
-        <v>4.393083</v>
-      </c>
-      <c r="H370" t="s">
-        <v>30</v>
-      </c>
-      <c r="I370" t="s">
-        <v>31</v>
-      </c>
-      <c r="J370" t="s">
-        <v>44</v>
-      </c>
-      <c r="K370" t="n">
-        <v>1.460562272</v>
-      </c>
-      <c r="L370" t="n">
-        <v>0.487547664</v>
-      </c>
-      <c r="M370" t="n">
-        <v>479.1184026</v>
-      </c>
-      <c r="N370" t="s">
-        <v>45</v>
-      </c>
-      <c r="O370" t="n">
-        <v>0.000951748</v>
-      </c>
-      <c r="P370" t="n">
-        <v>4.56e-07</v>
-      </c>
-      <c r="Q370" t="s">
-        <v>3104</v>
-      </c>
-      <c r="R370" t="s">
-        <v>3105</v>
-      </c>
-      <c r="S370" t="s">
-        <v>3106</v>
-      </c>
-      <c r="T370" t="s">
-        <v>37</v>
-      </c>
-      <c r="U370" t="s">
-        <v>3107</v>
-      </c>
-      <c r="V370" t="s">
-        <v>3105</v>
-      </c>
-      <c r="W370" t="n">
-        <v>478.1111261</v>
-      </c>
-      <c r="X370" t="s">
-        <v>3108</v>
-      </c>
-      <c r="Y370" t="s">
-        <v>3109</v>
-      </c>
-      <c r="Z370" t="n">
-        <v>263.58498</v>
-      </c>
-    </row>
-    <row r="371" spans="1:26">
-      <c r="A371" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B371" t="s">
-        <v>3110</v>
-      </c>
-      <c r="C371" t="s">
-        <v>3111</v>
-      </c>
-      <c r="D371" t="s">
-        <v>27</v>
-      </c>
-      <c r="E371" t="s">
-        <v>28</v>
-      </c>
-      <c r="F371" t="s">
-        <v>29</v>
-      </c>
-      <c r="G371" t="n">
-        <v>5.965333</v>
-      </c>
-      <c r="H371" t="s">
-        <v>30</v>
-      </c>
-      <c r="I371" t="s">
-        <v>31</v>
-      </c>
-      <c r="J371" t="s">
-        <v>44</v>
-      </c>
-      <c r="K371" t="n">
-        <v>0.994237693</v>
-      </c>
-      <c r="L371" t="n">
-        <v>0.400110681</v>
-      </c>
-      <c r="M371" t="n">
-        <v>646.3221878000001</v>
-      </c>
-      <c r="N371" t="s">
-        <v>45</v>
-      </c>
-      <c r="O371" t="n">
-        <v>0.000736475</v>
-      </c>
-      <c r="P371" t="n">
-        <v>4.76e-07</v>
-      </c>
-      <c r="Q371" t="s">
-        <v>3112</v>
-      </c>
-      <c r="R371" t="s">
-        <v>3113</v>
-      </c>
-      <c r="S371" t="s">
-        <v>3114</v>
-      </c>
-      <c r="T371" t="s">
-        <v>480</v>
-      </c>
-      <c r="U371" t="s">
-        <v>3115</v>
-      </c>
-      <c r="V371" t="s">
-        <v>3116</v>
-      </c>
-      <c r="W371" t="n">
-        <v>645.3149112999999</v>
-      </c>
-      <c r="X371" t="s">
-        <v>3117</v>
-      </c>
-      <c r="Y371" t="s">
-        <v>3118</v>
-      </c>
-      <c r="Z371" t="n">
-        <v>357.91998</v>
-      </c>
-    </row>
-    <row r="372" spans="1:26">
-      <c r="A372" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B372" t="s">
-        <v>3119</v>
-      </c>
-      <c r="C372" t="s">
-        <v>3120</v>
-      </c>
-      <c r="D372" t="s">
-        <v>27</v>
-      </c>
-      <c r="E372" t="s">
-        <v>28</v>
-      </c>
-      <c r="F372" t="s">
-        <v>29</v>
-      </c>
-      <c r="G372" t="n">
-        <v>2.693717</v>
-      </c>
-      <c r="H372" t="s">
-        <v>30</v>
-      </c>
-      <c r="I372" t="s">
-        <v>31</v>
-      </c>
-      <c r="J372" t="s">
-        <v>44</v>
-      </c>
-      <c r="K372" t="n">
-        <v>2.028672764</v>
-      </c>
-      <c r="L372" t="n">
-        <v>0.716032475</v>
-      </c>
-      <c r="M372" t="n">
-        <v>301.0601171</v>
-      </c>
-      <c r="N372" t="s">
-        <v>45</v>
-      </c>
-      <c r="O372" t="n">
-        <v>0.002046103</v>
-      </c>
-      <c r="P372" t="n">
-        <v>6.16e-07</v>
-      </c>
-      <c r="Q372" t="s">
-        <v>3121</v>
-      </c>
-      <c r="R372" t="s">
-        <v>3122</v>
-      </c>
-      <c r="S372" t="s">
-        <v>3123</v>
-      </c>
-      <c r="T372" t="s">
-        <v>1269</v>
-      </c>
-      <c r="U372" t="s">
-        <v>3124</v>
-      </c>
-      <c r="V372" t="s">
-        <v>3125</v>
-      </c>
-      <c r="W372" t="n">
-        <v>300.0528405</v>
-      </c>
-      <c r="X372" t="s">
-        <v>3126</v>
-      </c>
-      <c r="Y372" t="s">
-        <v>3127</v>
-      </c>
-      <c r="Z372" t="n">
-        <v>161.62302</v>
-      </c>
-    </row>
-    <row r="373" spans="1:26">
-      <c r="A373" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B373" t="s">
-        <v>3128</v>
-      </c>
-      <c r="C373" t="s">
-        <v>3129</v>
-      </c>
-      <c r="D373" t="s">
-        <v>27</v>
-      </c>
-      <c r="E373" t="s">
-        <v>28</v>
-      </c>
-      <c r="F373" t="s">
-        <v>29</v>
-      </c>
-      <c r="G373" t="n">
-        <v>2.923533</v>
-      </c>
-      <c r="H373" t="s">
-        <v>30</v>
-      </c>
-      <c r="I373" t="s">
-        <v>31</v>
-      </c>
-      <c r="J373" t="s">
-        <v>44</v>
-      </c>
-      <c r="K373" t="n">
-        <v>2.5777424</v>
-      </c>
-      <c r="L373" t="n">
-        <v>0.615263681</v>
-      </c>
-      <c r="M373" t="n">
-        <v>243.1491897</v>
-      </c>
-      <c r="N373" t="s">
-        <v>45</v>
-      </c>
-      <c r="O373" t="n">
-        <v>0.002072802</v>
-      </c>
-      <c r="P373" t="n">
-        <v>5.04e-07</v>
-      </c>
-      <c r="Q373" t="s">
-        <v>3130</v>
-      </c>
-      <c r="R373" t="s">
-        <v>3131</v>
-      </c>
-      <c r="S373" t="s">
-        <v>3132</v>
-      </c>
-      <c r="T373" t="s">
-        <v>3133</v>
-      </c>
-      <c r="U373" t="s">
-        <v>3134</v>
-      </c>
-      <c r="V373" t="s">
-        <v>3131</v>
-      </c>
-      <c r="W373" t="n">
-        <v>242.1419132</v>
-      </c>
-      <c r="X373" t="s">
-        <v>3135</v>
-      </c>
-      <c r="Y373" t="s">
-        <v>3136</v>
-      </c>
-      <c r="Z373" t="n">
-        <v>175.41198</v>
-      </c>
-    </row>
-    <row r="374" spans="1:26">
-      <c r="A374" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B374" t="s">
-        <v>3137</v>
-      </c>
-      <c r="C374" t="s">
-        <v>3138</v>
-      </c>
-      <c r="D374" t="s">
-        <v>27</v>
-      </c>
-      <c r="E374" t="s">
-        <v>28</v>
-      </c>
-      <c r="F374" t="s">
-        <v>29</v>
-      </c>
-      <c r="G374" t="n">
-        <v>2.871783</v>
-      </c>
-      <c r="H374" t="s">
-        <v>30</v>
-      </c>
-      <c r="I374" t="s">
-        <v>31</v>
-      </c>
-      <c r="J374" t="s">
-        <v>32</v>
-      </c>
-      <c r="K374" t="n">
-        <v>1.072395373</v>
-      </c>
-      <c r="L374" t="n">
-        <v>0.465735393</v>
-      </c>
-      <c r="M374" t="n">
-        <v>339.0721556</v>
-      </c>
-      <c r="N374" t="s">
-        <v>33</v>
-      </c>
-      <c r="O374" t="n">
-        <v>0.001309957</v>
-      </c>
-      <c r="P374" t="n">
-        <v>-4.44e-07</v>
-      </c>
-      <c r="Q374" t="s">
-        <v>3139</v>
-      </c>
-      <c r="R374" t="s">
-        <v>3140</v>
-      </c>
-      <c r="S374" t="s">
-        <v>3141</v>
-      </c>
-      <c r="T374" t="s">
-        <v>3142</v>
-      </c>
-      <c r="U374" t="s">
-        <v>3143</v>
-      </c>
-      <c r="V374" t="s">
-        <v>3144</v>
-      </c>
-      <c r="W374" t="n">
-        <v>340.0794321</v>
-      </c>
-      <c r="X374" t="s">
-        <v>3145</v>
-      </c>
-      <c r="Y374" t="s">
-        <v>3146</v>
-      </c>
-      <c r="Z374" t="n">
-        <v>172.30698</v>
-      </c>
-    </row>
-    <row r="375" spans="1:26">
-      <c r="A375" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B375" t="s">
-        <v>3147</v>
-      </c>
-      <c r="C375" t="s">
-        <v>3148</v>
-      </c>
-      <c r="D375" t="s">
-        <v>27</v>
-      </c>
-      <c r="E375" t="s">
-        <v>28</v>
-      </c>
-      <c r="F375" t="s">
-        <v>29</v>
-      </c>
-      <c r="G375" t="n">
-        <v>3.591883</v>
-      </c>
-      <c r="H375" t="s">
-        <v>30</v>
-      </c>
-      <c r="I375" t="s">
-        <v>31</v>
-      </c>
-      <c r="J375" t="s">
-        <v>44</v>
-      </c>
-      <c r="K375" t="n">
-        <v>3.385770996</v>
-      </c>
-      <c r="L375" t="n">
-        <v>0.721705378</v>
-      </c>
-      <c r="M375" t="n">
-        <v>449.1078379</v>
-      </c>
-      <c r="N375" t="s">
-        <v>45</v>
-      </c>
-      <c r="O375" t="n">
-        <v>0.0009797199999999999</v>
-      </c>
-      <c r="P375" t="n">
-        <v>4.4e-07</v>
-      </c>
-      <c r="Q375" t="s">
-        <v>3149</v>
-      </c>
-      <c r="R375" t="s">
-        <v>593</v>
-      </c>
-      <c r="S375" t="s">
-        <v>594</v>
-      </c>
-      <c r="T375" t="s">
-        <v>318</v>
-      </c>
-      <c r="U375" t="s">
-        <v>595</v>
-      </c>
-      <c r="V375" t="s">
-        <v>593</v>
-      </c>
-      <c r="W375" t="n">
-        <v>448.1005615</v>
-      </c>
-      <c r="X375" t="s">
-        <v>596</v>
-      </c>
-      <c r="Y375" t="s">
-        <v>597</v>
-      </c>
-      <c r="Z375" t="n">
-        <v>215.51298</v>
-      </c>
-    </row>
-    <row r="376" spans="1:26">
-      <c r="A376" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B376" t="s">
-        <v>3150</v>
-      </c>
-      <c r="C376" t="s">
-        <v>3151</v>
-      </c>
-      <c r="D376" t="s">
-        <v>27</v>
-      </c>
-      <c r="E376" t="s">
-        <v>28</v>
-      </c>
-      <c r="F376" t="s">
-        <v>29</v>
-      </c>
-      <c r="G376" t="n">
-        <v>3.664383</v>
-      </c>
-      <c r="H376" t="s">
-        <v>30</v>
-      </c>
-      <c r="I376" t="s">
-        <v>31</v>
-      </c>
-      <c r="J376" t="s">
-        <v>32</v>
-      </c>
-      <c r="K376" t="n">
-        <v>1.815877657</v>
-      </c>
-      <c r="L376" t="n">
-        <v>0.55734311</v>
-      </c>
-      <c r="M376" t="n">
-        <v>685.2713089</v>
-      </c>
-      <c r="N376" t="s">
-        <v>33</v>
-      </c>
-      <c r="O376" t="n">
-        <v>0.0006481669999999999</v>
-      </c>
-      <c r="P376" t="n">
-        <v>-4.44e-07</v>
-      </c>
-      <c r="Q376" t="s">
-        <v>3152</v>
-      </c>
-      <c r="R376" t="s">
-        <v>1404</v>
-      </c>
-      <c r="S376" t="s">
-        <v>1405</v>
-      </c>
-      <c r="T376" t="s">
-        <v>1406</v>
-      </c>
-      <c r="U376" t="s">
-        <v>1407</v>
-      </c>
-      <c r="V376" t="s">
-        <v>1408</v>
-      </c>
-      <c r="W376" t="n">
-        <v>686.2785854</v>
-      </c>
-      <c r="X376" t="s">
-        <v>1409</v>
-      </c>
-      <c r="Y376" t="s">
-        <v>1410</v>
-      </c>
-      <c r="Z376" t="n">
-        <v>219.86298</v>
-      </c>
-    </row>
-    <row r="377" spans="1:26">
-      <c r="A377" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B377" t="s">
-        <v>3153</v>
-      </c>
-      <c r="C377" t="s">
-        <v>3154</v>
-      </c>
-      <c r="D377" t="s">
-        <v>27</v>
-      </c>
-      <c r="E377" t="s">
-        <v>28</v>
-      </c>
-      <c r="F377" t="s">
-        <v>29</v>
-      </c>
-      <c r="G377" t="n">
-        <v>3.1463</v>
-      </c>
-      <c r="H377" t="s">
-        <v>30</v>
-      </c>
-      <c r="I377" t="s">
-        <v>31</v>
-      </c>
-      <c r="J377" t="s">
-        <v>44</v>
-      </c>
-      <c r="K377" t="n">
-        <v>1.631849117</v>
-      </c>
-      <c r="L377" t="n">
-        <v>0.455376167</v>
-      </c>
-      <c r="M377" t="n">
-        <v>295.1804898</v>
-      </c>
-      <c r="N377" t="s">
-        <v>45</v>
-      </c>
-      <c r="O377" t="n">
-        <v>0.001612573</v>
-      </c>
-      <c r="P377" t="n">
-        <v>4.76e-07</v>
-      </c>
-      <c r="Q377" t="s">
-        <v>3155</v>
-      </c>
-      <c r="R377" t="s">
-        <v>3156</v>
-      </c>
-      <c r="S377" t="s">
-        <v>1749</v>
-      </c>
-      <c r="T377" t="s">
-        <v>1750</v>
-      </c>
-      <c r="U377" t="s">
-        <v>914</v>
-      </c>
-      <c r="V377" t="s">
-        <v>3157</v>
-      </c>
-      <c r="W377" t="n">
-        <v>294.1732133</v>
-      </c>
-      <c r="X377" t="s">
-        <v>3158</v>
-      </c>
-      <c r="Y377" t="s">
-        <v>3159</v>
-      </c>
-      <c r="Z377" t="n">
-        <v>188.778</v>
-      </c>
-    </row>
-    <row r="378" spans="1:26">
-      <c r="A378" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B378" t="s">
-        <v>3160</v>
-      </c>
-      <c r="C378" t="s">
-        <v>3161</v>
-      </c>
-      <c r="D378" t="s">
-        <v>27</v>
-      </c>
-      <c r="E378" t="s">
-        <v>28</v>
-      </c>
-      <c r="F378" t="s">
-        <v>29</v>
-      </c>
-      <c r="G378" t="n">
-        <v>4.366183</v>
-      </c>
-      <c r="H378" t="s">
-        <v>30</v>
-      </c>
-      <c r="I378" t="s">
-        <v>31</v>
-      </c>
-      <c r="J378" t="s">
-        <v>44</v>
-      </c>
-      <c r="K378" t="n">
-        <v>1.593463651</v>
-      </c>
-      <c r="L378" t="n">
-        <v>0.621245658</v>
-      </c>
-      <c r="M378" t="n">
-        <v>449.1078379</v>
-      </c>
-      <c r="N378" t="s">
-        <v>45</v>
-      </c>
-      <c r="O378" t="n">
-        <v>0.0009797199999999999</v>
-      </c>
-      <c r="P378" t="n">
-        <v>4.4e-07</v>
-      </c>
-      <c r="Q378" t="s">
-        <v>3162</v>
-      </c>
-      <c r="R378" t="s">
-        <v>3163</v>
-      </c>
-      <c r="S378" t="s">
-        <v>3164</v>
-      </c>
-      <c r="T378" t="s">
-        <v>37</v>
-      </c>
-      <c r="U378" t="s">
-        <v>595</v>
-      </c>
-      <c r="V378" t="s">
-        <v>3163</v>
-      </c>
-      <c r="W378" t="n">
-        <v>448.1005615</v>
-      </c>
-      <c r="X378" t="s">
-        <v>3165</v>
-      </c>
-      <c r="Y378" t="s">
-        <v>3166</v>
-      </c>
-      <c r="Z378" t="n">
-        <v>261.97098</v>
-      </c>
-    </row>
-    <row r="379" spans="1:26">
-      <c r="A379" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B379" t="s">
-        <v>3167</v>
-      </c>
-      <c r="C379" t="s">
-        <v>3168</v>
-      </c>
-      <c r="D379" t="s">
-        <v>27</v>
-      </c>
-      <c r="E379" t="s">
-        <v>28</v>
-      </c>
-      <c r="F379" t="s">
-        <v>29</v>
-      </c>
-      <c r="G379" t="n">
-        <v>3.319517</v>
-      </c>
-      <c r="H379" t="s">
-        <v>30</v>
-      </c>
-      <c r="I379" t="s">
-        <v>31</v>
-      </c>
-      <c r="J379" t="s">
-        <v>44</v>
-      </c>
-      <c r="K379" t="n">
-        <v>2.774038563</v>
-      </c>
-      <c r="L379" t="n">
-        <v>0.861803535</v>
-      </c>
-      <c r="M379" t="n">
-        <v>458.1656871</v>
-      </c>
-      <c r="N379" t="s">
-        <v>45</v>
-      </c>
-      <c r="O379" t="n">
-        <v>0.000907968</v>
-      </c>
-      <c r="P379" t="n">
-        <v>4.16e-07</v>
-      </c>
-      <c r="Q379" t="s">
-        <v>3169</v>
-      </c>
-      <c r="R379" t="s">
-        <v>3170</v>
-      </c>
-      <c r="S379" t="s">
-        <v>3171</v>
-      </c>
-      <c r="T379" t="s">
-        <v>3172</v>
-      </c>
-      <c r="U379" t="s">
-        <v>3173</v>
-      </c>
-      <c r="V379" t="s">
-        <v>3170</v>
-      </c>
-      <c r="W379" t="n">
-        <v>457.1584107</v>
-      </c>
-      <c r="X379" t="s">
-        <v>3174</v>
-      </c>
-      <c r="Y379" t="s">
-        <v>3175</v>
-      </c>
-      <c r="Z379" t="n">
-        <v>199.17102</v>
-      </c>
-    </row>
-    <row r="380" spans="1:26">
-      <c r="A380" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B380" t="s">
-        <v>3176</v>
-      </c>
-      <c r="C380" t="s">
-        <v>3177</v>
-      </c>
-      <c r="D380" t="s">
-        <v>27</v>
-      </c>
-      <c r="E380" t="s">
-        <v>28</v>
-      </c>
-      <c r="F380" t="s">
-        <v>29</v>
-      </c>
-      <c r="G380" t="n">
-        <v>3.3875</v>
-      </c>
-      <c r="H380" t="s">
-        <v>30</v>
-      </c>
-      <c r="I380" t="s">
-        <v>31</v>
-      </c>
-      <c r="J380" t="s">
-        <v>44</v>
-      </c>
-      <c r="K380" t="n">
-        <v>2.414340281</v>
-      </c>
-      <c r="L380" t="n">
-        <v>0.582732747</v>
-      </c>
-      <c r="M380" t="n">
-        <v>325.1910545</v>
-      </c>
-      <c r="N380" t="s">
-        <v>45</v>
-      </c>
-      <c r="O380" t="n">
-        <v>0.001512957</v>
-      </c>
-      <c r="P380" t="n">
-        <v>4.92e-07</v>
-      </c>
-      <c r="Q380" t="s">
-        <v>3178</v>
-      </c>
-      <c r="R380" t="s">
-        <v>3179</v>
-      </c>
-      <c r="S380" t="s">
-        <v>3180</v>
-      </c>
-      <c r="T380" t="s">
-        <v>1750</v>
-      </c>
-      <c r="U380" t="s">
-        <v>310</v>
-      </c>
-      <c r="V380" t="s">
-        <v>3179</v>
-      </c>
-      <c r="W380" t="n">
-        <v>324.183778</v>
-      </c>
-      <c r="X380" t="s">
-        <v>3181</v>
-      </c>
-      <c r="Y380" t="s">
-        <v>3182</v>
-      </c>
-      <c r="Z380" t="n">
-        <v>203.25</v>
-      </c>
-    </row>
-    <row r="381" spans="1:26">
-      <c r="A381" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B381" t="s">
-        <v>3183</v>
-      </c>
-      <c r="C381" t="s">
-        <v>3184</v>
-      </c>
-      <c r="D381" t="s">
-        <v>27</v>
-      </c>
-      <c r="E381" t="s">
-        <v>28</v>
-      </c>
-      <c r="F381" t="s">
-        <v>29</v>
-      </c>
-      <c r="G381" t="n">
-        <v>4.089</v>
-      </c>
-      <c r="H381" t="s">
-        <v>30</v>
-      </c>
-      <c r="I381" t="s">
-        <v>31</v>
-      </c>
-      <c r="J381" t="s">
-        <v>44</v>
-      </c>
-      <c r="K381" t="n">
-        <v>0.901186336</v>
-      </c>
-      <c r="L381" t="n">
-        <v>0.463118164</v>
-      </c>
-      <c r="M381" t="n">
-        <v>449.1078379</v>
-      </c>
-      <c r="N381" t="s">
-        <v>45</v>
-      </c>
-      <c r="O381" t="n">
-        <v>0.0009797199999999999</v>
-      </c>
-      <c r="P381" t="n">
-        <v>4.4e-07</v>
-      </c>
-      <c r="Q381" t="s">
-        <v>3185</v>
-      </c>
-      <c r="R381" t="s">
-        <v>3186</v>
-      </c>
-      <c r="S381" t="s">
-        <v>3187</v>
-      </c>
-      <c r="T381" t="s">
-        <v>95</v>
-      </c>
-      <c r="U381" t="s">
-        <v>595</v>
-      </c>
-      <c r="V381" t="s">
-        <v>3186</v>
-      </c>
-      <c r="W381" t="n">
-        <v>448.1005615</v>
-      </c>
-      <c r="X381" t="s">
-        <v>3188</v>
-      </c>
-      <c r="Y381" t="s">
-        <v>3189</v>
-      </c>
-      <c r="Z381" t="n">
-        <v>245.34</v>
-      </c>
-    </row>
-    <row r="382" spans="1:26">
-      <c r="A382" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B382" t="s">
-        <v>3190</v>
-      </c>
-      <c r="C382" t="s">
-        <v>3191</v>
-      </c>
-      <c r="D382" t="s">
-        <v>27</v>
-      </c>
-      <c r="E382" t="s">
-        <v>28</v>
-      </c>
-      <c r="F382" t="s">
-        <v>29</v>
-      </c>
-      <c r="G382" t="n">
-        <v>3.943583</v>
-      </c>
-      <c r="H382" t="s">
-        <v>30</v>
-      </c>
-      <c r="I382" t="s">
-        <v>31</v>
-      </c>
-      <c r="J382" t="s">
-        <v>44</v>
-      </c>
-      <c r="K382" t="n">
-        <v>1.043188634</v>
-      </c>
-      <c r="L382" t="n">
-        <v>0.50166769</v>
-      </c>
-      <c r="M382" t="n">
-        <v>433.1129233</v>
-      </c>
-      <c r="N382" t="s">
-        <v>45</v>
-      </c>
-      <c r="O382" t="n">
-        <v>0.001062079</v>
-      </c>
-      <c r="P382" t="n">
-        <v>4.6e-07</v>
-      </c>
-      <c r="Q382" t="s">
-        <v>3192</v>
-      </c>
-      <c r="R382" t="s">
-        <v>3193</v>
-      </c>
-      <c r="S382" t="s">
-        <v>3194</v>
-      </c>
-      <c r="T382" t="s">
-        <v>37</v>
-      </c>
-      <c r="U382" t="s">
-        <v>319</v>
-      </c>
-      <c r="V382" t="s">
-        <v>3193</v>
-      </c>
-      <c r="W382" t="n">
-        <v>432.1056468</v>
-      </c>
-      <c r="X382" t="s">
-        <v>3195</v>
-      </c>
-      <c r="Y382" t="s">
-        <v>3196</v>
-      </c>
-      <c r="Z382" t="n">
-        <v>236.61498</v>
-      </c>
-    </row>
-    <row r="383" spans="1:26">
-      <c r="A383" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B383" t="s">
-        <v>3197</v>
-      </c>
-      <c r="C383" t="s">
-        <v>3198</v>
-      </c>
-      <c r="D383" t="s">
-        <v>27</v>
-      </c>
-      <c r="E383" t="s">
-        <v>28</v>
-      </c>
-      <c r="F383" t="s">
-        <v>29</v>
-      </c>
-      <c r="G383" t="n">
-        <v>3.6144</v>
-      </c>
-      <c r="H383" t="s">
-        <v>30</v>
-      </c>
-      <c r="I383" t="s">
-        <v>31</v>
-      </c>
-      <c r="J383" t="s">
-        <v>44</v>
-      </c>
-      <c r="K383" t="n">
-        <v>0.713508298</v>
-      </c>
-      <c r="L383" t="n">
-        <v>0.309872717</v>
-      </c>
-      <c r="M383" t="n">
-        <v>399.1914484</v>
-      </c>
-      <c r="N383" t="s">
-        <v>45</v>
-      </c>
-      <c r="O383" t="n">
-        <v>0.00117237</v>
-      </c>
-      <c r="P383" t="n">
-        <v>4.68e-07</v>
-      </c>
-      <c r="Q383" t="s">
-        <v>3199</v>
-      </c>
-      <c r="R383" t="s">
-        <v>3200</v>
-      </c>
-      <c r="S383" t="s">
-        <v>3201</v>
-      </c>
-      <c r="T383" t="s">
-        <v>1658</v>
-      </c>
-      <c r="U383" t="s">
-        <v>3202</v>
-      </c>
-      <c r="V383" t="s">
-        <v>3200</v>
-      </c>
-      <c r="W383" t="n">
-        <v>398.1841719</v>
-      </c>
-      <c r="X383" t="s">
-        <v>3203</v>
-      </c>
-      <c r="Y383" t="s">
-        <v>3204</v>
-      </c>
-      <c r="Z383" t="n">
-        <v>216.863999999999</v>
-      </c>
-    </row>
-    <row r="384" spans="1:26">
-      <c r="A384" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B384" t="s">
-        <v>3205</v>
-      </c>
-      <c r="C384" t="s">
-        <v>3206</v>
-      </c>
-      <c r="D384" t="s">
-        <v>27</v>
-      </c>
-      <c r="E384" t="s">
-        <v>28</v>
-      </c>
-      <c r="F384" t="s">
-        <v>29</v>
-      </c>
-      <c r="G384" t="n">
-        <v>4.7256</v>
-      </c>
-      <c r="H384" t="s">
-        <v>30</v>
-      </c>
-      <c r="I384" t="s">
-        <v>31</v>
-      </c>
-      <c r="J384" t="s">
-        <v>32</v>
-      </c>
-      <c r="K384" t="n">
-        <v>1.734485444</v>
-      </c>
-      <c r="L384" t="n">
-        <v>0.60009078</v>
-      </c>
-      <c r="M384" t="n">
-        <v>435.1296705</v>
-      </c>
-      <c r="N384" t="s">
-        <v>33</v>
-      </c>
-      <c r="O384" t="n">
-        <v>0.00096562</v>
-      </c>
-      <c r="P384" t="n">
-        <v>-4.2e-07</v>
-      </c>
-      <c r="Q384" t="s">
-        <v>3207</v>
-      </c>
-      <c r="R384" t="s">
-        <v>3208</v>
-      </c>
-      <c r="S384" t="s">
-        <v>3209</v>
-      </c>
-      <c r="T384" t="s">
-        <v>793</v>
-      </c>
-      <c r="U384" t="s">
-        <v>3210</v>
-      </c>
-      <c r="V384" t="s">
-        <v>3211</v>
-      </c>
-      <c r="W384" t="n">
-        <v>436.136947</v>
-      </c>
-      <c r="X384" t="s">
-        <v>3212</v>
-      </c>
-      <c r="Y384" t="s">
-        <v>3213</v>
-      </c>
-      <c r="Z384" t="n">
-        <v>283.536</v>
-      </c>
-    </row>
-    <row r="385" spans="1:26">
-      <c r="A385" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B385" t="s">
-        <v>3214</v>
-      </c>
-      <c r="C385" t="s">
-        <v>3215</v>
-      </c>
-      <c r="D385" t="s">
-        <v>27</v>
-      </c>
-      <c r="E385" t="s">
-        <v>28</v>
-      </c>
-      <c r="F385" t="s">
-        <v>29</v>
-      </c>
-      <c r="G385" t="n">
-        <v>6.121867</v>
-      </c>
-      <c r="H385" t="s">
-        <v>30</v>
-      </c>
-      <c r="I385" t="s">
-        <v>31</v>
-      </c>
-      <c r="J385" t="s">
-        <v>32</v>
-      </c>
-      <c r="K385" t="n">
-        <v>2.08855577</v>
-      </c>
-      <c r="L385" t="n">
-        <v>0.737168549</v>
-      </c>
-      <c r="M385" t="n">
-        <v>1189.601143</v>
-      </c>
-      <c r="N385" t="s">
-        <v>33</v>
-      </c>
-      <c r="O385" t="n">
-        <v>3.35e-05</v>
-      </c>
-      <c r="P385" t="n">
-        <v>3.98e-08</v>
-      </c>
-      <c r="Q385" t="s">
-        <v>3216</v>
-      </c>
-      <c r="R385" t="s">
-        <v>3217</v>
-      </c>
-      <c r="S385" t="s">
-        <v>3218</v>
-      </c>
-      <c r="T385" t="s">
-        <v>166</v>
-      </c>
-      <c r="U385" t="s">
-        <v>3219</v>
-      </c>
-      <c r="V385" t="s">
-        <v>3220</v>
-      </c>
-      <c r="W385" t="n">
-        <v>1190.608419</v>
-      </c>
-      <c r="X385" t="s">
-        <v>3221</v>
-      </c>
-      <c r="Y385" t="s">
-        <v>3222</v>
-      </c>
-      <c r="Z385" t="n">
-        <v>367.31202</v>
-      </c>
-    </row>
-    <row r="386" spans="1:26">
-      <c r="A386" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B386" t="s">
-        <v>3223</v>
-      </c>
-      <c r="C386" t="s">
-        <v>3224</v>
-      </c>
-      <c r="D386" t="s">
-        <v>27</v>
-      </c>
-      <c r="E386" t="s">
-        <v>28</v>
-      </c>
-      <c r="F386" t="s">
-        <v>29</v>
-      </c>
-      <c r="G386" t="n">
-        <v>9.771732999999999</v>
-      </c>
-      <c r="H386" t="s">
-        <v>30</v>
-      </c>
-      <c r="I386" t="s">
-        <v>31</v>
-      </c>
-      <c r="J386" t="s">
-        <v>44</v>
-      </c>
-      <c r="K386" t="n">
-        <v>3.436736334</v>
-      </c>
-      <c r="L386" t="n">
-        <v>0.874081573</v>
-      </c>
-      <c r="M386" t="n">
-        <v>473.3625365</v>
-      </c>
-      <c r="N386" t="s">
-        <v>45</v>
-      </c>
-      <c r="O386" t="n">
-        <v>0.001022472</v>
-      </c>
-      <c r="P386" t="n">
-        <v>4.84e-07</v>
-      </c>
-      <c r="Q386" t="s">
-        <v>3225</v>
-      </c>
-      <c r="R386" t="s">
-        <v>3226</v>
-      </c>
-      <c r="S386" t="s">
-        <v>3227</v>
-      </c>
-      <c r="T386" t="s">
-        <v>577</v>
-      </c>
-      <c r="U386" t="s">
-        <v>3228</v>
-      </c>
-      <c r="V386" t="s">
-        <v>3226</v>
-      </c>
-      <c r="W386" t="n">
-        <v>472.35526</v>
-      </c>
-      <c r="X386" t="s">
-        <v>3229</v>
-      </c>
-      <c r="Y386" t="s">
-        <v>3230</v>
-      </c>
-      <c r="Z386" t="n">
-        <v>586.303979999999</v>
-      </c>
-    </row>
-    <row r="387" spans="1:26">
-      <c r="A387" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B387" t="s">
-        <v>3231</v>
-      </c>
-      <c r="C387" t="s">
-        <v>3232</v>
-      </c>
-      <c r="D387" t="s">
-        <v>27</v>
-      </c>
-      <c r="E387" t="s">
-        <v>28</v>
-      </c>
-      <c r="F387" t="s">
-        <v>29</v>
-      </c>
-      <c r="G387" t="n">
-        <v>6.58855</v>
-      </c>
-      <c r="H387" t="s">
-        <v>30</v>
-      </c>
-      <c r="I387" t="s">
-        <v>31</v>
-      </c>
-      <c r="J387" t="s">
-        <v>44</v>
-      </c>
-      <c r="K387" t="n">
-        <v>2.985105718</v>
-      </c>
-      <c r="L387" t="n">
-        <v>0.916211562</v>
-      </c>
-      <c r="M387" t="n">
-        <v>639.44666</v>
-      </c>
-      <c r="N387" t="s">
-        <v>45</v>
-      </c>
-      <c r="O387" t="n">
-        <v>0.0006818389999999999</v>
-      </c>
-      <c r="P387" t="n">
-        <v>4.36e-07</v>
-      </c>
-      <c r="Q387" t="s">
-        <v>3233</v>
-      </c>
-      <c r="R387" t="s">
-        <v>3234</v>
-      </c>
-      <c r="S387" t="s">
-        <v>3235</v>
-      </c>
-      <c r="T387" t="s">
-        <v>166</v>
-      </c>
-      <c r="U387" t="s">
-        <v>578</v>
-      </c>
-      <c r="V387" t="s">
-        <v>3234</v>
-      </c>
-      <c r="W387" t="n">
-        <v>638.4393836</v>
-      </c>
-      <c r="X387" t="s">
-        <v>3236</v>
-      </c>
-      <c r="Y387" t="s">
-        <v>3237</v>
-      </c>
-      <c r="Z387" t="n">
-        <v>395.313</v>
-      </c>
-    </row>
-    <row r="388" spans="1:26">
-      <c r="A388" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B388" t="s">
-        <v>3238</v>
-      </c>
-      <c r="C388" t="s">
-        <v>3239</v>
-      </c>
-      <c r="D388" t="s">
-        <v>27</v>
-      </c>
-      <c r="E388" t="s">
-        <v>28</v>
-      </c>
-      <c r="F388" t="s">
-        <v>29</v>
-      </c>
-      <c r="G388" t="n">
-        <v>4.009517</v>
-      </c>
-      <c r="H388" t="s">
-        <v>30</v>
-      </c>
-      <c r="I388" t="s">
-        <v>31</v>
-      </c>
-      <c r="J388" t="s">
-        <v>44</v>
-      </c>
-      <c r="K388" t="n">
-        <v>0.287882097</v>
-      </c>
-      <c r="L388" t="n">
-        <v>0.147942133</v>
-      </c>
-      <c r="M388" t="n">
-        <v>588.3530940000001</v>
-      </c>
-      <c r="N388" t="s">
-        <v>45</v>
-      </c>
-      <c r="O388" t="n">
-        <v>0.0008022389999999999</v>
-      </c>
-      <c r="P388" t="n">
-        <v>4.72e-07</v>
-      </c>
-      <c r="Q388" t="s">
-        <v>3240</v>
-      </c>
-      <c r="R388" t="s">
-        <v>3241</v>
-      </c>
-      <c r="S388" t="s">
-        <v>3242</v>
-      </c>
-      <c r="T388" t="s">
-        <v>776</v>
-      </c>
-      <c r="U388" t="s">
-        <v>3243</v>
-      </c>
-      <c r="V388" t="s">
-        <v>3241</v>
-      </c>
-      <c r="W388" t="n">
-        <v>587.3458175</v>
-      </c>
-      <c r="X388" t="s">
-        <v>3244</v>
-      </c>
-      <c r="Y388" t="s">
-        <v>3245</v>
-      </c>
-      <c r="Z388" t="n">
-        <v>240.571019999999</v>
-      </c>
-    </row>
-    <row r="389" spans="1:26">
-      <c r="A389" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B389" t="s">
-        <v>3246</v>
-      </c>
-      <c r="C389" t="s">
-        <v>3247</v>
-      </c>
-      <c r="D389" t="s">
-        <v>27</v>
-      </c>
-      <c r="E389" t="s">
-        <v>28</v>
-      </c>
-      <c r="F389" t="s">
-        <v>29</v>
-      </c>
-      <c r="G389" t="n">
-        <v>2.003917</v>
-      </c>
-      <c r="H389" t="s">
-        <v>30</v>
-      </c>
-      <c r="I389" t="s">
-        <v>31</v>
-      </c>
-      <c r="J389" t="s">
-        <v>32</v>
-      </c>
-      <c r="K389" t="n">
-        <v>2.214958165</v>
-      </c>
-      <c r="L389" t="n">
-        <v>0.588896655</v>
-      </c>
-      <c r="M389" t="n">
-        <v>424.0377617</v>
-      </c>
-      <c r="N389" t="s">
-        <v>33</v>
-      </c>
-      <c r="O389" t="n">
-        <v>0.000141898</v>
-      </c>
-      <c r="P389" t="n">
-        <v>-6.02e-08</v>
-      </c>
-      <c r="Q389" t="s">
-        <v>3248</v>
-      </c>
-      <c r="R389" t="s">
-        <v>3249</v>
-      </c>
-      <c r="S389" t="s">
-        <v>3250</v>
-      </c>
-      <c r="T389" t="s">
-        <v>220</v>
-      </c>
-      <c r="U389" t="s">
-        <v>3251</v>
-      </c>
-      <c r="V389" t="s">
-        <v>3252</v>
-      </c>
-      <c r="W389" t="n">
-        <v>425.0450378</v>
-      </c>
-      <c r="X389" t="s">
-        <v>3253</v>
-      </c>
-      <c r="Y389" t="s">
-        <v>3254</v>
-      </c>
-      <c r="Z389" t="n">
-        <v>120.235019999999</v>
-      </c>
-    </row>
-    <row r="390" spans="1:26">
-      <c r="A390" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B390" t="s">
-        <v>3255</v>
-      </c>
-      <c r="C390" t="s">
-        <v>3256</v>
-      </c>
-      <c r="D390" t="s">
-        <v>27</v>
-      </c>
-      <c r="E390" t="s">
-        <v>28</v>
-      </c>
-      <c r="F390" t="s">
-        <v>29</v>
-      </c>
-      <c r="G390" t="n">
-        <v>4.933183</v>
-      </c>
-      <c r="H390" t="s">
-        <v>30</v>
-      </c>
-      <c r="I390" t="s">
-        <v>31</v>
-      </c>
-      <c r="J390" t="s">
-        <v>44</v>
-      </c>
-      <c r="K390" t="n">
-        <v>1.054982121</v>
-      </c>
-      <c r="L390" t="n">
-        <v>0.507339158</v>
-      </c>
-      <c r="M390" t="n">
-        <v>247.1229749</v>
-      </c>
-      <c r="N390" t="s">
-        <v>45</v>
-      </c>
-      <c r="O390" t="n">
-        <v>0.001829049</v>
-      </c>
-      <c r="P390" t="n">
-        <v>4.52e-07</v>
-      </c>
-      <c r="Q390" t="s">
-        <v>3257</v>
-      </c>
-      <c r="R390" t="s">
-        <v>3258</v>
-      </c>
-      <c r="S390" t="s">
-        <v>3259</v>
-      </c>
-      <c r="T390" t="s">
-        <v>3260</v>
-      </c>
-      <c r="U390" t="s">
-        <v>3261</v>
-      </c>
-      <c r="V390" t="s">
-        <v>3258</v>
-      </c>
-      <c r="W390" t="n">
-        <v>246.1156984</v>
-      </c>
-      <c r="X390" t="s">
-        <v>3262</v>
-      </c>
-      <c r="Y390" t="s">
-        <v>3263</v>
-      </c>
-      <c r="Z390" t="n">
-        <v>295.99098</v>
-      </c>
-    </row>
-    <row r="391" spans="1:26">
-      <c r="A391" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B391" t="s">
-        <v>3264</v>
-      </c>
-      <c r="C391" t="s">
-        <v>3265</v>
-      </c>
-      <c r="D391" t="s">
-        <v>27</v>
-      </c>
-      <c r="E391" t="s">
-        <v>28</v>
-      </c>
-      <c r="F391" t="s">
-        <v>29</v>
-      </c>
-      <c r="G391" t="n">
-        <v>3.119067</v>
-      </c>
-      <c r="H391" t="s">
-        <v>30</v>
-      </c>
-      <c r="I391" t="s">
-        <v>31</v>
-      </c>
-      <c r="J391" t="s">
-        <v>44</v>
-      </c>
-      <c r="K391" t="n">
-        <v>0.917116766</v>
-      </c>
-      <c r="L391" t="n">
-        <v>0.569836686</v>
-      </c>
-      <c r="M391" t="n">
-        <v>433.1123747</v>
-      </c>
-      <c r="N391" t="s">
-        <v>342</v>
-      </c>
-      <c r="O391" t="n">
-        <v>2.81e-05</v>
-      </c>
-      <c r="P391" t="n">
-        <v>-1.22e-08</v>
-      </c>
-      <c r="Q391" t="s">
-        <v>3266</v>
-      </c>
-      <c r="R391" t="s">
-        <v>3267</v>
-      </c>
-      <c r="S391" t="s">
-        <v>3268</v>
-      </c>
-      <c r="T391" t="s">
-        <v>406</v>
-      </c>
-      <c r="U391" t="s">
-        <v>2354</v>
-      </c>
-      <c r="V391" t="s">
-        <v>3267</v>
-      </c>
-      <c r="W391" t="n">
-        <v>433.1129233</v>
-      </c>
-      <c r="X391" t="s">
-        <v>3269</v>
-      </c>
-      <c r="Y391" t="s">
-        <v>3270</v>
-      </c>
-      <c r="Z391" t="n">
-        <v>187.144019999999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
